--- a/2021_Summer/jp.hong/Project_Planner.xlsx
+++ b/2021_Summer/jp.hong/Project_Planner.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8592"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="WBS" sheetId="1" r:id="rId4"/>
@@ -21,16 +21,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
+    <x:t>기능 모듈 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mile Stone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스토리 보드 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리 앱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 구상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세 Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주차</x:t>
+  </x:si>
+  <x:si>
     <x:t>검증</x:t>
   </x:si>
   <x:si>
-    <x:t>1주차</x:t>
+    <x:t>5주차</x:t>
   </x:si>
   <x:si>
     <x:t>9주차</x:t>
   </x:si>
   <x:si>
     <x:t>2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
   </x:si>
   <x:si>
     <x:t>4주차</x:t>
@@ -42,31 +81,10 @@
     <x:t>8주차</x:t>
   </x:si>
   <x:si>
-    <x:t>5주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6주차</x:t>
-  </x:si>
-  <x:si>
     <x:t>7주차</x:t>
   </x:si>
   <x:si>
-    <x:t>스토리 보드 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mile Stone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 모듈 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 review</x:t>
-  </x:si>
-  <x:si>
     <x:t>대분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
   </x:si>
   <x:si>
     <x:t>소분류</x:t>
@@ -75,34 +93,16 @@
     <x:t>설계</x:t>
   </x:si>
   <x:si>
-    <x:t>개발</x:t>
+    <x:t>기획</x:t>
   </x:si>
   <x:si>
-    <x:t>기획</x:t>
+    <x:t>개발</x:t>
   </x:si>
   <x:si>
     <x:t>구현</x:t>
   </x:si>
   <x:si>
     <x:t>종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리 앱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디어 구상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세 Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 Task</x:t>
   </x:si>
   <x:si>
     <x:t>기능 검토(근거자료 및 샘플코드)</x:t>
@@ -255,13 +255,13 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffc000"/>
+        <x:fgColor rgb="ffffffff"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffffff"/>
+        <x:fgColor rgb="ffffc000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -441,7 +441,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="66">
+  <x:cellXfs count="63">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -593,19 +593,6 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="general" vertical="center" wrapText="1" readingOrder="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="general" vertical="center" wrapText="1" readingOrder="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -641,19 +628,6 @@
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="general" vertical="center" wrapText="1" readingOrder="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="general" vertical="center" wrapText="1" readingOrder="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -802,6 +776,35 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -998,98 +1001,56 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1813,7 +1774,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="O35" activeCellId="0" sqref="O35:O35"/>
+      <x:selection pane="bottomLeft" activeCell="E7" activeCellId="0" sqref="E7:E7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1"/>
@@ -1826,7 +1787,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:22" ht="14.199999999999999">
-      <x:c r="A1" s="20" t="s">
+      <x:c r="A1" s="19" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="B1" s="8"/>
@@ -1852,7 +1813,7 @@
       <x:c r="V1" s="8"/>
     </x:row>
     <x:row r="2" spans="1:22" ht="14.199999999999999">
-      <x:c r="A2" s="18"/>
+      <x:c r="A2" s="17"/>
       <x:c r="B2" s="16"/>
       <x:c r="C2" s="16"/>
       <x:c r="D2" s="16"/>
@@ -1865,1277 +1826,1277 @@
       <x:c r="K2" s="16"/>
       <x:c r="L2" s="16"/>
       <x:c r="M2" s="16"/>
-      <x:c r="N2" s="29"/>
-      <x:c r="O2" s="29"/>
-      <x:c r="P2" s="29"/>
-      <x:c r="Q2" s="29"/>
-      <x:c r="R2" s="29"/>
-      <x:c r="S2" s="29"/>
-      <x:c r="T2" s="29"/>
-      <x:c r="U2" s="29"/>
-      <x:c r="V2" s="29"/>
+      <x:c r="N2" s="27"/>
+      <x:c r="O2" s="27"/>
+      <x:c r="P2" s="27"/>
+      <x:c r="Q2" s="27"/>
+      <x:c r="R2" s="27"/>
+      <x:c r="S2" s="27"/>
+      <x:c r="T2" s="27"/>
+      <x:c r="U2" s="27"/>
+      <x:c r="V2" s="27"/>
     </x:row>
     <x:row r="3" spans="1:22" ht="13.199999999999999">
-      <x:c r="A3" s="47" t="s">
+      <x:c r="A3" s="48" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
+      <x:c r="D3" s="4"/>
+      <x:c r="E3" s="59"/>
+      <x:c r="F3" s="60"/>
+      <x:c r="G3" s="61"/>
+      <x:c r="H3" s="61"/>
+      <x:c r="I3" s="61"/>
+      <x:c r="J3" s="61"/>
+      <x:c r="K3" s="60"/>
+      <x:c r="L3" s="59"/>
+      <x:c r="M3" s="60"/>
+      <x:c r="N3" s="26"/>
+      <x:c r="O3" s="25"/>
+      <x:c r="P3" s="26"/>
+      <x:c r="Q3" s="26"/>
+      <x:c r="R3" s="26"/>
+      <x:c r="S3" s="26"/>
+      <x:c r="T3" s="26"/>
+      <x:c r="U3" s="26"/>
+      <x:c r="V3" s="26"/>
+    </x:row>
+    <x:row r="4" spans="1:22" ht="13.199999999999999">
+      <x:c r="A4" s="48"/>
+      <x:c r="B4" s="15" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="20" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="20" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E4" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F4" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G4" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H4" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I4" s="9" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J4" s="9" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B3" s="48" t="s">
-        <x:v>27</x:v>
+      <x:c r="K4" s="9" t="s">
+        <x:v>20</x:v>
       </x:c>
-      <x:c r="C3" s="49"/>
-      <x:c r="D3" s="4"/>
-      <x:c r="E3" s="58"/>
-      <x:c r="F3" s="59"/>
-      <x:c r="G3" s="60"/>
-      <x:c r="H3" s="60"/>
-      <x:c r="I3" s="60"/>
-      <x:c r="J3" s="60"/>
-      <x:c r="K3" s="59"/>
-      <x:c r="L3" s="58"/>
-      <x:c r="M3" s="59"/>
-      <x:c r="N3" s="28"/>
-      <x:c r="O3" s="27"/>
-      <x:c r="P3" s="28"/>
-      <x:c r="Q3" s="28"/>
-      <x:c r="R3" s="28"/>
-      <x:c r="S3" s="28"/>
-      <x:c r="T3" s="28"/>
-      <x:c r="U3" s="28"/>
-      <x:c r="V3" s="28"/>
-    </x:row>
-    <x:row r="4" spans="1:22" ht="13.199999999999999">
-      <x:c r="A4" s="47"/>
-      <x:c r="B4" s="15" t="s">
-        <x:v>14</x:v>
+      <x:c r="L4" s="9" t="s">
+        <x:v>19</x:v>
       </x:c>
-      <x:c r="C4" s="21" t="s">
-        <x:v>16</x:v>
+      <x:c r="M4" s="9" t="s">
+        <x:v>13</x:v>
       </x:c>
-      <x:c r="D4" s="21" t="s">
+      <x:c r="N4" s="28"/>
+      <x:c r="O4" s="28"/>
+      <x:c r="P4" s="28"/>
+      <x:c r="Q4" s="28"/>
+      <x:c r="R4" s="28"/>
+      <x:c r="S4" s="28"/>
+      <x:c r="T4" s="28"/>
+      <x:c r="U4" s="28"/>
+      <x:c r="V4" s="28"/>
+    </x:row>
+    <x:row r="5" spans="1:22" ht="13.199999999999999">
+      <x:c r="A5" s="56" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="31" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="38" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="31" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="22"/>
+      <x:c r="G5" s="22"/>
+      <x:c r="H5" s="22"/>
+      <x:c r="I5" s="22"/>
+      <x:c r="J5" s="22"/>
+      <x:c r="K5" s="22"/>
+      <x:c r="L5" s="22"/>
+      <x:c r="M5" s="22"/>
+      <x:c r="N5" s="25"/>
+      <x:c r="O5" s="25"/>
+      <x:c r="P5" s="25"/>
+      <x:c r="Q5" s="25"/>
+      <x:c r="R5" s="25"/>
+      <x:c r="S5" s="25"/>
+      <x:c r="T5" s="25"/>
+      <x:c r="U5" s="25"/>
+      <x:c r="V5" s="25"/>
+    </x:row>
+    <x:row r="6" spans="1:22" ht="13.199999999999999">
+      <x:c r="A6" s="57"/>
+      <x:c r="B6" s="31"/>
+      <x:c r="C6" s="24"/>
+      <x:c r="D6" s="31"/>
+      <x:c r="E6" s="40"/>
+      <x:c r="F6" s="22"/>
+      <x:c r="G6" s="22"/>
+      <x:c r="H6" s="22"/>
+      <x:c r="I6" s="22"/>
+      <x:c r="J6" s="22"/>
+      <x:c r="K6" s="22"/>
+      <x:c r="L6" s="22"/>
+      <x:c r="M6" s="22"/>
+      <x:c r="N6" s="25"/>
+      <x:c r="O6" s="25"/>
+      <x:c r="P6" s="25"/>
+      <x:c r="Q6" s="25"/>
+      <x:c r="R6" s="25"/>
+      <x:c r="S6" s="25"/>
+      <x:c r="T6" s="25"/>
+      <x:c r="U6" s="25"/>
+      <x:c r="V6" s="25"/>
+    </x:row>
+    <x:row r="7" spans="1:22" ht="13.199999999999999">
+      <x:c r="A7" s="57"/>
+      <x:c r="B7" s="31"/>
+      <x:c r="C7" s="24"/>
+      <x:c r="D7" s="31"/>
+      <x:c r="E7" s="40"/>
+      <x:c r="F7" s="22"/>
+      <x:c r="G7" s="22"/>
+      <x:c r="H7" s="22"/>
+      <x:c r="I7" s="22"/>
+      <x:c r="J7" s="22"/>
+      <x:c r="K7" s="22"/>
+      <x:c r="L7" s="22"/>
+      <x:c r="M7" s="22"/>
+      <x:c r="N7" s="25"/>
+      <x:c r="O7" s="25"/>
+      <x:c r="P7" s="25"/>
+      <x:c r="Q7" s="25"/>
+      <x:c r="R7" s="25"/>
+      <x:c r="S7" s="25"/>
+      <x:c r="T7" s="25"/>
+      <x:c r="U7" s="25"/>
+      <x:c r="V7" s="25"/>
+    </x:row>
+    <x:row r="8" spans="1:22" ht="13.199999999999999">
+      <x:c r="A8" s="57"/>
+      <x:c r="B8" s="31"/>
+      <x:c r="C8" s="24"/>
+      <x:c r="D8" s="31"/>
+      <x:c r="E8" s="40"/>
+      <x:c r="F8" s="22"/>
+      <x:c r="G8" s="22"/>
+      <x:c r="H8" s="22"/>
+      <x:c r="I8" s="22"/>
+      <x:c r="J8" s="22"/>
+      <x:c r="K8" s="22"/>
+      <x:c r="L8" s="22"/>
+      <x:c r="M8" s="22"/>
+      <x:c r="N8" s="25"/>
+      <x:c r="O8" s="25"/>
+      <x:c r="P8" s="25"/>
+      <x:c r="Q8" s="25"/>
+      <x:c r="R8" s="25"/>
+      <x:c r="S8" s="25"/>
+      <x:c r="T8" s="25"/>
+      <x:c r="U8" s="25"/>
+      <x:c r="V8" s="25"/>
+    </x:row>
+    <x:row r="9" spans="1:22" ht="13.199999999999999">
+      <x:c r="A9" s="57"/>
+      <x:c r="B9" s="31"/>
+      <x:c r="C9" s="24"/>
+      <x:c r="D9" s="39"/>
+      <x:c r="E9" s="40"/>
+      <x:c r="F9" s="22"/>
+      <x:c r="G9" s="22"/>
+      <x:c r="H9" s="22"/>
+      <x:c r="I9" s="22"/>
+      <x:c r="J9" s="22"/>
+      <x:c r="K9" s="22"/>
+      <x:c r="L9" s="22"/>
+      <x:c r="M9" s="22"/>
+      <x:c r="N9" s="25"/>
+      <x:c r="O9" s="25"/>
+      <x:c r="P9" s="25"/>
+      <x:c r="Q9" s="25"/>
+      <x:c r="R9" s="25"/>
+      <x:c r="S9" s="25"/>
+      <x:c r="T9" s="25"/>
+      <x:c r="U9" s="25"/>
+      <x:c r="V9" s="25"/>
+    </x:row>
+    <x:row r="10" spans="1:22" ht="13.199999999999999">
+      <x:c r="A10" s="57"/>
+      <x:c r="B10" s="31" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="32"/>
+      <x:c r="D10" s="31"/>
+      <x:c r="E10" s="22"/>
+      <x:c r="F10" s="22"/>
+      <x:c r="G10" s="22"/>
+      <x:c r="H10" s="22"/>
+      <x:c r="I10" s="22"/>
+      <x:c r="J10" s="22"/>
+      <x:c r="K10" s="22"/>
+      <x:c r="L10" s="22"/>
+      <x:c r="M10" s="22"/>
+      <x:c r="N10" s="25"/>
+      <x:c r="O10" s="25"/>
+      <x:c r="P10" s="25"/>
+      <x:c r="Q10" s="25"/>
+      <x:c r="R10" s="25"/>
+      <x:c r="S10" s="25"/>
+      <x:c r="T10" s="25"/>
+      <x:c r="U10" s="25"/>
+      <x:c r="V10" s="25"/>
+    </x:row>
+    <x:row r="11" spans="1:22" ht="13.199999999999999">
+      <x:c r="A11" s="57"/>
+      <x:c r="B11" s="31"/>
+      <x:c r="C11" s="33"/>
+      <x:c r="D11" s="31"/>
+      <x:c r="E11" s="22"/>
+      <x:c r="F11" s="22"/>
+      <x:c r="G11" s="22"/>
+      <x:c r="H11" s="22"/>
+      <x:c r="I11" s="22"/>
+      <x:c r="J11" s="22"/>
+      <x:c r="K11" s="22"/>
+      <x:c r="L11" s="22"/>
+      <x:c r="M11" s="22"/>
+      <x:c r="N11" s="25"/>
+      <x:c r="O11" s="25"/>
+      <x:c r="P11" s="25"/>
+      <x:c r="Q11" s="25"/>
+      <x:c r="R11" s="25"/>
+      <x:c r="S11" s="25"/>
+      <x:c r="T11" s="25"/>
+      <x:c r="U11" s="25"/>
+      <x:c r="V11" s="25"/>
+    </x:row>
+    <x:row r="12" spans="1:22" ht="13.199999999999999">
+      <x:c r="A12" s="57"/>
+      <x:c r="B12" s="31"/>
+      <x:c r="C12" s="34"/>
+      <x:c r="D12" s="31"/>
+      <x:c r="E12" s="22"/>
+      <x:c r="F12" s="22"/>
+      <x:c r="G12" s="22"/>
+      <x:c r="H12" s="22"/>
+      <x:c r="I12" s="22"/>
+      <x:c r="J12" s="22"/>
+      <x:c r="K12" s="22"/>
+      <x:c r="L12" s="22"/>
+      <x:c r="M12" s="22"/>
+      <x:c r="N12" s="25"/>
+      <x:c r="O12" s="25"/>
+      <x:c r="P12" s="25"/>
+      <x:c r="Q12" s="25"/>
+      <x:c r="R12" s="25"/>
+      <x:c r="S12" s="25"/>
+      <x:c r="T12" s="25"/>
+      <x:c r="U12" s="25"/>
+      <x:c r="V12" s="25"/>
+    </x:row>
+    <x:row r="13" spans="1:22" ht="13.199999999999999">
+      <x:c r="A13" s="57"/>
+      <x:c r="B13" s="31"/>
+      <x:c r="C13" s="31"/>
+      <x:c r="D13" s="31"/>
+      <x:c r="E13" s="22"/>
+      <x:c r="F13" s="22"/>
+      <x:c r="G13" s="22"/>
+      <x:c r="H13" s="22"/>
+      <x:c r="I13" s="22"/>
+      <x:c r="J13" s="22"/>
+      <x:c r="K13" s="22"/>
+      <x:c r="L13" s="22"/>
+      <x:c r="M13" s="22"/>
+      <x:c r="N13" s="25"/>
+      <x:c r="O13" s="25"/>
+      <x:c r="P13" s="25"/>
+      <x:c r="Q13" s="25"/>
+      <x:c r="R13" s="25"/>
+      <x:c r="S13" s="25"/>
+      <x:c r="T13" s="25"/>
+      <x:c r="U13" s="25"/>
+      <x:c r="V13" s="25"/>
+    </x:row>
+    <x:row r="14" spans="1:22" ht="13.199999999999999">
+      <x:c r="A14" s="57"/>
+      <x:c r="B14" s="31"/>
+      <x:c r="C14" s="31"/>
+      <x:c r="D14" s="31"/>
+      <x:c r="E14" s="22"/>
+      <x:c r="F14" s="22"/>
+      <x:c r="G14" s="22"/>
+      <x:c r="H14" s="22"/>
+      <x:c r="I14" s="22"/>
+      <x:c r="J14" s="22"/>
+      <x:c r="K14" s="22"/>
+      <x:c r="L14" s="22"/>
+      <x:c r="M14" s="22"/>
+      <x:c r="N14" s="25"/>
+      <x:c r="O14" s="25"/>
+      <x:c r="P14" s="25"/>
+      <x:c r="Q14" s="25"/>
+      <x:c r="R14" s="25"/>
+      <x:c r="S14" s="25"/>
+      <x:c r="T14" s="25"/>
+      <x:c r="U14" s="25"/>
+      <x:c r="V14" s="25"/>
+    </x:row>
+    <x:row r="15" spans="1:22" ht="13.199999999999999">
+      <x:c r="A15" s="58"/>
+      <x:c r="B15" s="31"/>
+      <x:c r="C15" s="31"/>
+      <x:c r="D15" s="32"/>
+      <x:c r="E15" s="22"/>
+      <x:c r="F15" s="22"/>
+      <x:c r="G15" s="22"/>
+      <x:c r="H15" s="22"/>
+      <x:c r="I15" s="22"/>
+      <x:c r="J15" s="22"/>
+      <x:c r="K15" s="22"/>
+      <x:c r="L15" s="22"/>
+      <x:c r="M15" s="22"/>
+      <x:c r="N15" s="25"/>
+      <x:c r="O15" s="25"/>
+      <x:c r="P15" s="25"/>
+      <x:c r="Q15" s="25"/>
+      <x:c r="R15" s="25"/>
+      <x:c r="S15" s="25"/>
+      <x:c r="T15" s="25"/>
+      <x:c r="U15" s="25"/>
+      <x:c r="V15" s="25"/>
+    </x:row>
+    <x:row r="16" spans="1:22" ht="13.199999999999999">
+      <x:c r="A16" s="56" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B16" s="51" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C16" s="31"/>
+      <x:c r="D16" s="31"/>
+      <x:c r="E16" s="22"/>
+      <x:c r="F16" s="22"/>
+      <x:c r="G16" s="22"/>
+      <x:c r="H16" s="22"/>
+      <x:c r="I16" s="22"/>
+      <x:c r="J16" s="22"/>
+      <x:c r="K16" s="22"/>
+      <x:c r="L16" s="22"/>
+      <x:c r="M16" s="22"/>
+      <x:c r="N16" s="25"/>
+      <x:c r="O16" s="25"/>
+      <x:c r="P16" s="25"/>
+      <x:c r="Q16" s="25"/>
+      <x:c r="R16" s="25"/>
+      <x:c r="S16" s="25"/>
+      <x:c r="T16" s="25"/>
+      <x:c r="U16" s="25"/>
+      <x:c r="V16" s="25"/>
+    </x:row>
+    <x:row r="17" spans="1:22" ht="13.199999999999999">
+      <x:c r="A17" s="57"/>
+      <x:c r="B17" s="52"/>
+      <x:c r="C17" s="31"/>
+      <x:c r="D17" s="31"/>
+      <x:c r="E17" s="22"/>
+      <x:c r="F17" s="22"/>
+      <x:c r="G17" s="22"/>
+      <x:c r="H17" s="22"/>
+      <x:c r="I17" s="22"/>
+      <x:c r="J17" s="22"/>
+      <x:c r="K17" s="22"/>
+      <x:c r="L17" s="22"/>
+      <x:c r="M17" s="22"/>
+      <x:c r="N17" s="25"/>
+      <x:c r="O17" s="25"/>
+      <x:c r="P17" s="25"/>
+      <x:c r="Q17" s="25"/>
+      <x:c r="R17" s="25"/>
+      <x:c r="S17" s="25"/>
+      <x:c r="T17" s="25"/>
+      <x:c r="U17" s="25"/>
+      <x:c r="V17" s="25"/>
+    </x:row>
+    <x:row r="18" spans="1:22" ht="13.199999999999999">
+      <x:c r="A18" s="57"/>
+      <x:c r="B18" s="41" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C18" s="31"/>
+      <x:c r="D18" s="31"/>
+      <x:c r="E18" s="22"/>
+      <x:c r="F18" s="22"/>
+      <x:c r="G18" s="22"/>
+      <x:c r="H18" s="22"/>
+      <x:c r="I18" s="22"/>
+      <x:c r="J18" s="22"/>
+      <x:c r="K18" s="22"/>
+      <x:c r="L18" s="22"/>
+      <x:c r="M18" s="22"/>
+      <x:c r="N18" s="25"/>
+      <x:c r="O18" s="25"/>
+      <x:c r="P18" s="25"/>
+      <x:c r="Q18" s="25"/>
+      <x:c r="R18" s="25"/>
+      <x:c r="S18" s="25"/>
+      <x:c r="T18" s="25"/>
+      <x:c r="U18" s="25"/>
+      <x:c r="V18" s="25"/>
+    </x:row>
+    <x:row r="19" spans="1:22" ht="13.199999999999999">
+      <x:c r="A19" s="57"/>
+      <x:c r="B19" s="43"/>
+      <x:c r="C19" s="31"/>
+      <x:c r="D19" s="31"/>
+      <x:c r="E19" s="22"/>
+      <x:c r="F19" s="22"/>
+      <x:c r="G19" s="22"/>
+      <x:c r="H19" s="22"/>
+      <x:c r="I19" s="22"/>
+      <x:c r="J19" s="22"/>
+      <x:c r="K19" s="22"/>
+      <x:c r="L19" s="22"/>
+      <x:c r="M19" s="22"/>
+      <x:c r="N19" s="25"/>
+      <x:c r="O19" s="25"/>
+      <x:c r="P19" s="25"/>
+      <x:c r="Q19" s="25"/>
+      <x:c r="R19" s="25"/>
+      <x:c r="S19" s="25"/>
+      <x:c r="T19" s="25"/>
+      <x:c r="U19" s="25"/>
+      <x:c r="V19" s="25"/>
+    </x:row>
+    <x:row r="20" spans="1:22" ht="13.199999999999999">
+      <x:c r="A20" s="57"/>
+      <x:c r="B20" s="41" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C20" s="31"/>
+      <x:c r="D20" s="31"/>
+      <x:c r="E20" s="22"/>
+      <x:c r="F20" s="22"/>
+      <x:c r="G20" s="22"/>
+      <x:c r="H20" s="22"/>
+      <x:c r="I20" s="22"/>
+      <x:c r="J20" s="22"/>
+      <x:c r="K20" s="22"/>
+      <x:c r="L20" s="22"/>
+      <x:c r="M20" s="22"/>
+      <x:c r="N20" s="25"/>
+      <x:c r="O20" s="25"/>
+      <x:c r="P20" s="25"/>
+      <x:c r="Q20" s="25"/>
+      <x:c r="R20" s="25"/>
+      <x:c r="S20" s="25"/>
+      <x:c r="T20" s="25"/>
+      <x:c r="U20" s="25"/>
+      <x:c r="V20" s="25"/>
+    </x:row>
+    <x:row r="21" spans="1:22" ht="13.199999999999999">
+      <x:c r="A21" s="57"/>
+      <x:c r="B21" s="43"/>
+      <x:c r="C21" s="31"/>
+      <x:c r="D21" s="31"/>
+      <x:c r="E21" s="22"/>
+      <x:c r="F21" s="22"/>
+      <x:c r="G21" s="22"/>
+      <x:c r="H21" s="22"/>
+      <x:c r="I21" s="22"/>
+      <x:c r="J21" s="22"/>
+      <x:c r="K21" s="22"/>
+      <x:c r="L21" s="22"/>
+      <x:c r="M21" s="22"/>
+      <x:c r="N21" s="25"/>
+      <x:c r="O21" s="25"/>
+      <x:c r="P21" s="25"/>
+      <x:c r="Q21" s="25"/>
+      <x:c r="R21" s="25"/>
+      <x:c r="S21" s="25"/>
+      <x:c r="T21" s="25"/>
+      <x:c r="U21" s="25"/>
+      <x:c r="V21" s="25"/>
+    </x:row>
+    <x:row r="22" spans="1:22" ht="13.199999999999999">
+      <x:c r="A22" s="57"/>
+      <x:c r="B22" s="31"/>
+      <x:c r="C22" s="31"/>
+      <x:c r="D22" s="31"/>
+      <x:c r="E22" s="22"/>
+      <x:c r="F22" s="22"/>
+      <x:c r="G22" s="22"/>
+      <x:c r="H22" s="22"/>
+      <x:c r="I22" s="22"/>
+      <x:c r="J22" s="22"/>
+      <x:c r="K22" s="22"/>
+      <x:c r="L22" s="22"/>
+      <x:c r="M22" s="22"/>
+      <x:c r="N22" s="25"/>
+      <x:c r="O22" s="25"/>
+      <x:c r="P22" s="25"/>
+      <x:c r="Q22" s="25"/>
+      <x:c r="R22" s="25"/>
+      <x:c r="S22" s="25"/>
+      <x:c r="T22" s="25"/>
+      <x:c r="U22" s="25"/>
+      <x:c r="V22" s="25"/>
+    </x:row>
+    <x:row r="23" spans="1:22" ht="13.199999999999999">
+      <x:c r="A23" s="57"/>
+      <x:c r="B23" s="31"/>
+      <x:c r="C23" s="31"/>
+      <x:c r="D23" s="31"/>
+      <x:c r="E23" s="22"/>
+      <x:c r="F23" s="22"/>
+      <x:c r="G23" s="22"/>
+      <x:c r="H23" s="22"/>
+      <x:c r="I23" s="22"/>
+      <x:c r="J23" s="22"/>
+      <x:c r="K23" s="22"/>
+      <x:c r="L23" s="22"/>
+      <x:c r="M23" s="22"/>
+      <x:c r="N23" s="25"/>
+      <x:c r="O23" s="25"/>
+      <x:c r="P23" s="25"/>
+      <x:c r="Q23" s="25"/>
+      <x:c r="R23" s="25"/>
+      <x:c r="S23" s="25"/>
+      <x:c r="T23" s="25"/>
+      <x:c r="U23" s="25"/>
+      <x:c r="V23" s="25"/>
+    </x:row>
+    <x:row r="24" spans="1:22" ht="13.199999999999999">
+      <x:c r="A24" s="57"/>
+      <x:c r="B24" s="24"/>
+      <x:c r="C24" s="34"/>
+      <x:c r="D24" s="31"/>
+      <x:c r="E24" s="22"/>
+      <x:c r="F24" s="22"/>
+      <x:c r="G24" s="22"/>
+      <x:c r="H24" s="22"/>
+      <x:c r="I24" s="22"/>
+      <x:c r="J24" s="22"/>
+      <x:c r="K24" s="22"/>
+      <x:c r="L24" s="22"/>
+      <x:c r="M24" s="22"/>
+      <x:c r="N24" s="25"/>
+      <x:c r="O24" s="25"/>
+      <x:c r="P24" s="25"/>
+      <x:c r="Q24" s="25"/>
+      <x:c r="R24" s="25"/>
+      <x:c r="S24" s="25"/>
+      <x:c r="T24" s="25"/>
+      <x:c r="U24" s="25"/>
+      <x:c r="V24" s="25"/>
+    </x:row>
+    <x:row r="25" spans="1:22" ht="13.199999999999999">
+      <x:c r="A25" s="57"/>
+      <x:c r="B25" s="24"/>
+      <x:c r="C25" s="31"/>
+      <x:c r="D25" s="31"/>
+      <x:c r="E25" s="22"/>
+      <x:c r="F25" s="22"/>
+      <x:c r="G25" s="22"/>
+      <x:c r="H25" s="22"/>
+      <x:c r="I25" s="22"/>
+      <x:c r="J25" s="22"/>
+      <x:c r="K25" s="22"/>
+      <x:c r="L25" s="22"/>
+      <x:c r="M25" s="22"/>
+      <x:c r="N25" s="25"/>
+      <x:c r="O25" s="25"/>
+      <x:c r="P25" s="25"/>
+      <x:c r="Q25" s="25"/>
+      <x:c r="R25" s="25"/>
+      <x:c r="S25" s="25"/>
+      <x:c r="T25" s="25"/>
+      <x:c r="U25" s="25"/>
+      <x:c r="V25" s="25"/>
+    </x:row>
+    <x:row r="26" spans="1:22" ht="13.199999999999999">
+      <x:c r="A26" s="57"/>
+      <x:c r="B26" s="31"/>
+      <x:c r="C26" s="31"/>
+      <x:c r="D26" s="31"/>
+      <x:c r="E26" s="22"/>
+      <x:c r="F26" s="22"/>
+      <x:c r="G26" s="22"/>
+      <x:c r="H26" s="22"/>
+      <x:c r="I26" s="22"/>
+      <x:c r="J26" s="22"/>
+      <x:c r="K26" s="22"/>
+      <x:c r="L26" s="22"/>
+      <x:c r="M26" s="22"/>
+      <x:c r="N26" s="25"/>
+      <x:c r="O26" s="25"/>
+      <x:c r="P26" s="25"/>
+      <x:c r="Q26" s="25"/>
+      <x:c r="R26" s="25"/>
+      <x:c r="S26" s="25"/>
+      <x:c r="T26" s="25"/>
+      <x:c r="U26" s="25"/>
+      <x:c r="V26" s="25"/>
+    </x:row>
+    <x:row r="27" spans="1:22" ht="13.199999999999999">
+      <x:c r="A27" s="58"/>
+      <x:c r="B27" s="35"/>
+      <x:c r="C27" s="31"/>
+      <x:c r="D27" s="31"/>
+      <x:c r="E27" s="22"/>
+      <x:c r="F27" s="22"/>
+      <x:c r="G27" s="22"/>
+      <x:c r="H27" s="22"/>
+      <x:c r="I27" s="22"/>
+      <x:c r="J27" s="22"/>
+      <x:c r="K27" s="22"/>
+      <x:c r="L27" s="22"/>
+      <x:c r="M27" s="22"/>
+      <x:c r="N27" s="25"/>
+      <x:c r="O27" s="25"/>
+      <x:c r="P27" s="25"/>
+      <x:c r="Q27" s="25"/>
+      <x:c r="R27" s="25"/>
+      <x:c r="S27" s="25"/>
+      <x:c r="T27" s="25"/>
+      <x:c r="U27" s="25"/>
+      <x:c r="V27" s="25"/>
+    </x:row>
+    <x:row r="28" spans="1:22" ht="13.199999999999999">
+      <x:c r="A28" s="62" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B28" s="53" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E4" s="9" t="s">
+      <x:c r="C28" s="24"/>
+      <x:c r="D28" s="11"/>
+      <x:c r="E28" s="22"/>
+      <x:c r="F28" s="22"/>
+      <x:c r="G28" s="22"/>
+      <x:c r="H28" s="22"/>
+      <x:c r="I28" s="22"/>
+      <x:c r="J28" s="22"/>
+      <x:c r="K28" s="22"/>
+      <x:c r="L28" s="22"/>
+      <x:c r="M28" s="22"/>
+      <x:c r="N28" s="25"/>
+      <x:c r="O28" s="25"/>
+      <x:c r="P28" s="25"/>
+      <x:c r="Q28" s="25"/>
+      <x:c r="R28" s="25"/>
+      <x:c r="S28" s="25"/>
+      <x:c r="T28" s="25"/>
+      <x:c r="U28" s="25"/>
+      <x:c r="V28" s="25"/>
+    </x:row>
+    <x:row r="29" spans="1:22" ht="13.199999999999999">
+      <x:c r="A29" s="62"/>
+      <x:c r="B29" s="54"/>
+      <x:c r="C29" s="24"/>
+      <x:c r="D29" s="11"/>
+      <x:c r="E29" s="22"/>
+      <x:c r="F29" s="22"/>
+      <x:c r="G29" s="22"/>
+      <x:c r="H29" s="22"/>
+      <x:c r="I29" s="22"/>
+      <x:c r="J29" s="22"/>
+      <x:c r="K29" s="22"/>
+      <x:c r="L29" s="22"/>
+      <x:c r="M29" s="22"/>
+      <x:c r="N29" s="25"/>
+      <x:c r="O29" s="25"/>
+      <x:c r="P29" s="25"/>
+      <x:c r="Q29" s="25"/>
+      <x:c r="R29" s="25"/>
+      <x:c r="S29" s="25"/>
+      <x:c r="T29" s="25"/>
+      <x:c r="U29" s="25"/>
+      <x:c r="V29" s="25"/>
+    </x:row>
+    <x:row r="30" spans="1:22" ht="13.199999999999999">
+      <x:c r="A30" s="62"/>
+      <x:c r="B30" s="54"/>
+      <x:c r="C30" s="24"/>
+      <x:c r="D30" s="11"/>
+      <x:c r="E30" s="22"/>
+      <x:c r="F30" s="22"/>
+      <x:c r="G30" s="22"/>
+      <x:c r="H30" s="22"/>
+      <x:c r="I30" s="22"/>
+      <x:c r="J30" s="22"/>
+      <x:c r="K30" s="22"/>
+      <x:c r="L30" s="22"/>
+      <x:c r="M30" s="22"/>
+      <x:c r="N30" s="25"/>
+      <x:c r="O30" s="25"/>
+      <x:c r="P30" s="25"/>
+      <x:c r="Q30" s="25"/>
+      <x:c r="R30" s="25"/>
+      <x:c r="S30" s="25"/>
+      <x:c r="T30" s="25"/>
+      <x:c r="U30" s="25"/>
+      <x:c r="V30" s="25"/>
+    </x:row>
+    <x:row r="31" spans="1:22" ht="13.199999999999999">
+      <x:c r="A31" s="62"/>
+      <x:c r="B31" s="54"/>
+      <x:c r="C31" s="24"/>
+      <x:c r="D31" s="11"/>
+      <x:c r="E31" s="22"/>
+      <x:c r="F31" s="22"/>
+      <x:c r="G31" s="22"/>
+      <x:c r="H31" s="22"/>
+      <x:c r="I31" s="22"/>
+      <x:c r="J31" s="22"/>
+      <x:c r="K31" s="22"/>
+      <x:c r="L31" s="22"/>
+      <x:c r="M31" s="22"/>
+      <x:c r="N31" s="25"/>
+      <x:c r="O31" s="25"/>
+      <x:c r="P31" s="25"/>
+      <x:c r="Q31" s="25"/>
+      <x:c r="R31" s="25"/>
+      <x:c r="S31" s="25"/>
+      <x:c r="T31" s="25"/>
+      <x:c r="U31" s="25"/>
+      <x:c r="V31" s="25"/>
+    </x:row>
+    <x:row r="32" spans="1:22" ht="13.199999999999999">
+      <x:c r="A32" s="62"/>
+      <x:c r="B32" s="54"/>
+      <x:c r="C32" s="24"/>
+      <x:c r="D32" s="11"/>
+      <x:c r="E32" s="22"/>
+      <x:c r="F32" s="22"/>
+      <x:c r="G32" s="22"/>
+      <x:c r="H32" s="22"/>
+      <x:c r="I32" s="22"/>
+      <x:c r="J32" s="22"/>
+      <x:c r="K32" s="22"/>
+      <x:c r="L32" s="22"/>
+      <x:c r="M32" s="22"/>
+      <x:c r="N32" s="25"/>
+      <x:c r="O32" s="25"/>
+      <x:c r="P32" s="25"/>
+      <x:c r="Q32" s="25"/>
+      <x:c r="R32" s="25"/>
+      <x:c r="S32" s="25"/>
+      <x:c r="T32" s="25"/>
+      <x:c r="U32" s="25"/>
+      <x:c r="V32" s="25"/>
+    </x:row>
+    <x:row r="33" spans="1:22" ht="13.199999999999999">
+      <x:c r="A33" s="62"/>
+      <x:c r="B33" s="54"/>
+      <x:c r="C33" s="24"/>
+      <x:c r="D33" s="11"/>
+      <x:c r="E33" s="22"/>
+      <x:c r="F33" s="22"/>
+      <x:c r="G33" s="22"/>
+      <x:c r="H33" s="22"/>
+      <x:c r="I33" s="22"/>
+      <x:c r="J33" s="22"/>
+      <x:c r="K33" s="22"/>
+      <x:c r="L33" s="22"/>
+      <x:c r="M33" s="22"/>
+      <x:c r="N33" s="25"/>
+      <x:c r="O33" s="25"/>
+      <x:c r="P33" s="25"/>
+      <x:c r="Q33" s="25"/>
+      <x:c r="R33" s="25"/>
+      <x:c r="S33" s="25"/>
+      <x:c r="T33" s="25"/>
+      <x:c r="U33" s="25"/>
+      <x:c r="V33" s="25"/>
+    </x:row>
+    <x:row r="34" spans="1:22" ht="13.199999999999999">
+      <x:c r="A34" s="62"/>
+      <x:c r="B34" s="54"/>
+      <x:c r="C34" s="24"/>
+      <x:c r="D34" s="11"/>
+      <x:c r="E34" s="22"/>
+      <x:c r="F34" s="22"/>
+      <x:c r="G34" s="22"/>
+      <x:c r="H34" s="22"/>
+      <x:c r="I34" s="22"/>
+      <x:c r="J34" s="22"/>
+      <x:c r="K34" s="22"/>
+      <x:c r="L34" s="22"/>
+      <x:c r="M34" s="22"/>
+      <x:c r="N34" s="25"/>
+      <x:c r="O34" s="25"/>
+      <x:c r="P34" s="25"/>
+      <x:c r="Q34" s="25"/>
+      <x:c r="R34" s="25"/>
+      <x:c r="S34" s="25"/>
+      <x:c r="T34" s="25"/>
+      <x:c r="U34" s="25"/>
+      <x:c r="V34" s="25"/>
+    </x:row>
+    <x:row r="35" spans="1:22" ht="13.199999999999999">
+      <x:c r="A35" s="62"/>
+      <x:c r="B35" s="54"/>
+      <x:c r="C35" s="24"/>
+      <x:c r="D35" s="11"/>
+      <x:c r="E35" s="22"/>
+      <x:c r="F35" s="22"/>
+      <x:c r="G35" s="22"/>
+      <x:c r="H35" s="22"/>
+      <x:c r="I35" s="22"/>
+      <x:c r="J35" s="22"/>
+      <x:c r="K35" s="22"/>
+      <x:c r="L35" s="22"/>
+      <x:c r="M35" s="22"/>
+      <x:c r="N35" s="25"/>
+      <x:c r="O35" s="25"/>
+      <x:c r="P35" s="25"/>
+      <x:c r="Q35" s="25"/>
+      <x:c r="R35" s="25"/>
+      <x:c r="S35" s="25"/>
+      <x:c r="T35" s="25"/>
+      <x:c r="U35" s="25"/>
+      <x:c r="V35" s="25"/>
+    </x:row>
+    <x:row r="36" spans="1:22" ht="13.199999999999999">
+      <x:c r="A36" s="62"/>
+      <x:c r="B36" s="54"/>
+      <x:c r="C36" s="24"/>
+      <x:c r="D36" s="11"/>
+      <x:c r="E36" s="22"/>
+      <x:c r="F36" s="22"/>
+      <x:c r="G36" s="22"/>
+      <x:c r="H36" s="22"/>
+      <x:c r="I36" s="22"/>
+      <x:c r="J36" s="22"/>
+      <x:c r="K36" s="22"/>
+      <x:c r="L36" s="22"/>
+      <x:c r="M36" s="22"/>
+      <x:c r="N36" s="25"/>
+      <x:c r="O36" s="25"/>
+      <x:c r="P36" s="25"/>
+      <x:c r="Q36" s="25"/>
+      <x:c r="R36" s="25"/>
+      <x:c r="S36" s="25"/>
+      <x:c r="T36" s="25"/>
+      <x:c r="U36" s="25"/>
+      <x:c r="V36" s="25"/>
+    </x:row>
+    <x:row r="37" spans="1:22" ht="13.199999999999999">
+      <x:c r="A37" s="62"/>
+      <x:c r="B37" s="54"/>
+      <x:c r="C37" s="24"/>
+      <x:c r="D37" s="11"/>
+      <x:c r="E37" s="22"/>
+      <x:c r="F37" s="22"/>
+      <x:c r="G37" s="22"/>
+      <x:c r="H37" s="22"/>
+      <x:c r="I37" s="22"/>
+      <x:c r="J37" s="22"/>
+      <x:c r="K37" s="22"/>
+      <x:c r="L37" s="22"/>
+      <x:c r="M37" s="22"/>
+      <x:c r="N37" s="25"/>
+      <x:c r="O37" s="25"/>
+      <x:c r="P37" s="25"/>
+      <x:c r="Q37" s="25"/>
+      <x:c r="R37" s="25"/>
+      <x:c r="S37" s="25"/>
+      <x:c r="T37" s="25"/>
+      <x:c r="U37" s="25"/>
+      <x:c r="V37" s="25"/>
+    </x:row>
+    <x:row r="38" spans="1:22" ht="13.199999999999999">
+      <x:c r="A38" s="62"/>
+      <x:c r="B38" s="54"/>
+      <x:c r="C38" s="24"/>
+      <x:c r="D38" s="11"/>
+      <x:c r="E38" s="22"/>
+      <x:c r="F38" s="22"/>
+      <x:c r="G38" s="22"/>
+      <x:c r="H38" s="22"/>
+      <x:c r="I38" s="22"/>
+      <x:c r="J38" s="22"/>
+      <x:c r="K38" s="22"/>
+      <x:c r="L38" s="22"/>
+      <x:c r="M38" s="22"/>
+      <x:c r="N38" s="25"/>
+      <x:c r="O38" s="25"/>
+      <x:c r="P38" s="25"/>
+      <x:c r="Q38" s="25"/>
+      <x:c r="R38" s="25"/>
+      <x:c r="S38" s="25"/>
+      <x:c r="T38" s="25"/>
+      <x:c r="U38" s="25"/>
+      <x:c r="V38" s="25"/>
+    </x:row>
+    <x:row r="39" spans="1:22" ht="13.199999999999999">
+      <x:c r="A39" s="62"/>
+      <x:c r="B39" s="54"/>
+      <x:c r="C39" s="24"/>
+      <x:c r="D39" s="11"/>
+      <x:c r="E39" s="22"/>
+      <x:c r="F39" s="22"/>
+      <x:c r="G39" s="22"/>
+      <x:c r="H39" s="22"/>
+      <x:c r="I39" s="22"/>
+      <x:c r="J39" s="22"/>
+      <x:c r="K39" s="22"/>
+      <x:c r="L39" s="22"/>
+      <x:c r="M39" s="22"/>
+      <x:c r="N39" s="25"/>
+      <x:c r="O39" s="25"/>
+      <x:c r="P39" s="25"/>
+      <x:c r="Q39" s="25"/>
+      <x:c r="R39" s="25"/>
+      <x:c r="S39" s="25"/>
+      <x:c r="T39" s="25"/>
+      <x:c r="U39" s="25"/>
+      <x:c r="V39" s="25"/>
+    </x:row>
+    <x:row r="40" spans="1:22" ht="13.199999999999999">
+      <x:c r="A40" s="62"/>
+      <x:c r="B40" s="54"/>
+      <x:c r="C40" s="24"/>
+      <x:c r="D40" s="11"/>
+      <x:c r="E40" s="22"/>
+      <x:c r="F40" s="22"/>
+      <x:c r="G40" s="22"/>
+      <x:c r="H40" s="22"/>
+      <x:c r="I40" s="22"/>
+      <x:c r="J40" s="22"/>
+      <x:c r="K40" s="22"/>
+      <x:c r="L40" s="22"/>
+      <x:c r="M40" s="22"/>
+      <x:c r="N40" s="25"/>
+      <x:c r="O40" s="25"/>
+      <x:c r="P40" s="25"/>
+      <x:c r="Q40" s="25"/>
+      <x:c r="R40" s="25"/>
+      <x:c r="S40" s="25"/>
+      <x:c r="T40" s="25"/>
+      <x:c r="U40" s="25"/>
+      <x:c r="V40" s="25"/>
+    </x:row>
+    <x:row r="41" spans="1:22" ht="15" customHeight="1">
+      <x:c r="A41" s="62"/>
+      <x:c r="B41" s="54"/>
+      <x:c r="C41" s="24"/>
+      <x:c r="D41" s="11"/>
+      <x:c r="E41" s="22"/>
+      <x:c r="F41" s="22"/>
+      <x:c r="G41" s="22"/>
+      <x:c r="H41" s="22"/>
+      <x:c r="I41" s="22"/>
+      <x:c r="J41" s="22"/>
+      <x:c r="K41" s="22"/>
+      <x:c r="L41" s="22"/>
+      <x:c r="M41" s="22"/>
+      <x:c r="N41" s="25"/>
+      <x:c r="O41" s="25"/>
+      <x:c r="P41" s="25"/>
+      <x:c r="Q41" s="25"/>
+      <x:c r="R41" s="25"/>
+      <x:c r="S41" s="25"/>
+      <x:c r="T41" s="25"/>
+      <x:c r="U41" s="25"/>
+      <x:c r="V41" s="25"/>
+    </x:row>
+    <x:row r="42" spans="1:22" ht="13.199999999999999">
+      <x:c r="A42" s="62"/>
+      <x:c r="B42" s="54"/>
+      <x:c r="C42" s="11"/>
+      <x:c r="D42" s="11"/>
+      <x:c r="E42" s="22"/>
+      <x:c r="F42" s="22"/>
+      <x:c r="G42" s="22"/>
+      <x:c r="H42" s="22"/>
+      <x:c r="I42" s="22"/>
+      <x:c r="J42" s="22"/>
+      <x:c r="K42" s="22"/>
+      <x:c r="L42" s="22"/>
+      <x:c r="M42" s="22"/>
+      <x:c r="N42" s="25"/>
+      <x:c r="O42" s="25"/>
+      <x:c r="P42" s="25"/>
+      <x:c r="Q42" s="25"/>
+      <x:c r="R42" s="25"/>
+      <x:c r="S42" s="25"/>
+      <x:c r="T42" s="25"/>
+      <x:c r="U42" s="25"/>
+      <x:c r="V42" s="25"/>
+    </x:row>
+    <x:row r="43" spans="1:22" ht="13.199999999999999">
+      <x:c r="A43" s="62"/>
+      <x:c r="B43" s="54"/>
+      <x:c r="C43" s="21"/>
+      <x:c r="D43" s="11"/>
+      <x:c r="E43" s="22"/>
+      <x:c r="F43" s="22"/>
+      <x:c r="G43" s="22"/>
+      <x:c r="H43" s="22"/>
+      <x:c r="I43" s="22"/>
+      <x:c r="J43" s="22"/>
+      <x:c r="K43" s="22"/>
+      <x:c r="L43" s="22"/>
+      <x:c r="M43" s="22"/>
+      <x:c r="N43" s="25"/>
+      <x:c r="O43" s="25"/>
+      <x:c r="P43" s="25"/>
+      <x:c r="Q43" s="25"/>
+      <x:c r="R43" s="25"/>
+      <x:c r="S43" s="25"/>
+      <x:c r="T43" s="25"/>
+      <x:c r="U43" s="25"/>
+      <x:c r="V43" s="25"/>
+    </x:row>
+    <x:row r="44" spans="1:22" ht="13.199999999999999">
+      <x:c r="A44" s="62"/>
+      <x:c r="B44" s="54"/>
+      <x:c r="C44" s="21"/>
+      <x:c r="D44" s="11"/>
+      <x:c r="E44" s="22"/>
+      <x:c r="F44" s="22"/>
+      <x:c r="G44" s="22"/>
+      <x:c r="H44" s="22"/>
+      <x:c r="I44" s="22"/>
+      <x:c r="J44" s="22"/>
+      <x:c r="K44" s="22"/>
+      <x:c r="L44" s="22"/>
+      <x:c r="M44" s="22"/>
+      <x:c r="N44" s="25"/>
+      <x:c r="O44" s="25"/>
+      <x:c r="P44" s="25"/>
+      <x:c r="Q44" s="25"/>
+      <x:c r="R44" s="25"/>
+      <x:c r="S44" s="25"/>
+      <x:c r="T44" s="25"/>
+      <x:c r="U44" s="25"/>
+      <x:c r="V44" s="25"/>
+    </x:row>
+    <x:row r="45" spans="1:22" ht="13.199999999999999">
+      <x:c r="A45" s="62"/>
+      <x:c r="B45" s="55"/>
+      <x:c r="C45" s="11"/>
+      <x:c r="D45" s="11"/>
+      <x:c r="E45" s="22"/>
+      <x:c r="F45" s="22"/>
+      <x:c r="G45" s="22"/>
+      <x:c r="H45" s="22"/>
+      <x:c r="I45" s="22"/>
+      <x:c r="J45" s="22"/>
+      <x:c r="K45" s="22"/>
+      <x:c r="L45" s="22"/>
+      <x:c r="M45" s="22"/>
+      <x:c r="N45" s="25"/>
+      <x:c r="O45" s="25"/>
+      <x:c r="P45" s="25"/>
+      <x:c r="Q45" s="25"/>
+      <x:c r="R45" s="25"/>
+      <x:c r="S45" s="25"/>
+      <x:c r="T45" s="25"/>
+      <x:c r="U45" s="25"/>
+      <x:c r="V45" s="25"/>
+    </x:row>
+    <x:row r="46" spans="1:22" ht="13.199999999999999">
+      <x:c r="A46" s="57" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B46" s="41" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G4" s="9" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I4" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J4" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K4" s="9" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="L4" s="9" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="M4" s="9" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N4" s="30"/>
-      <x:c r="O4" s="30"/>
-      <x:c r="P4" s="30"/>
-      <x:c r="Q4" s="30"/>
-      <x:c r="R4" s="30"/>
-      <x:c r="S4" s="30"/>
-      <x:c r="T4" s="30"/>
-      <x:c r="U4" s="30"/>
-      <x:c r="V4" s="30"/>
-    </x:row>
-    <x:row r="5" spans="1:22" ht="13.199999999999999">
-      <x:c r="A5" s="55" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C5" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D5" s="33" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E5" s="38"/>
-      <x:c r="F5" s="24"/>
-      <x:c r="G5" s="24"/>
-      <x:c r="H5" s="24"/>
-      <x:c r="I5" s="24"/>
-      <x:c r="J5" s="24"/>
-      <x:c r="K5" s="24"/>
-      <x:c r="L5" s="24"/>
-      <x:c r="M5" s="24"/>
-      <x:c r="N5" s="27"/>
-      <x:c r="O5" s="27"/>
-      <x:c r="P5" s="27"/>
-      <x:c r="Q5" s="27"/>
-      <x:c r="R5" s="27"/>
-      <x:c r="S5" s="27"/>
-      <x:c r="T5" s="27"/>
-      <x:c r="U5" s="27"/>
-      <x:c r="V5" s="27"/>
-    </x:row>
-    <x:row r="6" spans="1:22" ht="13.199999999999999">
-      <x:c r="A6" s="56"/>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="62"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="65"/>
-      <x:c r="F6" s="24"/>
-      <x:c r="G6" s="24"/>
-      <x:c r="H6" s="24"/>
-      <x:c r="I6" s="24"/>
-      <x:c r="J6" s="24"/>
-      <x:c r="K6" s="24"/>
-      <x:c r="L6" s="24"/>
-      <x:c r="M6" s="24"/>
-      <x:c r="N6" s="27"/>
-      <x:c r="O6" s="27"/>
-      <x:c r="P6" s="27"/>
-      <x:c r="Q6" s="27"/>
-      <x:c r="R6" s="27"/>
-      <x:c r="S6" s="27"/>
-      <x:c r="T6" s="27"/>
-      <x:c r="U6" s="27"/>
-      <x:c r="V6" s="27"/>
-    </x:row>
-    <x:row r="7" spans="1:22" ht="13.199999999999999">
-      <x:c r="A7" s="56"/>
-      <x:c r="B7" s="33"/>
-      <x:c r="C7" s="62"/>
-      <x:c r="D7" s="33"/>
-      <x:c r="E7" s="65"/>
-      <x:c r="F7" s="24"/>
-      <x:c r="G7" s="24"/>
-      <x:c r="H7" s="24"/>
-      <x:c r="I7" s="24"/>
-      <x:c r="J7" s="24"/>
-      <x:c r="K7" s="24"/>
-      <x:c r="L7" s="24"/>
-      <x:c r="M7" s="24"/>
-      <x:c r="N7" s="27"/>
-      <x:c r="O7" s="27"/>
-      <x:c r="P7" s="27"/>
-      <x:c r="Q7" s="27"/>
-      <x:c r="R7" s="27"/>
-      <x:c r="S7" s="27"/>
-      <x:c r="T7" s="27"/>
-      <x:c r="U7" s="27"/>
-      <x:c r="V7" s="27"/>
-    </x:row>
-    <x:row r="8" spans="1:22" ht="13.199999999999999">
-      <x:c r="A8" s="56"/>
-      <x:c r="B8" s="33"/>
-      <x:c r="C8" s="62"/>
-      <x:c r="D8" s="33"/>
-      <x:c r="E8" s="65"/>
-      <x:c r="F8" s="24"/>
-      <x:c r="G8" s="24"/>
-      <x:c r="H8" s="24"/>
-      <x:c r="I8" s="24"/>
-      <x:c r="J8" s="24"/>
-      <x:c r="K8" s="24"/>
-      <x:c r="L8" s="24"/>
-      <x:c r="M8" s="24"/>
-      <x:c r="N8" s="27"/>
-      <x:c r="O8" s="27"/>
-      <x:c r="P8" s="27"/>
-      <x:c r="Q8" s="27"/>
-      <x:c r="R8" s="27"/>
-      <x:c r="S8" s="27"/>
-      <x:c r="T8" s="27"/>
-      <x:c r="U8" s="27"/>
-      <x:c r="V8" s="27"/>
-    </x:row>
-    <x:row r="9" spans="1:22" ht="13.199999999999999">
-      <x:c r="A9" s="56"/>
-      <x:c r="B9" s="33"/>
-      <x:c r="C9" s="63"/>
-      <x:c r="D9" s="64"/>
-      <x:c r="E9" s="65"/>
-      <x:c r="F9" s="24"/>
-      <x:c r="G9" s="24"/>
-      <x:c r="H9" s="24"/>
-      <x:c r="I9" s="24"/>
-      <x:c r="J9" s="24"/>
-      <x:c r="K9" s="24"/>
-      <x:c r="L9" s="24"/>
-      <x:c r="M9" s="24"/>
-      <x:c r="N9" s="27"/>
-      <x:c r="O9" s="27"/>
-      <x:c r="P9" s="27"/>
-      <x:c r="Q9" s="27"/>
-      <x:c r="R9" s="27"/>
-      <x:c r="S9" s="27"/>
-      <x:c r="T9" s="27"/>
-      <x:c r="U9" s="27"/>
-      <x:c r="V9" s="27"/>
-    </x:row>
-    <x:row r="10" spans="1:22" ht="13.199999999999999">
-      <x:c r="A10" s="56"/>
-      <x:c r="B10" s="33" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C10" s="34"/>
-      <x:c r="D10" s="33"/>
-      <x:c r="E10" s="24"/>
-      <x:c r="F10" s="24"/>
-      <x:c r="G10" s="24"/>
-      <x:c r="H10" s="24"/>
-      <x:c r="I10" s="24"/>
-      <x:c r="J10" s="24"/>
-      <x:c r="K10" s="24"/>
-      <x:c r="L10" s="24"/>
-      <x:c r="M10" s="24"/>
-      <x:c r="N10" s="27"/>
-      <x:c r="O10" s="27"/>
-      <x:c r="P10" s="27"/>
-      <x:c r="Q10" s="27"/>
-      <x:c r="R10" s="27"/>
-      <x:c r="S10" s="27"/>
-      <x:c r="T10" s="27"/>
-      <x:c r="U10" s="27"/>
-      <x:c r="V10" s="27"/>
-    </x:row>
-    <x:row r="11" spans="1:22" ht="13.199999999999999">
-      <x:c r="A11" s="56"/>
-      <x:c r="B11" s="33"/>
-      <x:c r="C11" s="35"/>
-      <x:c r="D11" s="33"/>
-      <x:c r="E11" s="24"/>
-      <x:c r="F11" s="24"/>
-      <x:c r="G11" s="24"/>
-      <x:c r="H11" s="24"/>
-      <x:c r="I11" s="24"/>
-      <x:c r="J11" s="24"/>
-      <x:c r="K11" s="24"/>
-      <x:c r="L11" s="24"/>
-      <x:c r="M11" s="24"/>
-      <x:c r="N11" s="27"/>
-      <x:c r="O11" s="27"/>
-      <x:c r="P11" s="27"/>
-      <x:c r="Q11" s="27"/>
-      <x:c r="R11" s="27"/>
-      <x:c r="S11" s="27"/>
-      <x:c r="T11" s="27"/>
-      <x:c r="U11" s="27"/>
-      <x:c r="V11" s="27"/>
-    </x:row>
-    <x:row r="12" spans="1:22" ht="13.199999999999999">
-      <x:c r="A12" s="56"/>
-      <x:c r="B12" s="33"/>
-      <x:c r="C12" s="36"/>
-      <x:c r="D12" s="33"/>
-      <x:c r="E12" s="24"/>
-      <x:c r="F12" s="24"/>
-      <x:c r="G12" s="24"/>
-      <x:c r="H12" s="24"/>
-      <x:c r="I12" s="24"/>
-      <x:c r="J12" s="24"/>
-      <x:c r="K12" s="24"/>
-      <x:c r="L12" s="24"/>
-      <x:c r="M12" s="24"/>
-      <x:c r="N12" s="27"/>
-      <x:c r="O12" s="27"/>
-      <x:c r="P12" s="27"/>
-      <x:c r="Q12" s="27"/>
-      <x:c r="R12" s="27"/>
-      <x:c r="S12" s="27"/>
-      <x:c r="T12" s="27"/>
-      <x:c r="U12" s="27"/>
-      <x:c r="V12" s="27"/>
-    </x:row>
-    <x:row r="13" spans="1:22" ht="13.199999999999999">
-      <x:c r="A13" s="56"/>
-      <x:c r="B13" s="33"/>
-      <x:c r="C13" s="33"/>
-      <x:c r="D13" s="33"/>
-      <x:c r="E13" s="24"/>
-      <x:c r="F13" s="24"/>
-      <x:c r="G13" s="24"/>
-      <x:c r="H13" s="24"/>
-      <x:c r="I13" s="24"/>
-      <x:c r="J13" s="24"/>
-      <x:c r="K13" s="24"/>
-      <x:c r="L13" s="24"/>
-      <x:c r="M13" s="24"/>
-      <x:c r="N13" s="27"/>
-      <x:c r="O13" s="27"/>
-      <x:c r="P13" s="27"/>
-      <x:c r="Q13" s="27"/>
-      <x:c r="R13" s="27"/>
-      <x:c r="S13" s="27"/>
-      <x:c r="T13" s="27"/>
-      <x:c r="U13" s="27"/>
-      <x:c r="V13" s="27"/>
-    </x:row>
-    <x:row r="14" spans="1:22" ht="13.199999999999999">
-      <x:c r="A14" s="56"/>
-      <x:c r="B14" s="33"/>
-      <x:c r="C14" s="33"/>
-      <x:c r="D14" s="33"/>
-      <x:c r="E14" s="24"/>
-      <x:c r="F14" s="24"/>
-      <x:c r="G14" s="24"/>
-      <x:c r="H14" s="24"/>
-      <x:c r="I14" s="24"/>
-      <x:c r="J14" s="24"/>
-      <x:c r="K14" s="24"/>
-      <x:c r="L14" s="24"/>
-      <x:c r="M14" s="24"/>
-      <x:c r="N14" s="27"/>
-      <x:c r="O14" s="27"/>
-      <x:c r="P14" s="27"/>
-      <x:c r="Q14" s="27"/>
-      <x:c r="R14" s="27"/>
-      <x:c r="S14" s="27"/>
-      <x:c r="T14" s="27"/>
-      <x:c r="U14" s="27"/>
-      <x:c r="V14" s="27"/>
-    </x:row>
-    <x:row r="15" spans="1:22" ht="13.199999999999999">
-      <x:c r="A15" s="57"/>
-      <x:c r="B15" s="33"/>
-      <x:c r="C15" s="33"/>
-      <x:c r="D15" s="34"/>
-      <x:c r="E15" s="24"/>
-      <x:c r="F15" s="24"/>
-      <x:c r="G15" s="24"/>
-      <x:c r="H15" s="24"/>
-      <x:c r="I15" s="24"/>
-      <x:c r="J15" s="24"/>
-      <x:c r="K15" s="24"/>
-      <x:c r="L15" s="24"/>
-      <x:c r="M15" s="24"/>
-      <x:c r="N15" s="27"/>
-      <x:c r="O15" s="27"/>
-      <x:c r="P15" s="27"/>
-      <x:c r="Q15" s="27"/>
-      <x:c r="R15" s="27"/>
-      <x:c r="S15" s="27"/>
-      <x:c r="T15" s="27"/>
-      <x:c r="U15" s="27"/>
-      <x:c r="V15" s="27"/>
-    </x:row>
-    <x:row r="16" spans="1:22" ht="13.199999999999999">
-      <x:c r="A16" s="55" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B16" s="50" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C16" s="33"/>
-      <x:c r="D16" s="33"/>
-      <x:c r="E16" s="24"/>
-      <x:c r="F16" s="24"/>
-      <x:c r="G16" s="24"/>
-      <x:c r="H16" s="24"/>
-      <x:c r="I16" s="24"/>
-      <x:c r="J16" s="24"/>
-      <x:c r="K16" s="24"/>
-      <x:c r="L16" s="24"/>
-      <x:c r="M16" s="24"/>
-      <x:c r="N16" s="27"/>
-      <x:c r="O16" s="27"/>
-      <x:c r="P16" s="27"/>
-      <x:c r="Q16" s="27"/>
-      <x:c r="R16" s="27"/>
-      <x:c r="S16" s="27"/>
-      <x:c r="T16" s="27"/>
-      <x:c r="U16" s="27"/>
-      <x:c r="V16" s="27"/>
-    </x:row>
-    <x:row r="17" spans="1:22" ht="13.199999999999999">
-      <x:c r="A17" s="56"/>
-      <x:c r="B17" s="51"/>
-      <x:c r="C17" s="33"/>
-      <x:c r="D17" s="33"/>
-      <x:c r="E17" s="24"/>
-      <x:c r="F17" s="24"/>
-      <x:c r="G17" s="24"/>
-      <x:c r="H17" s="24"/>
-      <x:c r="I17" s="24"/>
-      <x:c r="J17" s="24"/>
-      <x:c r="K17" s="24"/>
-      <x:c r="L17" s="24"/>
-      <x:c r="M17" s="24"/>
-      <x:c r="N17" s="27"/>
-      <x:c r="O17" s="27"/>
-      <x:c r="P17" s="27"/>
-      <x:c r="Q17" s="27"/>
-      <x:c r="R17" s="27"/>
-      <x:c r="S17" s="27"/>
-      <x:c r="T17" s="27"/>
-      <x:c r="U17" s="27"/>
-      <x:c r="V17" s="27"/>
-    </x:row>
-    <x:row r="18" spans="1:22" ht="13.199999999999999">
-      <x:c r="A18" s="56"/>
-      <x:c r="B18" s="40" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C18" s="33"/>
-      <x:c r="D18" s="33"/>
-      <x:c r="E18" s="24"/>
-      <x:c r="F18" s="24"/>
-      <x:c r="G18" s="24"/>
-      <x:c r="H18" s="24"/>
-      <x:c r="I18" s="24"/>
-      <x:c r="J18" s="24"/>
-      <x:c r="K18" s="24"/>
-      <x:c r="L18" s="24"/>
-      <x:c r="M18" s="24"/>
-      <x:c r="N18" s="27"/>
-      <x:c r="O18" s="27"/>
-      <x:c r="P18" s="27"/>
-      <x:c r="Q18" s="27"/>
-      <x:c r="R18" s="27"/>
-      <x:c r="S18" s="27"/>
-      <x:c r="T18" s="27"/>
-      <x:c r="U18" s="27"/>
-      <x:c r="V18" s="27"/>
-    </x:row>
-    <x:row r="19" spans="1:22" ht="13.199999999999999">
-      <x:c r="A19" s="56"/>
-      <x:c r="B19" s="42"/>
-      <x:c r="C19" s="33"/>
-      <x:c r="D19" s="33"/>
-      <x:c r="E19" s="24"/>
-      <x:c r="F19" s="24"/>
-      <x:c r="G19" s="24"/>
-      <x:c r="H19" s="24"/>
-      <x:c r="I19" s="24"/>
-      <x:c r="J19" s="24"/>
-      <x:c r="K19" s="24"/>
-      <x:c r="L19" s="24"/>
-      <x:c r="M19" s="24"/>
-      <x:c r="N19" s="27"/>
-      <x:c r="O19" s="27"/>
-      <x:c r="P19" s="27"/>
-      <x:c r="Q19" s="27"/>
-      <x:c r="R19" s="27"/>
-      <x:c r="S19" s="27"/>
-      <x:c r="T19" s="27"/>
-      <x:c r="U19" s="27"/>
-      <x:c r="V19" s="27"/>
-    </x:row>
-    <x:row r="20" spans="1:22" ht="13.199999999999999">
-      <x:c r="A20" s="56"/>
-      <x:c r="B20" s="40" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C20" s="33"/>
-      <x:c r="D20" s="33"/>
-      <x:c r="E20" s="24"/>
-      <x:c r="F20" s="24"/>
-      <x:c r="G20" s="24"/>
-      <x:c r="H20" s="24"/>
-      <x:c r="I20" s="24"/>
-      <x:c r="J20" s="24"/>
-      <x:c r="K20" s="24"/>
-      <x:c r="L20" s="24"/>
-      <x:c r="M20" s="24"/>
-      <x:c r="N20" s="27"/>
-      <x:c r="O20" s="27"/>
-      <x:c r="P20" s="27"/>
-      <x:c r="Q20" s="27"/>
-      <x:c r="R20" s="27"/>
-      <x:c r="S20" s="27"/>
-      <x:c r="T20" s="27"/>
-      <x:c r="U20" s="27"/>
-      <x:c r="V20" s="27"/>
-    </x:row>
-    <x:row r="21" spans="1:22" ht="13.199999999999999">
-      <x:c r="A21" s="56"/>
-      <x:c r="B21" s="42"/>
-      <x:c r="C21" s="33"/>
-      <x:c r="D21" s="33"/>
-      <x:c r="E21" s="24"/>
-      <x:c r="F21" s="24"/>
-      <x:c r="G21" s="24"/>
-      <x:c r="H21" s="24"/>
-      <x:c r="I21" s="24"/>
-      <x:c r="J21" s="24"/>
-      <x:c r="K21" s="24"/>
-      <x:c r="L21" s="24"/>
-      <x:c r="M21" s="24"/>
-      <x:c r="N21" s="27"/>
-      <x:c r="O21" s="27"/>
-      <x:c r="P21" s="27"/>
-      <x:c r="Q21" s="27"/>
-      <x:c r="R21" s="27"/>
-      <x:c r="S21" s="27"/>
-      <x:c r="T21" s="27"/>
-      <x:c r="U21" s="27"/>
-      <x:c r="V21" s="27"/>
-    </x:row>
-    <x:row r="22" spans="1:22" ht="13.199999999999999">
-      <x:c r="A22" s="56"/>
-      <x:c r="B22" s="33"/>
-      <x:c r="C22" s="33"/>
-      <x:c r="D22" s="33"/>
-      <x:c r="E22" s="24"/>
-      <x:c r="F22" s="24"/>
-      <x:c r="G22" s="24"/>
-      <x:c r="H22" s="24"/>
-      <x:c r="I22" s="24"/>
-      <x:c r="J22" s="24"/>
-      <x:c r="K22" s="24"/>
-      <x:c r="L22" s="24"/>
-      <x:c r="M22" s="24"/>
-      <x:c r="N22" s="27"/>
-      <x:c r="O22" s="27"/>
-      <x:c r="P22" s="27"/>
-      <x:c r="Q22" s="27"/>
-      <x:c r="R22" s="27"/>
-      <x:c r="S22" s="27"/>
-      <x:c r="T22" s="27"/>
-      <x:c r="U22" s="27"/>
-      <x:c r="V22" s="27"/>
-    </x:row>
-    <x:row r="23" spans="1:22" ht="13.199999999999999">
-      <x:c r="A23" s="56"/>
-      <x:c r="B23" s="33"/>
-      <x:c r="C23" s="33"/>
-      <x:c r="D23" s="33"/>
-      <x:c r="E23" s="24"/>
-      <x:c r="F23" s="24"/>
-      <x:c r="G23" s="24"/>
-      <x:c r="H23" s="24"/>
-      <x:c r="I23" s="24"/>
-      <x:c r="J23" s="24"/>
-      <x:c r="K23" s="24"/>
-      <x:c r="L23" s="24"/>
-      <x:c r="M23" s="24"/>
-      <x:c r="N23" s="27"/>
-      <x:c r="O23" s="27"/>
-      <x:c r="P23" s="27"/>
-      <x:c r="Q23" s="27"/>
-      <x:c r="R23" s="27"/>
-      <x:c r="S23" s="27"/>
-      <x:c r="T23" s="27"/>
-      <x:c r="U23" s="27"/>
-      <x:c r="V23" s="27"/>
-    </x:row>
-    <x:row r="24" spans="1:22" ht="13.199999999999999">
-      <x:c r="A24" s="56"/>
-      <x:c r="B24" s="40"/>
-      <x:c r="C24" s="36"/>
-      <x:c r="D24" s="33"/>
-      <x:c r="E24" s="24"/>
-      <x:c r="F24" s="24"/>
-      <x:c r="G24" s="24"/>
-      <x:c r="H24" s="24"/>
-      <x:c r="I24" s="24"/>
-      <x:c r="J24" s="24"/>
-      <x:c r="K24" s="24"/>
-      <x:c r="L24" s="24"/>
-      <x:c r="M24" s="24"/>
-      <x:c r="N24" s="27"/>
-      <x:c r="O24" s="27"/>
-      <x:c r="P24" s="27"/>
-      <x:c r="Q24" s="27"/>
-      <x:c r="R24" s="27"/>
-      <x:c r="S24" s="27"/>
-      <x:c r="T24" s="27"/>
-      <x:c r="U24" s="27"/>
-      <x:c r="V24" s="27"/>
-    </x:row>
-    <x:row r="25" spans="1:22" ht="13.199999999999999">
-      <x:c r="A25" s="56"/>
-      <x:c r="B25" s="42"/>
-      <x:c r="C25" s="33"/>
-      <x:c r="D25" s="33"/>
-      <x:c r="E25" s="24"/>
-      <x:c r="F25" s="24"/>
-      <x:c r="G25" s="24"/>
-      <x:c r="H25" s="24"/>
-      <x:c r="I25" s="24"/>
-      <x:c r="J25" s="24"/>
-      <x:c r="K25" s="24"/>
-      <x:c r="L25" s="24"/>
-      <x:c r="M25" s="24"/>
-      <x:c r="N25" s="27"/>
-      <x:c r="O25" s="27"/>
-      <x:c r="P25" s="27"/>
-      <x:c r="Q25" s="27"/>
-      <x:c r="R25" s="27"/>
-      <x:c r="S25" s="27"/>
-      <x:c r="T25" s="27"/>
-      <x:c r="U25" s="27"/>
-      <x:c r="V25" s="27"/>
-    </x:row>
-    <x:row r="26" spans="1:22" ht="13.199999999999999">
-      <x:c r="A26" s="56"/>
-      <x:c r="B26" s="33"/>
-      <x:c r="C26" s="33"/>
-      <x:c r="D26" s="33"/>
-      <x:c r="E26" s="24"/>
-      <x:c r="F26" s="24"/>
-      <x:c r="G26" s="24"/>
-      <x:c r="H26" s="24"/>
-      <x:c r="I26" s="24"/>
-      <x:c r="J26" s="24"/>
-      <x:c r="K26" s="24"/>
-      <x:c r="L26" s="24"/>
-      <x:c r="M26" s="24"/>
-      <x:c r="N26" s="27"/>
-      <x:c r="O26" s="27"/>
-      <x:c r="P26" s="27"/>
-      <x:c r="Q26" s="27"/>
-      <x:c r="R26" s="27"/>
-      <x:c r="S26" s="27"/>
-      <x:c r="T26" s="27"/>
-      <x:c r="U26" s="27"/>
-      <x:c r="V26" s="27"/>
-    </x:row>
-    <x:row r="27" spans="1:22" ht="13.199999999999999">
-      <x:c r="A27" s="57"/>
-      <x:c r="B27" s="37"/>
-      <x:c r="C27" s="33"/>
-      <x:c r="D27" s="33"/>
-      <x:c r="E27" s="24"/>
-      <x:c r="F27" s="24"/>
-      <x:c r="G27" s="24"/>
-      <x:c r="H27" s="24"/>
-      <x:c r="I27" s="24"/>
-      <x:c r="J27" s="24"/>
-      <x:c r="K27" s="24"/>
-      <x:c r="L27" s="24"/>
-      <x:c r="M27" s="24"/>
-      <x:c r="N27" s="27"/>
-      <x:c r="O27" s="27"/>
-      <x:c r="P27" s="27"/>
-      <x:c r="Q27" s="27"/>
-      <x:c r="R27" s="27"/>
-      <x:c r="S27" s="27"/>
-      <x:c r="T27" s="27"/>
-      <x:c r="U27" s="27"/>
-      <x:c r="V27" s="27"/>
-    </x:row>
-    <x:row r="28" spans="1:22" ht="13.199999999999999">
-      <x:c r="A28" s="55" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B28" s="52" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C28" s="40"/>
-      <x:c r="D28" s="19"/>
-      <x:c r="E28" s="24"/>
-      <x:c r="F28" s="24"/>
-      <x:c r="G28" s="24"/>
-      <x:c r="H28" s="24"/>
-      <x:c r="I28" s="24"/>
-      <x:c r="J28" s="24"/>
-      <x:c r="K28" s="24"/>
-      <x:c r="L28" s="24"/>
-      <x:c r="M28" s="24"/>
-      <x:c r="N28" s="27"/>
-      <x:c r="O28" s="27"/>
-      <x:c r="P28" s="27"/>
-      <x:c r="Q28" s="27"/>
-      <x:c r="R28" s="27"/>
-      <x:c r="S28" s="27"/>
-      <x:c r="T28" s="27"/>
-      <x:c r="U28" s="27"/>
-      <x:c r="V28" s="27"/>
-    </x:row>
-    <x:row r="29" spans="1:22" ht="13.199999999999999">
-      <x:c r="A29" s="56"/>
-      <x:c r="B29" s="53"/>
-      <x:c r="C29" s="41"/>
-      <x:c r="D29" s="23"/>
-      <x:c r="E29" s="24"/>
-      <x:c r="F29" s="24"/>
-      <x:c r="G29" s="24"/>
-      <x:c r="H29" s="24"/>
-      <x:c r="I29" s="24"/>
-      <x:c r="J29" s="24"/>
-      <x:c r="K29" s="24"/>
-      <x:c r="L29" s="24"/>
-      <x:c r="M29" s="24"/>
-      <x:c r="N29" s="27"/>
-      <x:c r="O29" s="27"/>
-      <x:c r="P29" s="27"/>
-      <x:c r="Q29" s="27"/>
-      <x:c r="R29" s="27"/>
-      <x:c r="S29" s="27"/>
-      <x:c r="T29" s="27"/>
-      <x:c r="U29" s="27"/>
-      <x:c r="V29" s="27"/>
-    </x:row>
-    <x:row r="30" spans="1:22" ht="13.199999999999999">
-      <x:c r="A30" s="56"/>
-      <x:c r="B30" s="53"/>
-      <x:c r="C30" s="42"/>
-      <x:c r="D30" s="19"/>
-      <x:c r="E30" s="24"/>
-      <x:c r="F30" s="24"/>
-      <x:c r="G30" s="24"/>
-      <x:c r="H30" s="24"/>
-      <x:c r="I30" s="24"/>
-      <x:c r="J30" s="24"/>
-      <x:c r="K30" s="24"/>
-      <x:c r="L30" s="24"/>
-      <x:c r="M30" s="24"/>
-      <x:c r="N30" s="27"/>
-      <x:c r="O30" s="27"/>
-      <x:c r="P30" s="27"/>
-      <x:c r="Q30" s="27"/>
-      <x:c r="R30" s="27"/>
-      <x:c r="S30" s="27"/>
-      <x:c r="T30" s="27"/>
-      <x:c r="U30" s="27"/>
-      <x:c r="V30" s="27"/>
-    </x:row>
-    <x:row r="31" spans="1:22" ht="13.199999999999999">
-      <x:c r="A31" s="56"/>
-      <x:c r="B31" s="53"/>
-      <x:c r="C31" s="40"/>
-      <x:c r="D31" s="19"/>
-      <x:c r="E31" s="24"/>
-      <x:c r="F31" s="24"/>
-      <x:c r="G31" s="24"/>
-      <x:c r="H31" s="24"/>
-      <x:c r="I31" s="24"/>
-      <x:c r="J31" s="24"/>
-      <x:c r="K31" s="24"/>
-      <x:c r="L31" s="24"/>
-      <x:c r="M31" s="24"/>
-      <x:c r="N31" s="27"/>
-      <x:c r="O31" s="27"/>
-      <x:c r="P31" s="27"/>
-      <x:c r="Q31" s="27"/>
-      <x:c r="R31" s="27"/>
-      <x:c r="S31" s="27"/>
-      <x:c r="T31" s="27"/>
-      <x:c r="U31" s="27"/>
-      <x:c r="V31" s="27"/>
-    </x:row>
-    <x:row r="32" spans="1:22" ht="13.199999999999999">
-      <x:c r="A32" s="56"/>
-      <x:c r="B32" s="53"/>
-      <x:c r="C32" s="42"/>
-      <x:c r="D32" s="19"/>
-      <x:c r="E32" s="24"/>
-      <x:c r="F32" s="24"/>
-      <x:c r="G32" s="24"/>
-      <x:c r="H32" s="24"/>
-      <x:c r="I32" s="24"/>
-      <x:c r="J32" s="24"/>
-      <x:c r="K32" s="24"/>
-      <x:c r="L32" s="24"/>
-      <x:c r="M32" s="24"/>
-      <x:c r="N32" s="27"/>
-      <x:c r="O32" s="27"/>
-      <x:c r="P32" s="27"/>
-      <x:c r="Q32" s="27"/>
-      <x:c r="R32" s="27"/>
-      <x:c r="S32" s="27"/>
-      <x:c r="T32" s="27"/>
-      <x:c r="U32" s="27"/>
-      <x:c r="V32" s="27"/>
-    </x:row>
-    <x:row r="33" spans="1:22" ht="13.199999999999999">
-      <x:c r="A33" s="56"/>
-      <x:c r="B33" s="53"/>
-      <x:c r="C33" s="40"/>
-      <x:c r="D33" s="19"/>
-      <x:c r="E33" s="24"/>
-      <x:c r="F33" s="24"/>
-      <x:c r="G33" s="24"/>
-      <x:c r="H33" s="24"/>
-      <x:c r="I33" s="24"/>
-      <x:c r="J33" s="24"/>
-      <x:c r="K33" s="24"/>
-      <x:c r="L33" s="24"/>
-      <x:c r="M33" s="24"/>
-      <x:c r="N33" s="27"/>
-      <x:c r="O33" s="27"/>
-      <x:c r="P33" s="27"/>
-      <x:c r="Q33" s="27"/>
-      <x:c r="R33" s="27"/>
-      <x:c r="S33" s="27"/>
-      <x:c r="T33" s="27"/>
-      <x:c r="U33" s="27"/>
-      <x:c r="V33" s="27"/>
-    </x:row>
-    <x:row r="34" spans="1:22" ht="13.199999999999999">
-      <x:c r="A34" s="56"/>
-      <x:c r="B34" s="53"/>
-      <x:c r="C34" s="41"/>
-      <x:c r="D34" s="19"/>
-      <x:c r="E34" s="24"/>
-      <x:c r="F34" s="24"/>
-      <x:c r="G34" s="24"/>
-      <x:c r="H34" s="24"/>
-      <x:c r="I34" s="24"/>
-      <x:c r="J34" s="24"/>
-      <x:c r="K34" s="24"/>
-      <x:c r="L34" s="24"/>
-      <x:c r="M34" s="24"/>
-      <x:c r="N34" s="27"/>
-      <x:c r="O34" s="27"/>
-      <x:c r="P34" s="27"/>
-      <x:c r="Q34" s="27"/>
-      <x:c r="R34" s="27"/>
-      <x:c r="S34" s="27"/>
-      <x:c r="T34" s="27"/>
-      <x:c r="U34" s="27"/>
-      <x:c r="V34" s="27"/>
-    </x:row>
-    <x:row r="35" spans="1:22" ht="13.199999999999999">
-      <x:c r="A35" s="56"/>
-      <x:c r="B35" s="53"/>
-      <x:c r="C35" s="41"/>
-      <x:c r="D35" s="23"/>
-      <x:c r="E35" s="24"/>
-      <x:c r="F35" s="24"/>
-      <x:c r="G35" s="24"/>
-      <x:c r="H35" s="24"/>
-      <x:c r="I35" s="24"/>
-      <x:c r="J35" s="24"/>
-      <x:c r="K35" s="24"/>
-      <x:c r="L35" s="24"/>
-      <x:c r="M35" s="24"/>
-      <x:c r="N35" s="27"/>
-      <x:c r="O35" s="27"/>
-      <x:c r="P35" s="27"/>
-      <x:c r="Q35" s="27"/>
-      <x:c r="R35" s="27"/>
-      <x:c r="S35" s="27"/>
-      <x:c r="T35" s="27"/>
-      <x:c r="U35" s="27"/>
-      <x:c r="V35" s="27"/>
-    </x:row>
-    <x:row r="36" spans="1:22" ht="13.199999999999999">
-      <x:c r="A36" s="56"/>
-      <x:c r="B36" s="53"/>
-      <x:c r="C36" s="41"/>
-      <x:c r="D36" s="23"/>
-      <x:c r="E36" s="24"/>
-      <x:c r="F36" s="24"/>
-      <x:c r="G36" s="24"/>
-      <x:c r="H36" s="24"/>
-      <x:c r="I36" s="24"/>
-      <x:c r="J36" s="24"/>
-      <x:c r="K36" s="24"/>
-      <x:c r="L36" s="24"/>
-      <x:c r="M36" s="24"/>
-      <x:c r="N36" s="27"/>
-      <x:c r="O36" s="27"/>
-      <x:c r="P36" s="27"/>
-      <x:c r="Q36" s="27"/>
-      <x:c r="R36" s="27"/>
-      <x:c r="S36" s="27"/>
-      <x:c r="T36" s="27"/>
-      <x:c r="U36" s="27"/>
-      <x:c r="V36" s="27"/>
-    </x:row>
-    <x:row r="37" spans="1:22" ht="13.199999999999999">
-      <x:c r="A37" s="56"/>
-      <x:c r="B37" s="53"/>
-      <x:c r="C37" s="41"/>
-      <x:c r="D37" s="23"/>
-      <x:c r="E37" s="24"/>
-      <x:c r="F37" s="24"/>
-      <x:c r="G37" s="24"/>
-      <x:c r="H37" s="24"/>
-      <x:c r="I37" s="24"/>
-      <x:c r="J37" s="24"/>
-      <x:c r="K37" s="24"/>
-      <x:c r="L37" s="24"/>
-      <x:c r="M37" s="24"/>
-      <x:c r="N37" s="27"/>
-      <x:c r="O37" s="27"/>
-      <x:c r="P37" s="27"/>
-      <x:c r="Q37" s="27"/>
-      <x:c r="R37" s="27"/>
-      <x:c r="S37" s="27"/>
-      <x:c r="T37" s="27"/>
-      <x:c r="U37" s="27"/>
-      <x:c r="V37" s="27"/>
-    </x:row>
-    <x:row r="38" spans="1:22" ht="13.199999999999999">
-      <x:c r="A38" s="56"/>
-      <x:c r="B38" s="53"/>
-      <x:c r="C38" s="42"/>
-      <x:c r="D38" s="19"/>
-      <x:c r="E38" s="24"/>
-      <x:c r="F38" s="24"/>
-      <x:c r="G38" s="24"/>
-      <x:c r="H38" s="24"/>
-      <x:c r="I38" s="24"/>
-      <x:c r="J38" s="24"/>
-      <x:c r="K38" s="24"/>
-      <x:c r="L38" s="24"/>
-      <x:c r="M38" s="24"/>
-      <x:c r="N38" s="27"/>
-      <x:c r="O38" s="27"/>
-      <x:c r="P38" s="27"/>
-      <x:c r="Q38" s="27"/>
-      <x:c r="R38" s="27"/>
-      <x:c r="S38" s="27"/>
-      <x:c r="T38" s="27"/>
-      <x:c r="U38" s="27"/>
-      <x:c r="V38" s="27"/>
-    </x:row>
-    <x:row r="39" spans="1:22" ht="13.199999999999999">
-      <x:c r="A39" s="56"/>
-      <x:c r="B39" s="53"/>
-      <x:c r="C39" s="40"/>
-      <x:c r="D39" s="19"/>
-      <x:c r="E39" s="24"/>
-      <x:c r="F39" s="24"/>
-      <x:c r="G39" s="24"/>
-      <x:c r="H39" s="24"/>
-      <x:c r="I39" s="24"/>
-      <x:c r="J39" s="24"/>
-      <x:c r="K39" s="24"/>
-      <x:c r="L39" s="24"/>
-      <x:c r="M39" s="24"/>
-      <x:c r="N39" s="27"/>
-      <x:c r="O39" s="27"/>
-      <x:c r="P39" s="27"/>
-      <x:c r="Q39" s="27"/>
-      <x:c r="R39" s="27"/>
-      <x:c r="S39" s="27"/>
-      <x:c r="T39" s="27"/>
-      <x:c r="U39" s="27"/>
-      <x:c r="V39" s="27"/>
-    </x:row>
-    <x:row r="40" spans="1:22" ht="13.199999999999999">
-      <x:c r="A40" s="56"/>
-      <x:c r="B40" s="53"/>
-      <x:c r="C40" s="42"/>
-      <x:c r="D40" s="11"/>
-      <x:c r="E40" s="24"/>
-      <x:c r="F40" s="24"/>
-      <x:c r="G40" s="24"/>
-      <x:c r="H40" s="24"/>
-      <x:c r="I40" s="24"/>
-      <x:c r="J40" s="24"/>
-      <x:c r="K40" s="24"/>
-      <x:c r="L40" s="24"/>
-      <x:c r="M40" s="24"/>
-      <x:c r="N40" s="27"/>
-      <x:c r="O40" s="27"/>
-      <x:c r="P40" s="27"/>
-      <x:c r="Q40" s="27"/>
-      <x:c r="R40" s="27"/>
-      <x:c r="S40" s="27"/>
-      <x:c r="T40" s="27"/>
-      <x:c r="U40" s="27"/>
-      <x:c r="V40" s="27"/>
-    </x:row>
-    <x:row r="41" spans="1:22" ht="32" customHeight="1">
-      <x:c r="A41" s="56"/>
-      <x:c r="B41" s="53"/>
-      <x:c r="C41" s="26"/>
-      <x:c r="D41" s="11"/>
-      <x:c r="E41" s="24"/>
-      <x:c r="F41" s="24"/>
-      <x:c r="G41" s="24"/>
-      <x:c r="H41" s="24"/>
-      <x:c r="I41" s="24"/>
-      <x:c r="J41" s="24"/>
-      <x:c r="K41" s="24"/>
-      <x:c r="L41" s="24"/>
-      <x:c r="M41" s="24"/>
-      <x:c r="N41" s="27"/>
-      <x:c r="O41" s="27"/>
-      <x:c r="P41" s="27"/>
-      <x:c r="Q41" s="27"/>
-      <x:c r="R41" s="27"/>
-      <x:c r="S41" s="27"/>
-      <x:c r="T41" s="27"/>
-      <x:c r="U41" s="27"/>
-      <x:c r="V41" s="27"/>
-    </x:row>
-    <x:row r="42" spans="1:22" ht="13.199999999999999">
-      <x:c r="A42" s="56"/>
-      <x:c r="B42" s="53"/>
-      <x:c r="C42" s="11"/>
-      <x:c r="D42" s="11"/>
-      <x:c r="E42" s="24"/>
-      <x:c r="F42" s="24"/>
-      <x:c r="G42" s="24"/>
-      <x:c r="H42" s="24"/>
-      <x:c r="I42" s="24"/>
-      <x:c r="J42" s="24"/>
-      <x:c r="K42" s="24"/>
-      <x:c r="L42" s="24"/>
-      <x:c r="M42" s="24"/>
-      <x:c r="N42" s="27"/>
-      <x:c r="O42" s="27"/>
-      <x:c r="P42" s="27"/>
-      <x:c r="Q42" s="27"/>
-      <x:c r="R42" s="27"/>
-      <x:c r="S42" s="27"/>
-      <x:c r="T42" s="27"/>
-      <x:c r="U42" s="27"/>
-      <x:c r="V42" s="27"/>
-    </x:row>
-    <x:row r="43" spans="1:22" ht="13.199999999999999">
-      <x:c r="A43" s="56"/>
-      <x:c r="B43" s="53"/>
-      <x:c r="C43" s="22"/>
-      <x:c r="D43" s="19"/>
-      <x:c r="E43" s="24"/>
-      <x:c r="F43" s="24"/>
-      <x:c r="G43" s="24"/>
-      <x:c r="H43" s="24"/>
-      <x:c r="I43" s="24"/>
-      <x:c r="J43" s="24"/>
-      <x:c r="K43" s="24"/>
-      <x:c r="L43" s="24"/>
-      <x:c r="M43" s="24"/>
-      <x:c r="N43" s="27"/>
-      <x:c r="O43" s="27"/>
-      <x:c r="P43" s="27"/>
-      <x:c r="Q43" s="27"/>
-      <x:c r="R43" s="27"/>
-      <x:c r="S43" s="27"/>
-      <x:c r="T43" s="27"/>
-      <x:c r="U43" s="27"/>
-      <x:c r="V43" s="27"/>
-    </x:row>
-    <x:row r="44" spans="1:22" ht="13.199999999999999">
-      <x:c r="A44" s="56"/>
-      <x:c r="B44" s="53"/>
-      <x:c r="C44" s="22"/>
-      <x:c r="D44" s="11"/>
-      <x:c r="E44" s="24"/>
-      <x:c r="F44" s="24"/>
-      <x:c r="G44" s="24"/>
-      <x:c r="H44" s="24"/>
-      <x:c r="I44" s="24"/>
-      <x:c r="J44" s="24"/>
-      <x:c r="K44" s="24"/>
-      <x:c r="L44" s="24"/>
-      <x:c r="M44" s="24"/>
-      <x:c r="N44" s="27"/>
-      <x:c r="O44" s="27"/>
-      <x:c r="P44" s="27"/>
-      <x:c r="Q44" s="27"/>
-      <x:c r="R44" s="27"/>
-      <x:c r="S44" s="27"/>
-      <x:c r="T44" s="27"/>
-      <x:c r="U44" s="27"/>
-      <x:c r="V44" s="27"/>
-    </x:row>
-    <x:row r="45" spans="1:22" ht="13.199999999999999">
-      <x:c r="A45" s="56"/>
-      <x:c r="B45" s="54"/>
-      <x:c r="C45" s="19"/>
-      <x:c r="D45" s="11"/>
-      <x:c r="E45" s="24"/>
-      <x:c r="F45" s="24"/>
-      <x:c r="G45" s="24"/>
-      <x:c r="H45" s="24"/>
-      <x:c r="I45" s="24"/>
-      <x:c r="J45" s="24"/>
-      <x:c r="K45" s="24"/>
-      <x:c r="L45" s="24"/>
-      <x:c r="M45" s="24"/>
-      <x:c r="N45" s="27"/>
-      <x:c r="O45" s="27"/>
-      <x:c r="P45" s="27"/>
-      <x:c r="Q45" s="27"/>
-      <x:c r="R45" s="27"/>
-      <x:c r="S45" s="27"/>
-      <x:c r="T45" s="27"/>
-      <x:c r="U45" s="27"/>
-      <x:c r="V45" s="27"/>
-    </x:row>
-    <x:row r="46" spans="1:22" ht="13.199999999999999">
-      <x:c r="A46" s="56" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="40" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C46" s="19"/>
+      <x:c r="C46" s="11"/>
       <x:c r="D46" s="11"/>
-      <x:c r="E46" s="24"/>
-      <x:c r="F46" s="24"/>
-      <x:c r="G46" s="24"/>
-      <x:c r="H46" s="24"/>
-      <x:c r="I46" s="24"/>
-      <x:c r="J46" s="24"/>
-      <x:c r="K46" s="24"/>
-      <x:c r="L46" s="24"/>
-      <x:c r="M46" s="24"/>
-      <x:c r="N46" s="27"/>
-      <x:c r="O46" s="27"/>
-      <x:c r="P46" s="27"/>
-      <x:c r="Q46" s="27"/>
-      <x:c r="R46" s="27"/>
-      <x:c r="S46" s="27"/>
-      <x:c r="T46" s="27"/>
-      <x:c r="U46" s="27"/>
-      <x:c r="V46" s="27"/>
+      <x:c r="E46" s="22"/>
+      <x:c r="F46" s="22"/>
+      <x:c r="G46" s="22"/>
+      <x:c r="H46" s="22"/>
+      <x:c r="I46" s="22"/>
+      <x:c r="J46" s="22"/>
+      <x:c r="K46" s="22"/>
+      <x:c r="L46" s="22"/>
+      <x:c r="M46" s="22"/>
+      <x:c r="N46" s="25"/>
+      <x:c r="O46" s="25"/>
+      <x:c r="P46" s="25"/>
+      <x:c r="Q46" s="25"/>
+      <x:c r="R46" s="25"/>
+      <x:c r="S46" s="25"/>
+      <x:c r="T46" s="25"/>
+      <x:c r="U46" s="25"/>
+      <x:c r="V46" s="25"/>
     </x:row>
     <x:row r="47" spans="1:22" ht="12.5" customHeight="1">
-      <x:c r="A47" s="56"/>
-      <x:c r="B47" s="41"/>
-      <x:c r="C47" s="19"/>
-      <x:c r="D47" s="19"/>
-      <x:c r="E47" s="24"/>
-      <x:c r="F47" s="24"/>
-      <x:c r="G47" s="24"/>
-      <x:c r="H47" s="24"/>
-      <x:c r="I47" s="24"/>
-      <x:c r="J47" s="24"/>
-      <x:c r="K47" s="24"/>
-      <x:c r="L47" s="24"/>
-      <x:c r="M47" s="24"/>
-      <x:c r="N47" s="27"/>
-      <x:c r="O47" s="27"/>
-      <x:c r="P47" s="27"/>
-      <x:c r="Q47" s="27"/>
-      <x:c r="R47" s="27"/>
-      <x:c r="S47" s="27"/>
-      <x:c r="T47" s="27"/>
-      <x:c r="U47" s="27"/>
-      <x:c r="V47" s="27"/>
+      <x:c r="A47" s="57"/>
+      <x:c r="B47" s="42"/>
+      <x:c r="C47" s="11"/>
+      <x:c r="D47" s="11"/>
+      <x:c r="E47" s="22"/>
+      <x:c r="F47" s="22"/>
+      <x:c r="G47" s="22"/>
+      <x:c r="H47" s="22"/>
+      <x:c r="I47" s="22"/>
+      <x:c r="J47" s="22"/>
+      <x:c r="K47" s="22"/>
+      <x:c r="L47" s="22"/>
+      <x:c r="M47" s="22"/>
+      <x:c r="N47" s="25"/>
+      <x:c r="O47" s="25"/>
+      <x:c r="P47" s="25"/>
+      <x:c r="Q47" s="25"/>
+      <x:c r="R47" s="25"/>
+      <x:c r="S47" s="25"/>
+      <x:c r="T47" s="25"/>
+      <x:c r="U47" s="25"/>
+      <x:c r="V47" s="25"/>
     </x:row>
     <x:row r="48" spans="1:22" ht="13.199999999999999">
-      <x:c r="A48" s="56"/>
-      <x:c r="B48" s="41"/>
-      <x:c r="C48" s="19"/>
-      <x:c r="D48" s="19"/>
-      <x:c r="E48" s="24"/>
-      <x:c r="F48" s="24"/>
-      <x:c r="G48" s="24"/>
-      <x:c r="H48" s="24"/>
-      <x:c r="I48" s="24"/>
-      <x:c r="J48" s="24"/>
-      <x:c r="K48" s="24"/>
-      <x:c r="L48" s="24"/>
-      <x:c r="M48" s="24"/>
-      <x:c r="N48" s="27"/>
-      <x:c r="O48" s="27"/>
-      <x:c r="P48" s="27"/>
-      <x:c r="Q48" s="27"/>
-      <x:c r="R48" s="27"/>
-      <x:c r="S48" s="27"/>
-      <x:c r="T48" s="27"/>
-      <x:c r="U48" s="27"/>
-      <x:c r="V48" s="27"/>
+      <x:c r="A48" s="57"/>
+      <x:c r="B48" s="42"/>
+      <x:c r="C48" s="11"/>
+      <x:c r="D48" s="11"/>
+      <x:c r="E48" s="22"/>
+      <x:c r="F48" s="22"/>
+      <x:c r="G48" s="22"/>
+      <x:c r="H48" s="22"/>
+      <x:c r="I48" s="22"/>
+      <x:c r="J48" s="22"/>
+      <x:c r="K48" s="22"/>
+      <x:c r="L48" s="22"/>
+      <x:c r="M48" s="22"/>
+      <x:c r="N48" s="25"/>
+      <x:c r="O48" s="25"/>
+      <x:c r="P48" s="25"/>
+      <x:c r="Q48" s="25"/>
+      <x:c r="R48" s="25"/>
+      <x:c r="S48" s="25"/>
+      <x:c r="T48" s="25"/>
+      <x:c r="U48" s="25"/>
+      <x:c r="V48" s="25"/>
     </x:row>
     <x:row r="49" spans="1:22" ht="13.199999999999999">
-      <x:c r="A49" s="56"/>
-      <x:c r="B49" s="42"/>
-      <x:c r="C49" s="19"/>
-      <x:c r="D49" s="19"/>
-      <x:c r="E49" s="24"/>
-      <x:c r="F49" s="24"/>
-      <x:c r="G49" s="24"/>
-      <x:c r="H49" s="24"/>
-      <x:c r="I49" s="24"/>
-      <x:c r="J49" s="24"/>
-      <x:c r="K49" s="24"/>
-      <x:c r="L49" s="24"/>
-      <x:c r="M49" s="24"/>
-      <x:c r="N49" s="27"/>
-      <x:c r="O49" s="27"/>
-      <x:c r="P49" s="27"/>
-      <x:c r="Q49" s="27"/>
-      <x:c r="R49" s="27"/>
-      <x:c r="S49" s="27"/>
-      <x:c r="T49" s="27"/>
-      <x:c r="U49" s="27"/>
-      <x:c r="V49" s="27"/>
+      <x:c r="A49" s="57"/>
+      <x:c r="B49" s="43"/>
+      <x:c r="C49" s="11"/>
+      <x:c r="D49" s="11"/>
+      <x:c r="E49" s="22"/>
+      <x:c r="F49" s="22"/>
+      <x:c r="G49" s="22"/>
+      <x:c r="H49" s="22"/>
+      <x:c r="I49" s="22"/>
+      <x:c r="J49" s="22"/>
+      <x:c r="K49" s="22"/>
+      <x:c r="L49" s="22"/>
+      <x:c r="M49" s="22"/>
+      <x:c r="N49" s="25"/>
+      <x:c r="O49" s="25"/>
+      <x:c r="P49" s="25"/>
+      <x:c r="Q49" s="25"/>
+      <x:c r="R49" s="25"/>
+      <x:c r="S49" s="25"/>
+      <x:c r="T49" s="25"/>
+      <x:c r="U49" s="25"/>
+      <x:c r="V49" s="25"/>
     </x:row>
     <x:row r="50" spans="1:22" ht="13.199999999999999">
-      <x:c r="A50" s="57"/>
-      <x:c r="B50" s="23"/>
-      <x:c r="C50" s="17"/>
-      <x:c r="D50" s="17"/>
-      <x:c r="E50" s="24"/>
-      <x:c r="F50" s="24"/>
-      <x:c r="G50" s="24"/>
-      <x:c r="H50" s="24"/>
-      <x:c r="I50" s="24"/>
-      <x:c r="J50" s="24"/>
-      <x:c r="K50" s="24"/>
-      <x:c r="L50" s="24"/>
-      <x:c r="M50" s="24"/>
-      <x:c r="N50" s="27"/>
-      <x:c r="O50" s="27"/>
-      <x:c r="P50" s="27"/>
-      <x:c r="Q50" s="27"/>
-      <x:c r="R50" s="27"/>
-      <x:c r="S50" s="27"/>
-      <x:c r="T50" s="27"/>
-      <x:c r="U50" s="27"/>
-      <x:c r="V50" s="27"/>
+      <x:c r="A50" s="58"/>
+      <x:c r="B50" s="11"/>
+      <x:c r="C50" s="11"/>
+      <x:c r="D50" s="11"/>
+      <x:c r="E50" s="22"/>
+      <x:c r="F50" s="22"/>
+      <x:c r="G50" s="22"/>
+      <x:c r="H50" s="22"/>
+      <x:c r="I50" s="22"/>
+      <x:c r="J50" s="22"/>
+      <x:c r="K50" s="22"/>
+      <x:c r="L50" s="22"/>
+      <x:c r="M50" s="22"/>
+      <x:c r="N50" s="25"/>
+      <x:c r="O50" s="25"/>
+      <x:c r="P50" s="25"/>
+      <x:c r="Q50" s="25"/>
+      <x:c r="R50" s="25"/>
+      <x:c r="S50" s="25"/>
+      <x:c r="T50" s="25"/>
+      <x:c r="U50" s="25"/>
+      <x:c r="V50" s="25"/>
     </x:row>
     <x:row r="51" spans="1:22" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B51" s="6"/>
       <x:c r="C51" s="6"/>
       <x:c r="D51" s="6"/>
-      <x:c r="E51" s="25"/>
-      <x:c r="F51" s="25"/>
-      <x:c r="G51" s="25"/>
-      <x:c r="H51" s="25"/>
-      <x:c r="I51" s="25"/>
-      <x:c r="J51" s="25"/>
-      <x:c r="K51" s="25"/>
-      <x:c r="L51" s="25"/>
-      <x:c r="M51" s="25"/>
-      <x:c r="N51" s="27"/>
-      <x:c r="O51" s="27"/>
-      <x:c r="P51" s="27"/>
-      <x:c r="Q51" s="27"/>
-      <x:c r="R51" s="27"/>
-      <x:c r="S51" s="27"/>
-      <x:c r="T51" s="28"/>
-      <x:c r="U51" s="28"/>
-      <x:c r="V51" s="27"/>
+      <x:c r="E51" s="23"/>
+      <x:c r="F51" s="23"/>
+      <x:c r="G51" s="23"/>
+      <x:c r="H51" s="23"/>
+      <x:c r="I51" s="23"/>
+      <x:c r="J51" s="23"/>
+      <x:c r="K51" s="23"/>
+      <x:c r="L51" s="23"/>
+      <x:c r="M51" s="23"/>
+      <x:c r="N51" s="25"/>
+      <x:c r="O51" s="25"/>
+      <x:c r="P51" s="25"/>
+      <x:c r="Q51" s="25"/>
+      <x:c r="R51" s="25"/>
+      <x:c r="S51" s="25"/>
+      <x:c r="T51" s="26"/>
+      <x:c r="U51" s="26"/>
+      <x:c r="V51" s="25"/>
     </x:row>
     <x:row r="52" spans="1:22" ht="13.5" customHeight="1">
       <x:c r="A52" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
-      <x:c r="B52" s="19"/>
+      <x:c r="B52" s="18"/>
       <x:c r="C52" s="2"/>
       <x:c r="D52" s="2"/>
       <x:c r="E52" s="12"/>
       <x:c r="F52" s="12"/>
       <x:c r="G52" s="12"/>
       <x:c r="H52" s="12"/>
-      <x:c r="I52" s="39"/>
+      <x:c r="I52" s="37"/>
       <x:c r="J52" s="12"/>
       <x:c r="K52" s="12"/>
       <x:c r="L52" s="12"/>
       <x:c r="M52" s="12"/>
-      <x:c r="N52" s="31"/>
-      <x:c r="O52" s="27"/>
-      <x:c r="P52" s="27"/>
-      <x:c r="Q52" s="27"/>
-      <x:c r="R52" s="27"/>
-      <x:c r="S52" s="27"/>
-      <x:c r="T52" s="27"/>
-      <x:c r="U52" s="27"/>
-      <x:c r="V52" s="30"/>
+      <x:c r="N52" s="29"/>
+      <x:c r="O52" s="25"/>
+      <x:c r="P52" s="25"/>
+      <x:c r="Q52" s="25"/>
+      <x:c r="R52" s="25"/>
+      <x:c r="S52" s="25"/>
+      <x:c r="T52" s="25"/>
+      <x:c r="U52" s="25"/>
+      <x:c r="V52" s="28"/>
     </x:row>
     <x:row r="53" spans="1:22" ht="13.199999999999999">
       <x:c r="A53" s="14"/>
-      <x:c r="B53" s="19"/>
+      <x:c r="B53" s="18"/>
       <x:c r="C53" s="11"/>
       <x:c r="D53" s="11"/>
       <x:c r="E53" s="5"/>
@@ -3147,15 +3108,15 @@
       <x:c r="K53" s="5"/>
       <x:c r="L53" s="5"/>
       <x:c r="M53" s="5"/>
-      <x:c r="N53" s="27"/>
-      <x:c r="O53" s="27"/>
-      <x:c r="P53" s="27"/>
-      <x:c r="Q53" s="27"/>
-      <x:c r="R53" s="27"/>
-      <x:c r="S53" s="27"/>
-      <x:c r="T53" s="27"/>
-      <x:c r="U53" s="27"/>
-      <x:c r="V53" s="30"/>
+      <x:c r="N53" s="25"/>
+      <x:c r="O53" s="25"/>
+      <x:c r="P53" s="25"/>
+      <x:c r="Q53" s="25"/>
+      <x:c r="R53" s="25"/>
+      <x:c r="S53" s="25"/>
+      <x:c r="T53" s="25"/>
+      <x:c r="U53" s="25"/>
+      <x:c r="V53" s="28"/>
     </x:row>
     <x:row r="54" spans="1:22" ht="13.199999999999999">
       <x:c r="A54" s="14"/>
@@ -3171,15 +3132,15 @@
       <x:c r="K54" s="5"/>
       <x:c r="L54" s="5"/>
       <x:c r="M54" s="5"/>
-      <x:c r="N54" s="27"/>
-      <x:c r="O54" s="27"/>
-      <x:c r="P54" s="27"/>
-      <x:c r="Q54" s="27"/>
-      <x:c r="R54" s="27"/>
-      <x:c r="S54" s="27"/>
-      <x:c r="T54" s="27"/>
-      <x:c r="U54" s="27"/>
-      <x:c r="V54" s="30"/>
+      <x:c r="N54" s="25"/>
+      <x:c r="O54" s="25"/>
+      <x:c r="P54" s="25"/>
+      <x:c r="Q54" s="25"/>
+      <x:c r="R54" s="25"/>
+      <x:c r="S54" s="25"/>
+      <x:c r="T54" s="25"/>
+      <x:c r="U54" s="25"/>
+      <x:c r="V54" s="28"/>
     </x:row>
     <x:row r="55" spans="1:22" ht="13.199999999999999">
       <x:c r="A55" s="14"/>
@@ -3195,15 +3156,15 @@
       <x:c r="K55" s="5"/>
       <x:c r="L55" s="5"/>
       <x:c r="M55" s="5"/>
-      <x:c r="N55" s="27"/>
-      <x:c r="O55" s="27"/>
-      <x:c r="P55" s="27"/>
-      <x:c r="Q55" s="27"/>
-      <x:c r="R55" s="27"/>
-      <x:c r="S55" s="27"/>
-      <x:c r="T55" s="27"/>
-      <x:c r="U55" s="27"/>
-      <x:c r="V55" s="31"/>
+      <x:c r="N55" s="25"/>
+      <x:c r="O55" s="25"/>
+      <x:c r="P55" s="25"/>
+      <x:c r="Q55" s="25"/>
+      <x:c r="R55" s="25"/>
+      <x:c r="S55" s="25"/>
+      <x:c r="T55" s="25"/>
+      <x:c r="U55" s="25"/>
+      <x:c r="V55" s="29"/>
     </x:row>
     <x:row r="56" spans="1:22" ht="13.199999999999999">
       <x:c r="A56" s="14"/>
@@ -3219,20 +3180,20 @@
       <x:c r="K56" s="5"/>
       <x:c r="L56" s="5"/>
       <x:c r="M56" s="5"/>
-      <x:c r="N56" s="27"/>
-      <x:c r="O56" s="27"/>
-      <x:c r="P56" s="27"/>
-      <x:c r="Q56" s="27"/>
-      <x:c r="R56" s="27"/>
-      <x:c r="S56" s="27"/>
-      <x:c r="T56" s="27"/>
-      <x:c r="U56" s="27"/>
-      <x:c r="V56" s="32"/>
+      <x:c r="N56" s="25"/>
+      <x:c r="O56" s="25"/>
+      <x:c r="P56" s="25"/>
+      <x:c r="Q56" s="25"/>
+      <x:c r="R56" s="25"/>
+      <x:c r="S56" s="25"/>
+      <x:c r="T56" s="25"/>
+      <x:c r="U56" s="25"/>
+      <x:c r="V56" s="30"/>
     </x:row>
     <x:row r="57" spans="1:22" ht="14.199999999999999">
-      <x:c r="A57" s="43"/>
-      <x:c r="B57" s="44"/>
-      <x:c r="C57" s="44"/>
+      <x:c r="A57" s="44"/>
+      <x:c r="B57" s="45"/>
+      <x:c r="C57" s="45"/>
       <x:c r="D57" s="13"/>
       <x:c r="E57" s="13"/>
       <x:c r="F57" s="13"/>
@@ -3243,20 +3204,20 @@
       <x:c r="K57" s="13"/>
       <x:c r="L57" s="13"/>
       <x:c r="M57" s="13"/>
-      <x:c r="N57" s="29"/>
-      <x:c r="O57" s="29"/>
-      <x:c r="P57" s="29"/>
-      <x:c r="Q57" s="29"/>
-      <x:c r="R57" s="29"/>
-      <x:c r="S57" s="29"/>
-      <x:c r="T57" s="29"/>
-      <x:c r="U57" s="29"/>
-      <x:c r="V57" s="29"/>
+      <x:c r="N57" s="27"/>
+      <x:c r="O57" s="27"/>
+      <x:c r="P57" s="27"/>
+      <x:c r="Q57" s="27"/>
+      <x:c r="R57" s="27"/>
+      <x:c r="S57" s="27"/>
+      <x:c r="T57" s="27"/>
+      <x:c r="U57" s="27"/>
+      <x:c r="V57" s="27"/>
     </x:row>
     <x:row r="58" spans="1:22" ht="14.199999999999999">
-      <x:c r="A58" s="45"/>
-      <x:c r="B58" s="46"/>
-      <x:c r="C58" s="46"/>
+      <x:c r="A58" s="46"/>
+      <x:c r="B58" s="47"/>
+      <x:c r="C58" s="47"/>
       <x:c r="D58" s="8"/>
       <x:c r="E58" s="8"/>
       <x:c r="F58" s="8"/>
@@ -3278,9 +3239,7 @@
       <x:c r="V58" s="8"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="22">
-    <x:mergeCell ref="C33:C38"/>
-    <x:mergeCell ref="C39:C40"/>
+  <x:mergeCells count="16">
     <x:mergeCell ref="B46:B49"/>
     <x:mergeCell ref="A57:C57"/>
     <x:mergeCell ref="A58:C58"/>
@@ -3289,20 +3248,16 @@
     <x:mergeCell ref="B18:B19"/>
     <x:mergeCell ref="B20:B21"/>
     <x:mergeCell ref="B16:B17"/>
-    <x:mergeCell ref="B24:B25"/>
     <x:mergeCell ref="B28:B45"/>
-    <x:mergeCell ref="C28:C30"/>
-    <x:mergeCell ref="C31:C32"/>
     <x:mergeCell ref="A16:A27"/>
     <x:mergeCell ref="L3:M3"/>
     <x:mergeCell ref="G3:K3"/>
     <x:mergeCell ref="E3:F3"/>
-    <x:mergeCell ref="C5:C9"/>
     <x:mergeCell ref="A5:A15"/>
     <x:mergeCell ref="A28:A45"/>
     <x:mergeCell ref="A46:A50"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/2021_Summer/jp.hong/Project_Planner.xlsx
+++ b/2021_Summer/jp.hong/Project_Planner.xlsx
@@ -19,7 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <x:si>
+    <x:t>기능 검토(근거자료 및 샘플코드)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 구상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리 앱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세 Task</x:t>
+  </x:si>
   <x:si>
     <x:t>기능 모듈 설계</x:t>
   </x:si>
@@ -27,58 +57,31 @@
     <x:t>제품 review</x:t>
   </x:si>
   <x:si>
-    <x:t>Mile Stone</x:t>
-  </x:si>
-  <x:si>
     <x:t>스토리 보드 제작</x:t>
   </x:si>
   <x:si>
-    <x:t>아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리 앱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디어 구상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세 Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검증</x:t>
+    <x:t>Mile Stone</x:t>
   </x:si>
   <x:si>
     <x:t>5주차</x:t>
   </x:si>
   <x:si>
+    <x:t>2주차</x:t>
+  </x:si>
+  <x:si>
     <x:t>9주차</x:t>
   </x:si>
   <x:si>
-    <x:t>2주차</x:t>
+    <x:t>8주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
   </x:si>
   <x:si>
     <x:t>6주차</x:t>
   </x:si>
   <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
     <x:t>4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8주차</x:t>
   </x:si>
   <x:si>
     <x:t>7주차</x:t>
@@ -88,6 +91,15 @@
   </x:si>
   <x:si>
     <x:t>소분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3주차</x:t>
   </x:si>
   <x:si>
     <x:t>설계</x:t>
@@ -105,9 +117,6 @@
     <x:t>종료</x:t>
   </x:si>
   <x:si>
-    <x:t>기능 검토(근거자료 및 샘플코드)</x:t>
-  </x:si>
-  <x:si>
     <x:t>* 프로젝트 팀원 : 홍준표</x:t>
   </x:si>
 </x:sst>
@@ -116,53 +125,175 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fonts count="12">
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="10"/>
-      <x:color rgb="ffffffff"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -441,7 +572,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="63">
+  <x:cellXfs count="65">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1047,6 +1178,32 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1774,7 +1931,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E7" activeCellId="0" sqref="E7:E7"/>
+      <x:selection pane="bottomLeft" activeCell="D15" activeCellId="0" sqref="D15:D15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1"/>
@@ -1788,7 +1945,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:22" ht="14.199999999999999">
       <x:c r="A1" s="19" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B1" s="8"/>
       <x:c r="C1" s="8"/>
@@ -1838,10 +1995,10 @@
     </x:row>
     <x:row r="3" spans="1:22" ht="13.199999999999999">
       <x:c r="A3" s="48" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="4"/>
@@ -1867,40 +2024,40 @@
     <x:row r="4" spans="1:22" ht="13.199999999999999">
       <x:c r="A4" s="48"/>
       <x:c r="B4" s="15" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="20" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="20" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E4" s="9" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G4" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H4" s="9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I4" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J4" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K4" s="9" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C4" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D4" s="20" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E4" s="9" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F4" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G4" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H4" s="9" t="s">
+      <x:c r="L4" s="9" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I4" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J4" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="K4" s="9" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L4" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="M4" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N4" s="28"/>
       <x:c r="O4" s="28"/>
@@ -1914,13 +2071,13 @@
     </x:row>
     <x:row r="5" spans="1:22" ht="13.199999999999999">
       <x:c r="A5" s="56" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="31" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="38" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="31" t="s">
         <x:v>5</x:v>
@@ -1946,11 +2103,17 @@
     </x:row>
     <x:row r="6" spans="1:22" ht="13.199999999999999">
       <x:c r="A6" s="57"/>
-      <x:c r="B6" s="31"/>
-      <x:c r="C6" s="24"/>
-      <x:c r="D6" s="31"/>
+      <x:c r="B6" s="31" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="63" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="31" t="s">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="E6" s="40"/>
-      <x:c r="F6" s="22"/>
+      <x:c r="F6" s="36"/>
       <x:c r="G6" s="22"/>
       <x:c r="H6" s="22"/>
       <x:c r="I6" s="22"/>
@@ -1971,10 +2134,12 @@
     <x:row r="7" spans="1:22" ht="13.199999999999999">
       <x:c r="A7" s="57"/>
       <x:c r="B7" s="31"/>
-      <x:c r="C7" s="24"/>
-      <x:c r="D7" s="31"/>
+      <x:c r="C7" s="64"/>
+      <x:c r="D7" s="31" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="E7" s="40"/>
-      <x:c r="F7" s="22"/>
+      <x:c r="F7" s="36"/>
       <x:c r="G7" s="22"/>
       <x:c r="H7" s="22"/>
       <x:c r="I7" s="22"/>
@@ -2042,9 +2207,7 @@
     </x:row>
     <x:row r="10" spans="1:22" ht="13.199999999999999">
       <x:c r="A10" s="57"/>
-      <x:c r="B10" s="31" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="B10" s="31"/>
       <x:c r="C10" s="32"/>
       <x:c r="D10" s="31"/>
       <x:c r="E10" s="22"/>
@@ -2188,10 +2351,10 @@
     </x:row>
     <x:row r="16" spans="1:22" ht="13.199999999999999">
       <x:c r="A16" s="56" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B16" s="51" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="31"/>
       <x:c r="D16" s="31"/>
@@ -2241,7 +2404,7 @@
     <x:row r="18" spans="1:22" ht="13.199999999999999">
       <x:c r="A18" s="57"/>
       <x:c r="B18" s="41" t="s">
-        <x:v>28</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="31"/>
       <x:c r="D18" s="31"/>
@@ -2291,7 +2454,7 @@
     <x:row r="20" spans="1:22" ht="13.199999999999999">
       <x:c r="A20" s="57"/>
       <x:c r="B20" s="41" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C20" s="31"/>
       <x:c r="D20" s="31"/>
@@ -2484,10 +2647,10 @@
     </x:row>
     <x:row r="28" spans="1:22" ht="13.199999999999999">
       <x:c r="A28" s="62" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B28" s="53" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C28" s="24"/>
       <x:c r="D28" s="11"/>
@@ -2920,10 +3083,10 @@
     </x:row>
     <x:row r="46" spans="1:22" ht="13.199999999999999">
       <x:c r="A46" s="57" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B46" s="41" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="11"/>
       <x:c r="D46" s="11"/>
@@ -3044,7 +3207,7 @@
     </x:row>
     <x:row r="51" spans="1:22" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B51" s="6"/>
       <x:c r="C51" s="6"/>
@@ -3070,7 +3233,7 @@
     </x:row>
     <x:row r="52" spans="1:22" ht="13.5" customHeight="1">
       <x:c r="A52" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B52" s="18"/>
       <x:c r="C52" s="2"/>
@@ -3239,7 +3402,7 @@
       <x:c r="V58" s="8"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="16">
+  <x:mergeCells count="17">
     <x:mergeCell ref="B46:B49"/>
     <x:mergeCell ref="A57:C57"/>
     <x:mergeCell ref="A58:C58"/>
@@ -3256,6 +3419,7 @@
     <x:mergeCell ref="A5:A15"/>
     <x:mergeCell ref="A28:A45"/>
     <x:mergeCell ref="A46:A50"/>
+    <x:mergeCell ref="C6:C7"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/2021_Summer/jp.hong/Project_Planner.xlsx
+++ b/2021_Summer/jp.hong/Project_Planner.xlsx
@@ -19,105 +19,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <x:si>
+    <x:t>요구사항 수정 및 관련 필요 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구현 가능성 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 흐름도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 기획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mile Stone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스토리 보드 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 모듈 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 세부 구상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 프로젝트 진행 : 홍준표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상용화된 타 앱 기능 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 구상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리 앱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세 Task</x:t>
+  </x:si>
   <x:si>
     <x:t>기능 검토(근거자료 및 샘플코드)</x:t>
   </x:si>
   <x:si>
-    <x:t>기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 수집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디어 구상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리 앱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세 Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 모듈 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 review</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스토리 보드 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mile Stone</x:t>
+    <x:t>3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8주차</x:t>
   </x:si>
   <x:si>
     <x:t>5주차</x:t>
   </x:si>
   <x:si>
-    <x:t>2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7주차</x:t>
-  </x:si>
-  <x:si>
     <x:t>대분류</x:t>
   </x:si>
   <x:si>
-    <x:t>소분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발</x:t>
+    <x:t>종료</x:t>
   </x:si>
   <x:si>
     <x:t>구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 프로젝트 팀원 : 홍준표</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -572,7 +593,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="65">
+  <x:cellXfs count="66">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -650,19 +671,6 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -1205,6 +1213,32 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1930,8 +1964,8 @@
   <x:dimension ref="A1:V58"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="D15" activeCellId="0" sqref="D15:D15"/>
+      <x:pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22:C22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1"/>
@@ -1944,8 +1978,8 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:22" ht="14.199999999999999">
-      <x:c r="A1" s="19" t="s">
-        <x:v>32</x:v>
+      <x:c r="A1" s="18" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B1" s="8"/>
       <x:c r="C1" s="8"/>
@@ -1970,1298 +2004,1312 @@
       <x:c r="V1" s="8"/>
     </x:row>
     <x:row r="2" spans="1:22" ht="14.199999999999999">
-      <x:c r="A2" s="17"/>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="16"/>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="16"/>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="16"/>
-      <x:c r="J2" s="16"/>
-      <x:c r="K2" s="16"/>
-      <x:c r="L2" s="16"/>
-      <x:c r="M2" s="16"/>
-      <x:c r="N2" s="27"/>
-      <x:c r="O2" s="27"/>
-      <x:c r="P2" s="27"/>
-      <x:c r="Q2" s="27"/>
-      <x:c r="R2" s="27"/>
-      <x:c r="S2" s="27"/>
-      <x:c r="T2" s="27"/>
-      <x:c r="U2" s="27"/>
-      <x:c r="V2" s="27"/>
+      <x:c r="A2" s="16"/>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="15"/>
+      <x:c r="D2" s="15"/>
+      <x:c r="E2" s="15"/>
+      <x:c r="F2" s="15"/>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="15"/>
+      <x:c r="J2" s="15"/>
+      <x:c r="K2" s="15"/>
+      <x:c r="L2" s="15"/>
+      <x:c r="M2" s="15"/>
+      <x:c r="N2" s="26"/>
+      <x:c r="O2" s="26"/>
+      <x:c r="P2" s="26"/>
+      <x:c r="Q2" s="26"/>
+      <x:c r="R2" s="26"/>
+      <x:c r="S2" s="26"/>
+      <x:c r="T2" s="26"/>
+      <x:c r="U2" s="26"/>
+      <x:c r="V2" s="26"/>
     </x:row>
     <x:row r="3" spans="1:22" ht="13.199999999999999">
-      <x:c r="A3" s="48" t="s">
+      <x:c r="A3" s="47" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B3" s="48" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="49"/>
+      <x:c r="D3" s="4"/>
+      <x:c r="E3" s="58"/>
+      <x:c r="F3" s="59"/>
+      <x:c r="G3" s="60"/>
+      <x:c r="H3" s="60"/>
+      <x:c r="I3" s="60"/>
+      <x:c r="J3" s="60"/>
+      <x:c r="K3" s="59"/>
+      <x:c r="L3" s="58"/>
+      <x:c r="M3" s="59"/>
+      <x:c r="N3" s="25"/>
+      <x:c r="O3" s="24"/>
+      <x:c r="P3" s="25"/>
+      <x:c r="Q3" s="25"/>
+      <x:c r="R3" s="25"/>
+      <x:c r="S3" s="25"/>
+      <x:c r="T3" s="25"/>
+      <x:c r="U3" s="25"/>
+      <x:c r="V3" s="25"/>
+    </x:row>
+    <x:row r="4" spans="1:22" ht="13.199999999999999">
+      <x:c r="A4" s="47"/>
+      <x:c r="B4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C4" s="19" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D4" s="19" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E4" s="65" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F4" s="65" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G4" s="65" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H4" s="65" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I4" s="65" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J4" s="65" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K4" s="65" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L4" s="65" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M4" s="65" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N4" s="27"/>
+      <x:c r="O4" s="27"/>
+      <x:c r="P4" s="27"/>
+      <x:c r="Q4" s="27"/>
+      <x:c r="R4" s="27"/>
+      <x:c r="S4" s="27"/>
+      <x:c r="T4" s="27"/>
+      <x:c r="U4" s="27"/>
+      <x:c r="V4" s="27"/>
+    </x:row>
+    <x:row r="5" spans="1:22" ht="13.199999999999999">
+      <x:c r="A5" s="55" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B5" s="30" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="37" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="30" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="35"/>
+      <x:c r="F5" s="21"/>
+      <x:c r="G5" s="21"/>
+      <x:c r="H5" s="21"/>
+      <x:c r="I5" s="21"/>
+      <x:c r="J5" s="21"/>
+      <x:c r="K5" s="21"/>
+      <x:c r="L5" s="21"/>
+      <x:c r="M5" s="21"/>
+      <x:c r="N5" s="24"/>
+      <x:c r="O5" s="24"/>
+      <x:c r="P5" s="24"/>
+      <x:c r="Q5" s="24"/>
+      <x:c r="R5" s="24"/>
+      <x:c r="S5" s="24"/>
+      <x:c r="T5" s="24"/>
+      <x:c r="U5" s="24"/>
+      <x:c r="V5" s="24"/>
+    </x:row>
+    <x:row r="6" spans="1:22" ht="13.199999999999999">
+      <x:c r="A6" s="56"/>
+      <x:c r="B6" s="62" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B3" s="49" t="s">
+      <x:c r="C6" s="62" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="30" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E6" s="39"/>
+      <x:c r="F6" s="35"/>
+      <x:c r="G6" s="21"/>
+      <x:c r="H6" s="21"/>
+      <x:c r="I6" s="21"/>
+      <x:c r="J6" s="21"/>
+      <x:c r="K6" s="21"/>
+      <x:c r="L6" s="21"/>
+      <x:c r="M6" s="21"/>
+      <x:c r="N6" s="24"/>
+      <x:c r="O6" s="24"/>
+      <x:c r="P6" s="24"/>
+      <x:c r="Q6" s="24"/>
+      <x:c r="R6" s="24"/>
+      <x:c r="S6" s="24"/>
+      <x:c r="T6" s="24"/>
+      <x:c r="U6" s="24"/>
+      <x:c r="V6" s="24"/>
+    </x:row>
+    <x:row r="7" spans="1:22" ht="13.199999999999999">
+      <x:c r="A7" s="56"/>
+      <x:c r="B7" s="64"/>
+      <x:c r="C7" s="63"/>
+      <x:c r="D7" s="30" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C3" s="50"/>
-      <x:c r="D3" s="4"/>
-      <x:c r="E3" s="59"/>
-      <x:c r="F3" s="60"/>
-      <x:c r="G3" s="61"/>
-      <x:c r="H3" s="61"/>
-      <x:c r="I3" s="61"/>
-      <x:c r="J3" s="61"/>
-      <x:c r="K3" s="60"/>
-      <x:c r="L3" s="59"/>
-      <x:c r="M3" s="60"/>
-      <x:c r="N3" s="26"/>
-      <x:c r="O3" s="25"/>
-      <x:c r="P3" s="26"/>
-      <x:c r="Q3" s="26"/>
-      <x:c r="R3" s="26"/>
-      <x:c r="S3" s="26"/>
-      <x:c r="T3" s="26"/>
-      <x:c r="U3" s="26"/>
-      <x:c r="V3" s="26"/>
-    </x:row>
-    <x:row r="4" spans="1:22" ht="13.199999999999999">
-      <x:c r="A4" s="48"/>
-      <x:c r="B4" s="15" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C4" s="20" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D4" s="20" t="s">
+      <x:c r="E7" s="39"/>
+      <x:c r="F7" s="35"/>
+      <x:c r="G7" s="21"/>
+      <x:c r="H7" s="21"/>
+      <x:c r="I7" s="21"/>
+      <x:c r="J7" s="21"/>
+      <x:c r="K7" s="21"/>
+      <x:c r="L7" s="21"/>
+      <x:c r="M7" s="21"/>
+      <x:c r="N7" s="24"/>
+      <x:c r="O7" s="24"/>
+      <x:c r="P7" s="24"/>
+      <x:c r="Q7" s="24"/>
+      <x:c r="R7" s="24"/>
+      <x:c r="S7" s="24"/>
+      <x:c r="T7" s="24"/>
+      <x:c r="U7" s="24"/>
+      <x:c r="V7" s="24"/>
+    </x:row>
+    <x:row r="8" spans="1:22" ht="13.199999999999999">
+      <x:c r="A8" s="56"/>
+      <x:c r="B8" s="64"/>
+      <x:c r="C8" s="62" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D8" s="30" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E8" s="39"/>
+      <x:c r="F8" s="35"/>
+      <x:c r="G8" s="21"/>
+      <x:c r="H8" s="21"/>
+      <x:c r="I8" s="21"/>
+      <x:c r="J8" s="21"/>
+      <x:c r="K8" s="21"/>
+      <x:c r="L8" s="21"/>
+      <x:c r="M8" s="21"/>
+      <x:c r="N8" s="24"/>
+      <x:c r="O8" s="24"/>
+      <x:c r="P8" s="24"/>
+      <x:c r="Q8" s="24"/>
+      <x:c r="R8" s="24"/>
+      <x:c r="S8" s="24"/>
+      <x:c r="T8" s="24"/>
+      <x:c r="U8" s="24"/>
+      <x:c r="V8" s="24"/>
+    </x:row>
+    <x:row r="9" spans="1:22" ht="13.199999999999999">
+      <x:c r="A9" s="56"/>
+      <x:c r="B9" s="64"/>
+      <x:c r="C9" s="64"/>
+      <x:c r="D9" s="38" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="39"/>
+      <x:c r="F9" s="35"/>
+      <x:c r="G9" s="21"/>
+      <x:c r="H9" s="21"/>
+      <x:c r="I9" s="21"/>
+      <x:c r="J9" s="21"/>
+      <x:c r="K9" s="21"/>
+      <x:c r="L9" s="21"/>
+      <x:c r="M9" s="21"/>
+      <x:c r="N9" s="24"/>
+      <x:c r="O9" s="24"/>
+      <x:c r="P9" s="24"/>
+      <x:c r="Q9" s="24"/>
+      <x:c r="R9" s="24"/>
+      <x:c r="S9" s="24"/>
+      <x:c r="T9" s="24"/>
+      <x:c r="U9" s="24"/>
+      <x:c r="V9" s="24"/>
+    </x:row>
+    <x:row r="10" spans="1:22" ht="13.199999999999999">
+      <x:c r="A10" s="56"/>
+      <x:c r="B10" s="63"/>
+      <x:c r="C10" s="63"/>
+      <x:c r="D10" s="30" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E10" s="21"/>
+      <x:c r="F10" s="35"/>
+      <x:c r="G10" s="21"/>
+      <x:c r="H10" s="21"/>
+      <x:c r="I10" s="21"/>
+      <x:c r="J10" s="21"/>
+      <x:c r="K10" s="21"/>
+      <x:c r="L10" s="21"/>
+      <x:c r="M10" s="21"/>
+      <x:c r="N10" s="24"/>
+      <x:c r="O10" s="24"/>
+      <x:c r="P10" s="24"/>
+      <x:c r="Q10" s="24"/>
+      <x:c r="R10" s="24"/>
+      <x:c r="S10" s="24"/>
+      <x:c r="T10" s="24"/>
+      <x:c r="U10" s="24"/>
+      <x:c r="V10" s="24"/>
+    </x:row>
+    <x:row r="11" spans="1:22" ht="13.199999999999999">
+      <x:c r="A11" s="56"/>
+      <x:c r="B11" s="30" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C11" s="32" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D11" s="30" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E11" s="21"/>
+      <x:c r="F11" s="35"/>
+      <x:c r="G11" s="35"/>
+      <x:c r="H11" s="21"/>
+      <x:c r="I11" s="21"/>
+      <x:c r="J11" s="21"/>
+      <x:c r="K11" s="21"/>
+      <x:c r="L11" s="21"/>
+      <x:c r="M11" s="21"/>
+      <x:c r="N11" s="24"/>
+      <x:c r="O11" s="24"/>
+      <x:c r="P11" s="24"/>
+      <x:c r="Q11" s="24"/>
+      <x:c r="R11" s="24"/>
+      <x:c r="S11" s="24"/>
+      <x:c r="T11" s="24"/>
+      <x:c r="U11" s="24"/>
+      <x:c r="V11" s="24"/>
+    </x:row>
+    <x:row r="12" spans="1:22" ht="13.199999999999999">
+      <x:c r="A12" s="56"/>
+      <x:c r="B12" s="30"/>
+      <x:c r="C12" s="33"/>
+      <x:c r="D12" s="30"/>
+      <x:c r="E12" s="21"/>
+      <x:c r="F12" s="21"/>
+      <x:c r="G12" s="21"/>
+      <x:c r="H12" s="21"/>
+      <x:c r="I12" s="21"/>
+      <x:c r="J12" s="21"/>
+      <x:c r="K12" s="21"/>
+      <x:c r="L12" s="21"/>
+      <x:c r="M12" s="21"/>
+      <x:c r="N12" s="24"/>
+      <x:c r="O12" s="24"/>
+      <x:c r="P12" s="24"/>
+      <x:c r="Q12" s="24"/>
+      <x:c r="R12" s="24"/>
+      <x:c r="S12" s="24"/>
+      <x:c r="T12" s="24"/>
+      <x:c r="U12" s="24"/>
+      <x:c r="V12" s="24"/>
+    </x:row>
+    <x:row r="13" spans="1:22" ht="13.199999999999999">
+      <x:c r="A13" s="56"/>
+      <x:c r="B13" s="30"/>
+      <x:c r="C13" s="30"/>
+      <x:c r="D13" s="30"/>
+      <x:c r="E13" s="21"/>
+      <x:c r="F13" s="21"/>
+      <x:c r="G13" s="21"/>
+      <x:c r="H13" s="21"/>
+      <x:c r="I13" s="21"/>
+      <x:c r="J13" s="21"/>
+      <x:c r="K13" s="21"/>
+      <x:c r="L13" s="21"/>
+      <x:c r="M13" s="21"/>
+      <x:c r="N13" s="24"/>
+      <x:c r="O13" s="24"/>
+      <x:c r="P13" s="24"/>
+      <x:c r="Q13" s="24"/>
+      <x:c r="R13" s="24"/>
+      <x:c r="S13" s="24"/>
+      <x:c r="T13" s="24"/>
+      <x:c r="U13" s="24"/>
+      <x:c r="V13" s="24"/>
+    </x:row>
+    <x:row r="14" spans="1:22" ht="13.199999999999999">
+      <x:c r="A14" s="56"/>
+      <x:c r="B14" s="30"/>
+      <x:c r="C14" s="30"/>
+      <x:c r="D14" s="30"/>
+      <x:c r="E14" s="21"/>
+      <x:c r="F14" s="21"/>
+      <x:c r="G14" s="21"/>
+      <x:c r="H14" s="21"/>
+      <x:c r="I14" s="21"/>
+      <x:c r="J14" s="21"/>
+      <x:c r="K14" s="21"/>
+      <x:c r="L14" s="21"/>
+      <x:c r="M14" s="21"/>
+      <x:c r="N14" s="24"/>
+      <x:c r="O14" s="24"/>
+      <x:c r="P14" s="24"/>
+      <x:c r="Q14" s="24"/>
+      <x:c r="R14" s="24"/>
+      <x:c r="S14" s="24"/>
+      <x:c r="T14" s="24"/>
+      <x:c r="U14" s="24"/>
+      <x:c r="V14" s="24"/>
+    </x:row>
+    <x:row r="15" spans="1:22" ht="13.199999999999999">
+      <x:c r="A15" s="57"/>
+      <x:c r="B15" s="30"/>
+      <x:c r="C15" s="30"/>
+      <x:c r="D15" s="31"/>
+      <x:c r="E15" s="21"/>
+      <x:c r="F15" s="21"/>
+      <x:c r="G15" s="21"/>
+      <x:c r="H15" s="21"/>
+      <x:c r="I15" s="21"/>
+      <x:c r="J15" s="21"/>
+      <x:c r="K15" s="21"/>
+      <x:c r="L15" s="21"/>
+      <x:c r="M15" s="21"/>
+      <x:c r="N15" s="24"/>
+      <x:c r="O15" s="24"/>
+      <x:c r="P15" s="24"/>
+      <x:c r="Q15" s="24"/>
+      <x:c r="R15" s="24"/>
+      <x:c r="S15" s="24"/>
+      <x:c r="T15" s="24"/>
+      <x:c r="U15" s="24"/>
+      <x:c r="V15" s="24"/>
+    </x:row>
+    <x:row r="16" spans="1:22" ht="13.199999999999999">
+      <x:c r="A16" s="55" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B16" s="50" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C16" s="30"/>
+      <x:c r="D16" s="30"/>
+      <x:c r="E16" s="21"/>
+      <x:c r="F16" s="21"/>
+      <x:c r="G16" s="21"/>
+      <x:c r="H16" s="21"/>
+      <x:c r="I16" s="21"/>
+      <x:c r="J16" s="21"/>
+      <x:c r="K16" s="21"/>
+      <x:c r="L16" s="21"/>
+      <x:c r="M16" s="21"/>
+      <x:c r="N16" s="24"/>
+      <x:c r="O16" s="24"/>
+      <x:c r="P16" s="24"/>
+      <x:c r="Q16" s="24"/>
+      <x:c r="R16" s="24"/>
+      <x:c r="S16" s="24"/>
+      <x:c r="T16" s="24"/>
+      <x:c r="U16" s="24"/>
+      <x:c r="V16" s="24"/>
+    </x:row>
+    <x:row r="17" spans="1:22" ht="13.199999999999999">
+      <x:c r="A17" s="56"/>
+      <x:c r="B17" s="51"/>
+      <x:c r="C17" s="30"/>
+      <x:c r="D17" s="30"/>
+      <x:c r="E17" s="21"/>
+      <x:c r="F17" s="21"/>
+      <x:c r="G17" s="21"/>
+      <x:c r="H17" s="21"/>
+      <x:c r="I17" s="21"/>
+      <x:c r="J17" s="21"/>
+      <x:c r="K17" s="21"/>
+      <x:c r="L17" s="21"/>
+      <x:c r="M17" s="21"/>
+      <x:c r="N17" s="24"/>
+      <x:c r="O17" s="24"/>
+      <x:c r="P17" s="24"/>
+      <x:c r="Q17" s="24"/>
+      <x:c r="R17" s="24"/>
+      <x:c r="S17" s="24"/>
+      <x:c r="T17" s="24"/>
+      <x:c r="U17" s="24"/>
+      <x:c r="V17" s="24"/>
+    </x:row>
+    <x:row r="18" spans="1:22" ht="13.199999999999999">
+      <x:c r="A18" s="56"/>
+      <x:c r="B18" s="40" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C18" s="30"/>
+      <x:c r="D18" s="30"/>
+      <x:c r="E18" s="21"/>
+      <x:c r="F18" s="21"/>
+      <x:c r="G18" s="21"/>
+      <x:c r="H18" s="21"/>
+      <x:c r="I18" s="21"/>
+      <x:c r="J18" s="21"/>
+      <x:c r="K18" s="21"/>
+      <x:c r="L18" s="21"/>
+      <x:c r="M18" s="21"/>
+      <x:c r="N18" s="24"/>
+      <x:c r="O18" s="24"/>
+      <x:c r="P18" s="24"/>
+      <x:c r="Q18" s="24"/>
+      <x:c r="R18" s="24"/>
+      <x:c r="S18" s="24"/>
+      <x:c r="T18" s="24"/>
+      <x:c r="U18" s="24"/>
+      <x:c r="V18" s="24"/>
+    </x:row>
+    <x:row r="19" spans="1:22" ht="13.199999999999999">
+      <x:c r="A19" s="56"/>
+      <x:c r="B19" s="42"/>
+      <x:c r="C19" s="30"/>
+      <x:c r="D19" s="30"/>
+      <x:c r="E19" s="21"/>
+      <x:c r="F19" s="21"/>
+      <x:c r="G19" s="21"/>
+      <x:c r="H19" s="21"/>
+      <x:c r="I19" s="21"/>
+      <x:c r="J19" s="21"/>
+      <x:c r="K19" s="21"/>
+      <x:c r="L19" s="21"/>
+      <x:c r="M19" s="21"/>
+      <x:c r="N19" s="24"/>
+      <x:c r="O19" s="24"/>
+      <x:c r="P19" s="24"/>
+      <x:c r="Q19" s="24"/>
+      <x:c r="R19" s="24"/>
+      <x:c r="S19" s="24"/>
+      <x:c r="T19" s="24"/>
+      <x:c r="U19" s="24"/>
+      <x:c r="V19" s="24"/>
+    </x:row>
+    <x:row r="20" spans="1:22" ht="13.199999999999999">
+      <x:c r="A20" s="56"/>
+      <x:c r="B20" s="40" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E4" s="9" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F4" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G4" s="9" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H4" s="9" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I4" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J4" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K4" s="9" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L4" s="9" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="M4" s="9" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="N4" s="28"/>
-      <x:c r="O4" s="28"/>
-      <x:c r="P4" s="28"/>
-      <x:c r="Q4" s="28"/>
-      <x:c r="R4" s="28"/>
-      <x:c r="S4" s="28"/>
-      <x:c r="T4" s="28"/>
-      <x:c r="U4" s="28"/>
-      <x:c r="V4" s="28"/>
-    </x:row>
-    <x:row r="5" spans="1:22" ht="13.199999999999999">
-      <x:c r="A5" s="56" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B5" s="31" t="s">
+      <x:c r="C20" s="30"/>
+      <x:c r="D20" s="30"/>
+      <x:c r="E20" s="21"/>
+      <x:c r="F20" s="21"/>
+      <x:c r="G20" s="21"/>
+      <x:c r="H20" s="21"/>
+      <x:c r="I20" s="21"/>
+      <x:c r="J20" s="21"/>
+      <x:c r="K20" s="21"/>
+      <x:c r="L20" s="21"/>
+      <x:c r="M20" s="21"/>
+      <x:c r="N20" s="24"/>
+      <x:c r="O20" s="24"/>
+      <x:c r="P20" s="24"/>
+      <x:c r="Q20" s="24"/>
+      <x:c r="R20" s="24"/>
+      <x:c r="S20" s="24"/>
+      <x:c r="T20" s="24"/>
+      <x:c r="U20" s="24"/>
+      <x:c r="V20" s="24"/>
+    </x:row>
+    <x:row r="21" spans="1:22" ht="13.199999999999999">
+      <x:c r="A21" s="56"/>
+      <x:c r="B21" s="42"/>
+      <x:c r="C21" s="30"/>
+      <x:c r="D21" s="30"/>
+      <x:c r="E21" s="21"/>
+      <x:c r="F21" s="21"/>
+      <x:c r="G21" s="21"/>
+      <x:c r="H21" s="21"/>
+      <x:c r="I21" s="21"/>
+      <x:c r="J21" s="21"/>
+      <x:c r="K21" s="21"/>
+      <x:c r="L21" s="21"/>
+      <x:c r="M21" s="21"/>
+      <x:c r="N21" s="24"/>
+      <x:c r="O21" s="24"/>
+      <x:c r="P21" s="24"/>
+      <x:c r="Q21" s="24"/>
+      <x:c r="R21" s="24"/>
+      <x:c r="S21" s="24"/>
+      <x:c r="T21" s="24"/>
+      <x:c r="U21" s="24"/>
+      <x:c r="V21" s="24"/>
+    </x:row>
+    <x:row r="22" spans="1:22" ht="13.199999999999999">
+      <x:c r="A22" s="56"/>
+      <x:c r="B22" s="30"/>
+      <x:c r="C22" s="30"/>
+      <x:c r="D22" s="30"/>
+      <x:c r="E22" s="21"/>
+      <x:c r="F22" s="21"/>
+      <x:c r="G22" s="21"/>
+      <x:c r="H22" s="21"/>
+      <x:c r="I22" s="21"/>
+      <x:c r="J22" s="21"/>
+      <x:c r="K22" s="21"/>
+      <x:c r="L22" s="21"/>
+      <x:c r="M22" s="21"/>
+      <x:c r="N22" s="24"/>
+      <x:c r="O22" s="24"/>
+      <x:c r="P22" s="24"/>
+      <x:c r="Q22" s="24"/>
+      <x:c r="R22" s="24"/>
+      <x:c r="S22" s="24"/>
+      <x:c r="T22" s="24"/>
+      <x:c r="U22" s="24"/>
+      <x:c r="V22" s="24"/>
+    </x:row>
+    <x:row r="23" spans="1:22" ht="13.199999999999999">
+      <x:c r="A23" s="56"/>
+      <x:c r="B23" s="30"/>
+      <x:c r="C23" s="30"/>
+      <x:c r="D23" s="30"/>
+      <x:c r="E23" s="21"/>
+      <x:c r="F23" s="21"/>
+      <x:c r="G23" s="21"/>
+      <x:c r="H23" s="21"/>
+      <x:c r="I23" s="21"/>
+      <x:c r="J23" s="21"/>
+      <x:c r="K23" s="21"/>
+      <x:c r="L23" s="21"/>
+      <x:c r="M23" s="21"/>
+      <x:c r="N23" s="24"/>
+      <x:c r="O23" s="24"/>
+      <x:c r="P23" s="24"/>
+      <x:c r="Q23" s="24"/>
+      <x:c r="R23" s="24"/>
+      <x:c r="S23" s="24"/>
+      <x:c r="T23" s="24"/>
+      <x:c r="U23" s="24"/>
+      <x:c r="V23" s="24"/>
+    </x:row>
+    <x:row r="24" spans="1:22" ht="13.199999999999999">
+      <x:c r="A24" s="56"/>
+      <x:c r="B24" s="23"/>
+      <x:c r="C24" s="33"/>
+      <x:c r="D24" s="30"/>
+      <x:c r="E24" s="21"/>
+      <x:c r="F24" s="21"/>
+      <x:c r="G24" s="21"/>
+      <x:c r="H24" s="21"/>
+      <x:c r="I24" s="21"/>
+      <x:c r="J24" s="21"/>
+      <x:c r="K24" s="21"/>
+      <x:c r="L24" s="21"/>
+      <x:c r="M24" s="21"/>
+      <x:c r="N24" s="24"/>
+      <x:c r="O24" s="24"/>
+      <x:c r="P24" s="24"/>
+      <x:c r="Q24" s="24"/>
+      <x:c r="R24" s="24"/>
+      <x:c r="S24" s="24"/>
+      <x:c r="T24" s="24"/>
+      <x:c r="U24" s="24"/>
+      <x:c r="V24" s="24"/>
+    </x:row>
+    <x:row r="25" spans="1:22" ht="13.199999999999999">
+      <x:c r="A25" s="56"/>
+      <x:c r="B25" s="23"/>
+      <x:c r="C25" s="30"/>
+      <x:c r="D25" s="30"/>
+      <x:c r="E25" s="21"/>
+      <x:c r="F25" s="21"/>
+      <x:c r="G25" s="21"/>
+      <x:c r="H25" s="21"/>
+      <x:c r="I25" s="21"/>
+      <x:c r="J25" s="21"/>
+      <x:c r="K25" s="21"/>
+      <x:c r="L25" s="21"/>
+      <x:c r="M25" s="21"/>
+      <x:c r="N25" s="24"/>
+      <x:c r="O25" s="24"/>
+      <x:c r="P25" s="24"/>
+      <x:c r="Q25" s="24"/>
+      <x:c r="R25" s="24"/>
+      <x:c r="S25" s="24"/>
+      <x:c r="T25" s="24"/>
+      <x:c r="U25" s="24"/>
+      <x:c r="V25" s="24"/>
+    </x:row>
+    <x:row r="26" spans="1:22" ht="13.199999999999999">
+      <x:c r="A26" s="56"/>
+      <x:c r="B26" s="30"/>
+      <x:c r="C26" s="30"/>
+      <x:c r="D26" s="30"/>
+      <x:c r="E26" s="21"/>
+      <x:c r="F26" s="21"/>
+      <x:c r="G26" s="21"/>
+      <x:c r="H26" s="21"/>
+      <x:c r="I26" s="21"/>
+      <x:c r="J26" s="21"/>
+      <x:c r="K26" s="21"/>
+      <x:c r="L26" s="21"/>
+      <x:c r="M26" s="21"/>
+      <x:c r="N26" s="24"/>
+      <x:c r="O26" s="24"/>
+      <x:c r="P26" s="24"/>
+      <x:c r="Q26" s="24"/>
+      <x:c r="R26" s="24"/>
+      <x:c r="S26" s="24"/>
+      <x:c r="T26" s="24"/>
+      <x:c r="U26" s="24"/>
+      <x:c r="V26" s="24"/>
+    </x:row>
+    <x:row r="27" spans="1:22" ht="13.199999999999999">
+      <x:c r="A27" s="57"/>
+      <x:c r="B27" s="34"/>
+      <x:c r="C27" s="30"/>
+      <x:c r="D27" s="30"/>
+      <x:c r="E27" s="21"/>
+      <x:c r="F27" s="21"/>
+      <x:c r="G27" s="21"/>
+      <x:c r="H27" s="21"/>
+      <x:c r="I27" s="21"/>
+      <x:c r="J27" s="21"/>
+      <x:c r="K27" s="21"/>
+      <x:c r="L27" s="21"/>
+      <x:c r="M27" s="21"/>
+      <x:c r="N27" s="24"/>
+      <x:c r="O27" s="24"/>
+      <x:c r="P27" s="24"/>
+      <x:c r="Q27" s="24"/>
+      <x:c r="R27" s="24"/>
+      <x:c r="S27" s="24"/>
+      <x:c r="T27" s="24"/>
+      <x:c r="U27" s="24"/>
+      <x:c r="V27" s="24"/>
+    </x:row>
+    <x:row r="28" spans="1:22" ht="13.199999999999999">
+      <x:c r="A28" s="61" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B28" s="52" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C28" s="23"/>
+      <x:c r="D28" s="10"/>
+      <x:c r="E28" s="21"/>
+      <x:c r="F28" s="21"/>
+      <x:c r="G28" s="21"/>
+      <x:c r="H28" s="21"/>
+      <x:c r="I28" s="21"/>
+      <x:c r="J28" s="21"/>
+      <x:c r="K28" s="21"/>
+      <x:c r="L28" s="21"/>
+      <x:c r="M28" s="21"/>
+      <x:c r="N28" s="24"/>
+      <x:c r="O28" s="24"/>
+      <x:c r="P28" s="24"/>
+      <x:c r="Q28" s="24"/>
+      <x:c r="R28" s="24"/>
+      <x:c r="S28" s="24"/>
+      <x:c r="T28" s="24"/>
+      <x:c r="U28" s="24"/>
+      <x:c r="V28" s="24"/>
+    </x:row>
+    <x:row r="29" spans="1:22" ht="13.199999999999999">
+      <x:c r="A29" s="61"/>
+      <x:c r="B29" s="53"/>
+      <x:c r="C29" s="23"/>
+      <x:c r="D29" s="10"/>
+      <x:c r="E29" s="21"/>
+      <x:c r="F29" s="21"/>
+      <x:c r="G29" s="21"/>
+      <x:c r="H29" s="21"/>
+      <x:c r="I29" s="21"/>
+      <x:c r="J29" s="21"/>
+      <x:c r="K29" s="21"/>
+      <x:c r="L29" s="21"/>
+      <x:c r="M29" s="21"/>
+      <x:c r="N29" s="24"/>
+      <x:c r="O29" s="24"/>
+      <x:c r="P29" s="24"/>
+      <x:c r="Q29" s="24"/>
+      <x:c r="R29" s="24"/>
+      <x:c r="S29" s="24"/>
+      <x:c r="T29" s="24"/>
+      <x:c r="U29" s="24"/>
+      <x:c r="V29" s="24"/>
+    </x:row>
+    <x:row r="30" spans="1:22" ht="13.199999999999999">
+      <x:c r="A30" s="61"/>
+      <x:c r="B30" s="53"/>
+      <x:c r="C30" s="23"/>
+      <x:c r="D30" s="10"/>
+      <x:c r="E30" s="21"/>
+      <x:c r="F30" s="21"/>
+      <x:c r="G30" s="21"/>
+      <x:c r="H30" s="21"/>
+      <x:c r="I30" s="21"/>
+      <x:c r="J30" s="21"/>
+      <x:c r="K30" s="21"/>
+      <x:c r="L30" s="21"/>
+      <x:c r="M30" s="21"/>
+      <x:c r="N30" s="24"/>
+      <x:c r="O30" s="24"/>
+      <x:c r="P30" s="24"/>
+      <x:c r="Q30" s="24"/>
+      <x:c r="R30" s="24"/>
+      <x:c r="S30" s="24"/>
+      <x:c r="T30" s="24"/>
+      <x:c r="U30" s="24"/>
+      <x:c r="V30" s="24"/>
+    </x:row>
+    <x:row r="31" spans="1:22" ht="13.199999999999999">
+      <x:c r="A31" s="61"/>
+      <x:c r="B31" s="53"/>
+      <x:c r="C31" s="23"/>
+      <x:c r="D31" s="10"/>
+      <x:c r="E31" s="21"/>
+      <x:c r="F31" s="21"/>
+      <x:c r="G31" s="21"/>
+      <x:c r="H31" s="21"/>
+      <x:c r="I31" s="21"/>
+      <x:c r="J31" s="21"/>
+      <x:c r="K31" s="21"/>
+      <x:c r="L31" s="21"/>
+      <x:c r="M31" s="21"/>
+      <x:c r="N31" s="24"/>
+      <x:c r="O31" s="24"/>
+      <x:c r="P31" s="24"/>
+      <x:c r="Q31" s="24"/>
+      <x:c r="R31" s="24"/>
+      <x:c r="S31" s="24"/>
+      <x:c r="T31" s="24"/>
+      <x:c r="U31" s="24"/>
+      <x:c r="V31" s="24"/>
+    </x:row>
+    <x:row r="32" spans="1:22" ht="13.199999999999999">
+      <x:c r="A32" s="61"/>
+      <x:c r="B32" s="53"/>
+      <x:c r="C32" s="23"/>
+      <x:c r="D32" s="10"/>
+      <x:c r="E32" s="21"/>
+      <x:c r="F32" s="21"/>
+      <x:c r="G32" s="21"/>
+      <x:c r="H32" s="21"/>
+      <x:c r="I32" s="21"/>
+      <x:c r="J32" s="21"/>
+      <x:c r="K32" s="21"/>
+      <x:c r="L32" s="21"/>
+      <x:c r="M32" s="21"/>
+      <x:c r="N32" s="24"/>
+      <x:c r="O32" s="24"/>
+      <x:c r="P32" s="24"/>
+      <x:c r="Q32" s="24"/>
+      <x:c r="R32" s="24"/>
+      <x:c r="S32" s="24"/>
+      <x:c r="T32" s="24"/>
+      <x:c r="U32" s="24"/>
+      <x:c r="V32" s="24"/>
+    </x:row>
+    <x:row r="33" spans="1:22" ht="13.199999999999999">
+      <x:c r="A33" s="61"/>
+      <x:c r="B33" s="53"/>
+      <x:c r="C33" s="23"/>
+      <x:c r="D33" s="10"/>
+      <x:c r="E33" s="21"/>
+      <x:c r="F33" s="21"/>
+      <x:c r="G33" s="21"/>
+      <x:c r="H33" s="21"/>
+      <x:c r="I33" s="21"/>
+      <x:c r="J33" s="21"/>
+      <x:c r="K33" s="21"/>
+      <x:c r="L33" s="21"/>
+      <x:c r="M33" s="21"/>
+      <x:c r="N33" s="24"/>
+      <x:c r="O33" s="24"/>
+      <x:c r="P33" s="24"/>
+      <x:c r="Q33" s="24"/>
+      <x:c r="R33" s="24"/>
+      <x:c r="S33" s="24"/>
+      <x:c r="T33" s="24"/>
+      <x:c r="U33" s="24"/>
+      <x:c r="V33" s="24"/>
+    </x:row>
+    <x:row r="34" spans="1:22" ht="13.199999999999999">
+      <x:c r="A34" s="61"/>
+      <x:c r="B34" s="53"/>
+      <x:c r="C34" s="23"/>
+      <x:c r="D34" s="10"/>
+      <x:c r="E34" s="21"/>
+      <x:c r="F34" s="21"/>
+      <x:c r="G34" s="21"/>
+      <x:c r="H34" s="21"/>
+      <x:c r="I34" s="21"/>
+      <x:c r="J34" s="21"/>
+      <x:c r="K34" s="21"/>
+      <x:c r="L34" s="21"/>
+      <x:c r="M34" s="21"/>
+      <x:c r="N34" s="24"/>
+      <x:c r="O34" s="24"/>
+      <x:c r="P34" s="24"/>
+      <x:c r="Q34" s="24"/>
+      <x:c r="R34" s="24"/>
+      <x:c r="S34" s="24"/>
+      <x:c r="T34" s="24"/>
+      <x:c r="U34" s="24"/>
+      <x:c r="V34" s="24"/>
+    </x:row>
+    <x:row r="35" spans="1:22" ht="13.199999999999999">
+      <x:c r="A35" s="61"/>
+      <x:c r="B35" s="53"/>
+      <x:c r="C35" s="23"/>
+      <x:c r="D35" s="10"/>
+      <x:c r="E35" s="21"/>
+      <x:c r="F35" s="21"/>
+      <x:c r="G35" s="21"/>
+      <x:c r="H35" s="21"/>
+      <x:c r="I35" s="21"/>
+      <x:c r="J35" s="21"/>
+      <x:c r="K35" s="21"/>
+      <x:c r="L35" s="21"/>
+      <x:c r="M35" s="21"/>
+      <x:c r="N35" s="24"/>
+      <x:c r="O35" s="24"/>
+      <x:c r="P35" s="24"/>
+      <x:c r="Q35" s="24"/>
+      <x:c r="R35" s="24"/>
+      <x:c r="S35" s="24"/>
+      <x:c r="T35" s="24"/>
+      <x:c r="U35" s="24"/>
+      <x:c r="V35" s="24"/>
+    </x:row>
+    <x:row r="36" spans="1:22" ht="13.199999999999999">
+      <x:c r="A36" s="61"/>
+      <x:c r="B36" s="53"/>
+      <x:c r="C36" s="23"/>
+      <x:c r="D36" s="10"/>
+      <x:c r="E36" s="21"/>
+      <x:c r="F36" s="21"/>
+      <x:c r="G36" s="21"/>
+      <x:c r="H36" s="21"/>
+      <x:c r="I36" s="21"/>
+      <x:c r="J36" s="21"/>
+      <x:c r="K36" s="21"/>
+      <x:c r="L36" s="21"/>
+      <x:c r="M36" s="21"/>
+      <x:c r="N36" s="24"/>
+      <x:c r="O36" s="24"/>
+      <x:c r="P36" s="24"/>
+      <x:c r="Q36" s="24"/>
+      <x:c r="R36" s="24"/>
+      <x:c r="S36" s="24"/>
+      <x:c r="T36" s="24"/>
+      <x:c r="U36" s="24"/>
+      <x:c r="V36" s="24"/>
+    </x:row>
+    <x:row r="37" spans="1:22" ht="13.199999999999999">
+      <x:c r="A37" s="61"/>
+      <x:c r="B37" s="53"/>
+      <x:c r="C37" s="23"/>
+      <x:c r="D37" s="10"/>
+      <x:c r="E37" s="21"/>
+      <x:c r="F37" s="21"/>
+      <x:c r="G37" s="21"/>
+      <x:c r="H37" s="21"/>
+      <x:c r="I37" s="21"/>
+      <x:c r="J37" s="21"/>
+      <x:c r="K37" s="21"/>
+      <x:c r="L37" s="21"/>
+      <x:c r="M37" s="21"/>
+      <x:c r="N37" s="24"/>
+      <x:c r="O37" s="24"/>
+      <x:c r="P37" s="24"/>
+      <x:c r="Q37" s="24"/>
+      <x:c r="R37" s="24"/>
+      <x:c r="S37" s="24"/>
+      <x:c r="T37" s="24"/>
+      <x:c r="U37" s="24"/>
+      <x:c r="V37" s="24"/>
+    </x:row>
+    <x:row r="38" spans="1:22" ht="13.199999999999999">
+      <x:c r="A38" s="61"/>
+      <x:c r="B38" s="53"/>
+      <x:c r="C38" s="23"/>
+      <x:c r="D38" s="10"/>
+      <x:c r="E38" s="21"/>
+      <x:c r="F38" s="21"/>
+      <x:c r="G38" s="21"/>
+      <x:c r="H38" s="21"/>
+      <x:c r="I38" s="21"/>
+      <x:c r="J38" s="21"/>
+      <x:c r="K38" s="21"/>
+      <x:c r="L38" s="21"/>
+      <x:c r="M38" s="21"/>
+      <x:c r="N38" s="24"/>
+      <x:c r="O38" s="24"/>
+      <x:c r="P38" s="24"/>
+      <x:c r="Q38" s="24"/>
+      <x:c r="R38" s="24"/>
+      <x:c r="S38" s="24"/>
+      <x:c r="T38" s="24"/>
+      <x:c r="U38" s="24"/>
+      <x:c r="V38" s="24"/>
+    </x:row>
+    <x:row r="39" spans="1:22" ht="13.199999999999999">
+      <x:c r="A39" s="61"/>
+      <x:c r="B39" s="53"/>
+      <x:c r="C39" s="23"/>
+      <x:c r="D39" s="10"/>
+      <x:c r="E39" s="21"/>
+      <x:c r="F39" s="21"/>
+      <x:c r="G39" s="21"/>
+      <x:c r="H39" s="21"/>
+      <x:c r="I39" s="21"/>
+      <x:c r="J39" s="21"/>
+      <x:c r="K39" s="21"/>
+      <x:c r="L39" s="21"/>
+      <x:c r="M39" s="21"/>
+      <x:c r="N39" s="24"/>
+      <x:c r="O39" s="24"/>
+      <x:c r="P39" s="24"/>
+      <x:c r="Q39" s="24"/>
+      <x:c r="R39" s="24"/>
+      <x:c r="S39" s="24"/>
+      <x:c r="T39" s="24"/>
+      <x:c r="U39" s="24"/>
+      <x:c r="V39" s="24"/>
+    </x:row>
+    <x:row r="40" spans="1:22" ht="13.199999999999999">
+      <x:c r="A40" s="61"/>
+      <x:c r="B40" s="53"/>
+      <x:c r="C40" s="23"/>
+      <x:c r="D40" s="10"/>
+      <x:c r="E40" s="21"/>
+      <x:c r="F40" s="21"/>
+      <x:c r="G40" s="21"/>
+      <x:c r="H40" s="21"/>
+      <x:c r="I40" s="21"/>
+      <x:c r="J40" s="21"/>
+      <x:c r="K40" s="21"/>
+      <x:c r="L40" s="21"/>
+      <x:c r="M40" s="21"/>
+      <x:c r="N40" s="24"/>
+      <x:c r="O40" s="24"/>
+      <x:c r="P40" s="24"/>
+      <x:c r="Q40" s="24"/>
+      <x:c r="R40" s="24"/>
+      <x:c r="S40" s="24"/>
+      <x:c r="T40" s="24"/>
+      <x:c r="U40" s="24"/>
+      <x:c r="V40" s="24"/>
+    </x:row>
+    <x:row r="41" spans="1:22" ht="15" customHeight="1">
+      <x:c r="A41" s="61"/>
+      <x:c r="B41" s="53"/>
+      <x:c r="C41" s="23"/>
+      <x:c r="D41" s="10"/>
+      <x:c r="E41" s="21"/>
+      <x:c r="F41" s="21"/>
+      <x:c r="G41" s="21"/>
+      <x:c r="H41" s="21"/>
+      <x:c r="I41" s="21"/>
+      <x:c r="J41" s="21"/>
+      <x:c r="K41" s="21"/>
+      <x:c r="L41" s="21"/>
+      <x:c r="M41" s="21"/>
+      <x:c r="N41" s="24"/>
+      <x:c r="O41" s="24"/>
+      <x:c r="P41" s="24"/>
+      <x:c r="Q41" s="24"/>
+      <x:c r="R41" s="24"/>
+      <x:c r="S41" s="24"/>
+      <x:c r="T41" s="24"/>
+      <x:c r="U41" s="24"/>
+      <x:c r="V41" s="24"/>
+    </x:row>
+    <x:row r="42" spans="1:22" ht="13.199999999999999">
+      <x:c r="A42" s="61"/>
+      <x:c r="B42" s="53"/>
+      <x:c r="C42" s="10"/>
+      <x:c r="D42" s="10"/>
+      <x:c r="E42" s="21"/>
+      <x:c r="F42" s="21"/>
+      <x:c r="G42" s="21"/>
+      <x:c r="H42" s="21"/>
+      <x:c r="I42" s="21"/>
+      <x:c r="J42" s="21"/>
+      <x:c r="K42" s="21"/>
+      <x:c r="L42" s="21"/>
+      <x:c r="M42" s="21"/>
+      <x:c r="N42" s="24"/>
+      <x:c r="O42" s="24"/>
+      <x:c r="P42" s="24"/>
+      <x:c r="Q42" s="24"/>
+      <x:c r="R42" s="24"/>
+      <x:c r="S42" s="24"/>
+      <x:c r="T42" s="24"/>
+      <x:c r="U42" s="24"/>
+      <x:c r="V42" s="24"/>
+    </x:row>
+    <x:row r="43" spans="1:22" ht="13.199999999999999">
+      <x:c r="A43" s="61"/>
+      <x:c r="B43" s="53"/>
+      <x:c r="C43" s="20"/>
+      <x:c r="D43" s="10"/>
+      <x:c r="E43" s="21"/>
+      <x:c r="F43" s="21"/>
+      <x:c r="G43" s="21"/>
+      <x:c r="H43" s="21"/>
+      <x:c r="I43" s="21"/>
+      <x:c r="J43" s="21"/>
+      <x:c r="K43" s="21"/>
+      <x:c r="L43" s="21"/>
+      <x:c r="M43" s="21"/>
+      <x:c r="N43" s="24"/>
+      <x:c r="O43" s="24"/>
+      <x:c r="P43" s="24"/>
+      <x:c r="Q43" s="24"/>
+      <x:c r="R43" s="24"/>
+      <x:c r="S43" s="24"/>
+      <x:c r="T43" s="24"/>
+      <x:c r="U43" s="24"/>
+      <x:c r="V43" s="24"/>
+    </x:row>
+    <x:row r="44" spans="1:22" ht="13.199999999999999">
+      <x:c r="A44" s="61"/>
+      <x:c r="B44" s="53"/>
+      <x:c r="C44" s="20"/>
+      <x:c r="D44" s="10"/>
+      <x:c r="E44" s="21"/>
+      <x:c r="F44" s="21"/>
+      <x:c r="G44" s="21"/>
+      <x:c r="H44" s="21"/>
+      <x:c r="I44" s="21"/>
+      <x:c r="J44" s="21"/>
+      <x:c r="K44" s="21"/>
+      <x:c r="L44" s="21"/>
+      <x:c r="M44" s="21"/>
+      <x:c r="N44" s="24"/>
+      <x:c r="O44" s="24"/>
+      <x:c r="P44" s="24"/>
+      <x:c r="Q44" s="24"/>
+      <x:c r="R44" s="24"/>
+      <x:c r="S44" s="24"/>
+      <x:c r="T44" s="24"/>
+      <x:c r="U44" s="24"/>
+      <x:c r="V44" s="24"/>
+    </x:row>
+    <x:row r="45" spans="1:22" ht="13.199999999999999">
+      <x:c r="A45" s="61"/>
+      <x:c r="B45" s="54"/>
+      <x:c r="C45" s="10"/>
+      <x:c r="D45" s="10"/>
+      <x:c r="E45" s="21"/>
+      <x:c r="F45" s="21"/>
+      <x:c r="G45" s="21"/>
+      <x:c r="H45" s="21"/>
+      <x:c r="I45" s="21"/>
+      <x:c r="J45" s="21"/>
+      <x:c r="K45" s="21"/>
+      <x:c r="L45" s="21"/>
+      <x:c r="M45" s="21"/>
+      <x:c r="N45" s="24"/>
+      <x:c r="O45" s="24"/>
+      <x:c r="P45" s="24"/>
+      <x:c r="Q45" s="24"/>
+      <x:c r="R45" s="24"/>
+      <x:c r="S45" s="24"/>
+      <x:c r="T45" s="24"/>
+      <x:c r="U45" s="24"/>
+      <x:c r="V45" s="24"/>
+    </x:row>
+    <x:row r="46" spans="1:22" ht="13.199999999999999">
+      <x:c r="A46" s="56" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B46" s="40" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C5" s="38" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D5" s="31" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E5" s="36"/>
-      <x:c r="F5" s="22"/>
-      <x:c r="G5" s="22"/>
-      <x:c r="H5" s="22"/>
-      <x:c r="I5" s="22"/>
-      <x:c r="J5" s="22"/>
-      <x:c r="K5" s="22"/>
-      <x:c r="L5" s="22"/>
-      <x:c r="M5" s="22"/>
-      <x:c r="N5" s="25"/>
-      <x:c r="O5" s="25"/>
-      <x:c r="P5" s="25"/>
-      <x:c r="Q5" s="25"/>
-      <x:c r="R5" s="25"/>
-      <x:c r="S5" s="25"/>
-      <x:c r="T5" s="25"/>
-      <x:c r="U5" s="25"/>
-      <x:c r="V5" s="25"/>
-    </x:row>
-    <x:row r="6" spans="1:22" ht="13.199999999999999">
-      <x:c r="A6" s="57"/>
-      <x:c r="B6" s="31" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="63" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="31" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E6" s="40"/>
-      <x:c r="F6" s="36"/>
-      <x:c r="G6" s="22"/>
-      <x:c r="H6" s="22"/>
-      <x:c r="I6" s="22"/>
-      <x:c r="J6" s="22"/>
-      <x:c r="K6" s="22"/>
-      <x:c r="L6" s="22"/>
-      <x:c r="M6" s="22"/>
-      <x:c r="N6" s="25"/>
-      <x:c r="O6" s="25"/>
-      <x:c r="P6" s="25"/>
-      <x:c r="Q6" s="25"/>
-      <x:c r="R6" s="25"/>
-      <x:c r="S6" s="25"/>
-      <x:c r="T6" s="25"/>
-      <x:c r="U6" s="25"/>
-      <x:c r="V6" s="25"/>
-    </x:row>
-    <x:row r="7" spans="1:22" ht="13.199999999999999">
-      <x:c r="A7" s="57"/>
-      <x:c r="B7" s="31"/>
-      <x:c r="C7" s="64"/>
-      <x:c r="D7" s="31" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E7" s="40"/>
-      <x:c r="F7" s="36"/>
-      <x:c r="G7" s="22"/>
-      <x:c r="H7" s="22"/>
-      <x:c r="I7" s="22"/>
-      <x:c r="J7" s="22"/>
-      <x:c r="K7" s="22"/>
-      <x:c r="L7" s="22"/>
-      <x:c r="M7" s="22"/>
-      <x:c r="N7" s="25"/>
-      <x:c r="O7" s="25"/>
-      <x:c r="P7" s="25"/>
-      <x:c r="Q7" s="25"/>
-      <x:c r="R7" s="25"/>
-      <x:c r="S7" s="25"/>
-      <x:c r="T7" s="25"/>
-      <x:c r="U7" s="25"/>
-      <x:c r="V7" s="25"/>
-    </x:row>
-    <x:row r="8" spans="1:22" ht="13.199999999999999">
-      <x:c r="A8" s="57"/>
-      <x:c r="B8" s="31"/>
-      <x:c r="C8" s="24"/>
-      <x:c r="D8" s="31"/>
-      <x:c r="E8" s="40"/>
-      <x:c r="F8" s="22"/>
-      <x:c r="G8" s="22"/>
-      <x:c r="H8" s="22"/>
-      <x:c r="I8" s="22"/>
-      <x:c r="J8" s="22"/>
-      <x:c r="K8" s="22"/>
-      <x:c r="L8" s="22"/>
-      <x:c r="M8" s="22"/>
-      <x:c r="N8" s="25"/>
-      <x:c r="O8" s="25"/>
-      <x:c r="P8" s="25"/>
-      <x:c r="Q8" s="25"/>
-      <x:c r="R8" s="25"/>
-      <x:c r="S8" s="25"/>
-      <x:c r="T8" s="25"/>
-      <x:c r="U8" s="25"/>
-      <x:c r="V8" s="25"/>
-    </x:row>
-    <x:row r="9" spans="1:22" ht="13.199999999999999">
-      <x:c r="A9" s="57"/>
-      <x:c r="B9" s="31"/>
-      <x:c r="C9" s="24"/>
-      <x:c r="D9" s="39"/>
-      <x:c r="E9" s="40"/>
-      <x:c r="F9" s="22"/>
-      <x:c r="G9" s="22"/>
-      <x:c r="H9" s="22"/>
-      <x:c r="I9" s="22"/>
-      <x:c r="J9" s="22"/>
-      <x:c r="K9" s="22"/>
-      <x:c r="L9" s="22"/>
-      <x:c r="M9" s="22"/>
-      <x:c r="N9" s="25"/>
-      <x:c r="O9" s="25"/>
-      <x:c r="P9" s="25"/>
-      <x:c r="Q9" s="25"/>
-      <x:c r="R9" s="25"/>
-      <x:c r="S9" s="25"/>
-      <x:c r="T9" s="25"/>
-      <x:c r="U9" s="25"/>
-      <x:c r="V9" s="25"/>
-    </x:row>
-    <x:row r="10" spans="1:22" ht="13.199999999999999">
-      <x:c r="A10" s="57"/>
-      <x:c r="B10" s="31"/>
-      <x:c r="C10" s="32"/>
-      <x:c r="D10" s="31"/>
-      <x:c r="E10" s="22"/>
-      <x:c r="F10" s="22"/>
-      <x:c r="G10" s="22"/>
-      <x:c r="H10" s="22"/>
-      <x:c r="I10" s="22"/>
-      <x:c r="J10" s="22"/>
-      <x:c r="K10" s="22"/>
-      <x:c r="L10" s="22"/>
-      <x:c r="M10" s="22"/>
-      <x:c r="N10" s="25"/>
-      <x:c r="O10" s="25"/>
-      <x:c r="P10" s="25"/>
-      <x:c r="Q10" s="25"/>
-      <x:c r="R10" s="25"/>
-      <x:c r="S10" s="25"/>
-      <x:c r="T10" s="25"/>
-      <x:c r="U10" s="25"/>
-      <x:c r="V10" s="25"/>
-    </x:row>
-    <x:row r="11" spans="1:22" ht="13.199999999999999">
-      <x:c r="A11" s="57"/>
-      <x:c r="B11" s="31"/>
-      <x:c r="C11" s="33"/>
-      <x:c r="D11" s="31"/>
-      <x:c r="E11" s="22"/>
-      <x:c r="F11" s="22"/>
-      <x:c r="G11" s="22"/>
-      <x:c r="H11" s="22"/>
-      <x:c r="I11" s="22"/>
-      <x:c r="J11" s="22"/>
-      <x:c r="K11" s="22"/>
-      <x:c r="L11" s="22"/>
-      <x:c r="M11" s="22"/>
-      <x:c r="N11" s="25"/>
-      <x:c r="O11" s="25"/>
-      <x:c r="P11" s="25"/>
-      <x:c r="Q11" s="25"/>
-      <x:c r="R11" s="25"/>
-      <x:c r="S11" s="25"/>
-      <x:c r="T11" s="25"/>
-      <x:c r="U11" s="25"/>
-      <x:c r="V11" s="25"/>
-    </x:row>
-    <x:row r="12" spans="1:22" ht="13.199999999999999">
-      <x:c r="A12" s="57"/>
-      <x:c r="B12" s="31"/>
-      <x:c r="C12" s="34"/>
-      <x:c r="D12" s="31"/>
-      <x:c r="E12" s="22"/>
-      <x:c r="F12" s="22"/>
-      <x:c r="G12" s="22"/>
-      <x:c r="H12" s="22"/>
-      <x:c r="I12" s="22"/>
-      <x:c r="J12" s="22"/>
-      <x:c r="K12" s="22"/>
-      <x:c r="L12" s="22"/>
-      <x:c r="M12" s="22"/>
-      <x:c r="N12" s="25"/>
-      <x:c r="O12" s="25"/>
-      <x:c r="P12" s="25"/>
-      <x:c r="Q12" s="25"/>
-      <x:c r="R12" s="25"/>
-      <x:c r="S12" s="25"/>
-      <x:c r="T12" s="25"/>
-      <x:c r="U12" s="25"/>
-      <x:c r="V12" s="25"/>
-    </x:row>
-    <x:row r="13" spans="1:22" ht="13.199999999999999">
-      <x:c r="A13" s="57"/>
-      <x:c r="B13" s="31"/>
-      <x:c r="C13" s="31"/>
-      <x:c r="D13" s="31"/>
-      <x:c r="E13" s="22"/>
-      <x:c r="F13" s="22"/>
-      <x:c r="G13" s="22"/>
-      <x:c r="H13" s="22"/>
-      <x:c r="I13" s="22"/>
-      <x:c r="J13" s="22"/>
-      <x:c r="K13" s="22"/>
-      <x:c r="L13" s="22"/>
-      <x:c r="M13" s="22"/>
-      <x:c r="N13" s="25"/>
-      <x:c r="O13" s="25"/>
-      <x:c r="P13" s="25"/>
-      <x:c r="Q13" s="25"/>
-      <x:c r="R13" s="25"/>
-      <x:c r="S13" s="25"/>
-      <x:c r="T13" s="25"/>
-      <x:c r="U13" s="25"/>
-      <x:c r="V13" s="25"/>
-    </x:row>
-    <x:row r="14" spans="1:22" ht="13.199999999999999">
-      <x:c r="A14" s="57"/>
-      <x:c r="B14" s="31"/>
-      <x:c r="C14" s="31"/>
-      <x:c r="D14" s="31"/>
-      <x:c r="E14" s="22"/>
-      <x:c r="F14" s="22"/>
-      <x:c r="G14" s="22"/>
-      <x:c r="H14" s="22"/>
-      <x:c r="I14" s="22"/>
-      <x:c r="J14" s="22"/>
-      <x:c r="K14" s="22"/>
-      <x:c r="L14" s="22"/>
-      <x:c r="M14" s="22"/>
-      <x:c r="N14" s="25"/>
-      <x:c r="O14" s="25"/>
-      <x:c r="P14" s="25"/>
-      <x:c r="Q14" s="25"/>
-      <x:c r="R14" s="25"/>
-      <x:c r="S14" s="25"/>
-      <x:c r="T14" s="25"/>
-      <x:c r="U14" s="25"/>
-      <x:c r="V14" s="25"/>
-    </x:row>
-    <x:row r="15" spans="1:22" ht="13.199999999999999">
-      <x:c r="A15" s="58"/>
-      <x:c r="B15" s="31"/>
-      <x:c r="C15" s="31"/>
-      <x:c r="D15" s="32"/>
-      <x:c r="E15" s="22"/>
-      <x:c r="F15" s="22"/>
-      <x:c r="G15" s="22"/>
-      <x:c r="H15" s="22"/>
-      <x:c r="I15" s="22"/>
-      <x:c r="J15" s="22"/>
-      <x:c r="K15" s="22"/>
-      <x:c r="L15" s="22"/>
-      <x:c r="M15" s="22"/>
-      <x:c r="N15" s="25"/>
-      <x:c r="O15" s="25"/>
-      <x:c r="P15" s="25"/>
-      <x:c r="Q15" s="25"/>
-      <x:c r="R15" s="25"/>
-      <x:c r="S15" s="25"/>
-      <x:c r="T15" s="25"/>
-      <x:c r="U15" s="25"/>
-      <x:c r="V15" s="25"/>
-    </x:row>
-    <x:row r="16" spans="1:22" ht="13.199999999999999">
-      <x:c r="A16" s="56" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B16" s="51" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C16" s="31"/>
-      <x:c r="D16" s="31"/>
-      <x:c r="E16" s="22"/>
-      <x:c r="F16" s="22"/>
-      <x:c r="G16" s="22"/>
-      <x:c r="H16" s="22"/>
-      <x:c r="I16" s="22"/>
-      <x:c r="J16" s="22"/>
-      <x:c r="K16" s="22"/>
-      <x:c r="L16" s="22"/>
-      <x:c r="M16" s="22"/>
-      <x:c r="N16" s="25"/>
-      <x:c r="O16" s="25"/>
-      <x:c r="P16" s="25"/>
-      <x:c r="Q16" s="25"/>
-      <x:c r="R16" s="25"/>
-      <x:c r="S16" s="25"/>
-      <x:c r="T16" s="25"/>
-      <x:c r="U16" s="25"/>
-      <x:c r="V16" s="25"/>
-    </x:row>
-    <x:row r="17" spans="1:22" ht="13.199999999999999">
-      <x:c r="A17" s="57"/>
-      <x:c r="B17" s="52"/>
-      <x:c r="C17" s="31"/>
-      <x:c r="D17" s="31"/>
-      <x:c r="E17" s="22"/>
-      <x:c r="F17" s="22"/>
-      <x:c r="G17" s="22"/>
-      <x:c r="H17" s="22"/>
-      <x:c r="I17" s="22"/>
-      <x:c r="J17" s="22"/>
-      <x:c r="K17" s="22"/>
-      <x:c r="L17" s="22"/>
-      <x:c r="M17" s="22"/>
-      <x:c r="N17" s="25"/>
-      <x:c r="O17" s="25"/>
-      <x:c r="P17" s="25"/>
-      <x:c r="Q17" s="25"/>
-      <x:c r="R17" s="25"/>
-      <x:c r="S17" s="25"/>
-      <x:c r="T17" s="25"/>
-      <x:c r="U17" s="25"/>
-      <x:c r="V17" s="25"/>
-    </x:row>
-    <x:row r="18" spans="1:22" ht="13.199999999999999">
-      <x:c r="A18" s="57"/>
-      <x:c r="B18" s="41" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C18" s="31"/>
-      <x:c r="D18" s="31"/>
-      <x:c r="E18" s="22"/>
-      <x:c r="F18" s="22"/>
-      <x:c r="G18" s="22"/>
-      <x:c r="H18" s="22"/>
-      <x:c r="I18" s="22"/>
-      <x:c r="J18" s="22"/>
-      <x:c r="K18" s="22"/>
-      <x:c r="L18" s="22"/>
-      <x:c r="M18" s="22"/>
-      <x:c r="N18" s="25"/>
-      <x:c r="O18" s="25"/>
-      <x:c r="P18" s="25"/>
-      <x:c r="Q18" s="25"/>
-      <x:c r="R18" s="25"/>
-      <x:c r="S18" s="25"/>
-      <x:c r="T18" s="25"/>
-      <x:c r="U18" s="25"/>
-      <x:c r="V18" s="25"/>
-    </x:row>
-    <x:row r="19" spans="1:22" ht="13.199999999999999">
-      <x:c r="A19" s="57"/>
-      <x:c r="B19" s="43"/>
-      <x:c r="C19" s="31"/>
-      <x:c r="D19" s="31"/>
-      <x:c r="E19" s="22"/>
-      <x:c r="F19" s="22"/>
-      <x:c r="G19" s="22"/>
-      <x:c r="H19" s="22"/>
-      <x:c r="I19" s="22"/>
-      <x:c r="J19" s="22"/>
-      <x:c r="K19" s="22"/>
-      <x:c r="L19" s="22"/>
-      <x:c r="M19" s="22"/>
-      <x:c r="N19" s="25"/>
-      <x:c r="O19" s="25"/>
-      <x:c r="P19" s="25"/>
-      <x:c r="Q19" s="25"/>
-      <x:c r="R19" s="25"/>
-      <x:c r="S19" s="25"/>
-      <x:c r="T19" s="25"/>
-      <x:c r="U19" s="25"/>
-      <x:c r="V19" s="25"/>
-    </x:row>
-    <x:row r="20" spans="1:22" ht="13.199999999999999">
-      <x:c r="A20" s="57"/>
-      <x:c r="B20" s="41" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C20" s="31"/>
-      <x:c r="D20" s="31"/>
-      <x:c r="E20" s="22"/>
-      <x:c r="F20" s="22"/>
-      <x:c r="G20" s="22"/>
-      <x:c r="H20" s="22"/>
-      <x:c r="I20" s="22"/>
-      <x:c r="J20" s="22"/>
-      <x:c r="K20" s="22"/>
-      <x:c r="L20" s="22"/>
-      <x:c r="M20" s="22"/>
-      <x:c r="N20" s="25"/>
-      <x:c r="O20" s="25"/>
-      <x:c r="P20" s="25"/>
-      <x:c r="Q20" s="25"/>
-      <x:c r="R20" s="25"/>
-      <x:c r="S20" s="25"/>
-      <x:c r="T20" s="25"/>
-      <x:c r="U20" s="25"/>
-      <x:c r="V20" s="25"/>
-    </x:row>
-    <x:row r="21" spans="1:22" ht="13.199999999999999">
-      <x:c r="A21" s="57"/>
-      <x:c r="B21" s="43"/>
-      <x:c r="C21" s="31"/>
-      <x:c r="D21" s="31"/>
-      <x:c r="E21" s="22"/>
-      <x:c r="F21" s="22"/>
-      <x:c r="G21" s="22"/>
-      <x:c r="H21" s="22"/>
-      <x:c r="I21" s="22"/>
-      <x:c r="J21" s="22"/>
-      <x:c r="K21" s="22"/>
-      <x:c r="L21" s="22"/>
-      <x:c r="M21" s="22"/>
-      <x:c r="N21" s="25"/>
-      <x:c r="O21" s="25"/>
-      <x:c r="P21" s="25"/>
-      <x:c r="Q21" s="25"/>
-      <x:c r="R21" s="25"/>
-      <x:c r="S21" s="25"/>
-      <x:c r="T21" s="25"/>
-      <x:c r="U21" s="25"/>
-      <x:c r="V21" s="25"/>
-    </x:row>
-    <x:row r="22" spans="1:22" ht="13.199999999999999">
-      <x:c r="A22" s="57"/>
-      <x:c r="B22" s="31"/>
-      <x:c r="C22" s="31"/>
-      <x:c r="D22" s="31"/>
-      <x:c r="E22" s="22"/>
-      <x:c r="F22" s="22"/>
-      <x:c r="G22" s="22"/>
-      <x:c r="H22" s="22"/>
-      <x:c r="I22" s="22"/>
-      <x:c r="J22" s="22"/>
-      <x:c r="K22" s="22"/>
-      <x:c r="L22" s="22"/>
-      <x:c r="M22" s="22"/>
-      <x:c r="N22" s="25"/>
-      <x:c r="O22" s="25"/>
-      <x:c r="P22" s="25"/>
-      <x:c r="Q22" s="25"/>
-      <x:c r="R22" s="25"/>
-      <x:c r="S22" s="25"/>
-      <x:c r="T22" s="25"/>
-      <x:c r="U22" s="25"/>
-      <x:c r="V22" s="25"/>
-    </x:row>
-    <x:row r="23" spans="1:22" ht="13.199999999999999">
-      <x:c r="A23" s="57"/>
-      <x:c r="B23" s="31"/>
-      <x:c r="C23" s="31"/>
-      <x:c r="D23" s="31"/>
-      <x:c r="E23" s="22"/>
-      <x:c r="F23" s="22"/>
-      <x:c r="G23" s="22"/>
-      <x:c r="H23" s="22"/>
-      <x:c r="I23" s="22"/>
-      <x:c r="J23" s="22"/>
-      <x:c r="K23" s="22"/>
-      <x:c r="L23" s="22"/>
-      <x:c r="M23" s="22"/>
-      <x:c r="N23" s="25"/>
-      <x:c r="O23" s="25"/>
-      <x:c r="P23" s="25"/>
-      <x:c r="Q23" s="25"/>
-      <x:c r="R23" s="25"/>
-      <x:c r="S23" s="25"/>
-      <x:c r="T23" s="25"/>
-      <x:c r="U23" s="25"/>
-      <x:c r="V23" s="25"/>
-    </x:row>
-    <x:row r="24" spans="1:22" ht="13.199999999999999">
-      <x:c r="A24" s="57"/>
-      <x:c r="B24" s="24"/>
-      <x:c r="C24" s="34"/>
-      <x:c r="D24" s="31"/>
-      <x:c r="E24" s="22"/>
-      <x:c r="F24" s="22"/>
-      <x:c r="G24" s="22"/>
-      <x:c r="H24" s="22"/>
-      <x:c r="I24" s="22"/>
-      <x:c r="J24" s="22"/>
-      <x:c r="K24" s="22"/>
-      <x:c r="L24" s="22"/>
-      <x:c r="M24" s="22"/>
-      <x:c r="N24" s="25"/>
-      <x:c r="O24" s="25"/>
-      <x:c r="P24" s="25"/>
-      <x:c r="Q24" s="25"/>
-      <x:c r="R24" s="25"/>
-      <x:c r="S24" s="25"/>
-      <x:c r="T24" s="25"/>
-      <x:c r="U24" s="25"/>
-      <x:c r="V24" s="25"/>
-    </x:row>
-    <x:row r="25" spans="1:22" ht="13.199999999999999">
-      <x:c r="A25" s="57"/>
-      <x:c r="B25" s="24"/>
-      <x:c r="C25" s="31"/>
-      <x:c r="D25" s="31"/>
-      <x:c r="E25" s="22"/>
-      <x:c r="F25" s="22"/>
-      <x:c r="G25" s="22"/>
-      <x:c r="H25" s="22"/>
-      <x:c r="I25" s="22"/>
-      <x:c r="J25" s="22"/>
-      <x:c r="K25" s="22"/>
-      <x:c r="L25" s="22"/>
-      <x:c r="M25" s="22"/>
-      <x:c r="N25" s="25"/>
-      <x:c r="O25" s="25"/>
-      <x:c r="P25" s="25"/>
-      <x:c r="Q25" s="25"/>
-      <x:c r="R25" s="25"/>
-      <x:c r="S25" s="25"/>
-      <x:c r="T25" s="25"/>
-      <x:c r="U25" s="25"/>
-      <x:c r="V25" s="25"/>
-    </x:row>
-    <x:row r="26" spans="1:22" ht="13.199999999999999">
-      <x:c r="A26" s="57"/>
-      <x:c r="B26" s="31"/>
-      <x:c r="C26" s="31"/>
-      <x:c r="D26" s="31"/>
-      <x:c r="E26" s="22"/>
-      <x:c r="F26" s="22"/>
-      <x:c r="G26" s="22"/>
-      <x:c r="H26" s="22"/>
-      <x:c r="I26" s="22"/>
-      <x:c r="J26" s="22"/>
-      <x:c r="K26" s="22"/>
-      <x:c r="L26" s="22"/>
-      <x:c r="M26" s="22"/>
-      <x:c r="N26" s="25"/>
-      <x:c r="O26" s="25"/>
-      <x:c r="P26" s="25"/>
-      <x:c r="Q26" s="25"/>
-      <x:c r="R26" s="25"/>
-      <x:c r="S26" s="25"/>
-      <x:c r="T26" s="25"/>
-      <x:c r="U26" s="25"/>
-      <x:c r="V26" s="25"/>
-    </x:row>
-    <x:row r="27" spans="1:22" ht="13.199999999999999">
-      <x:c r="A27" s="58"/>
-      <x:c r="B27" s="35"/>
-      <x:c r="C27" s="31"/>
-      <x:c r="D27" s="31"/>
-      <x:c r="E27" s="22"/>
-      <x:c r="F27" s="22"/>
-      <x:c r="G27" s="22"/>
-      <x:c r="H27" s="22"/>
-      <x:c r="I27" s="22"/>
-      <x:c r="J27" s="22"/>
-      <x:c r="K27" s="22"/>
-      <x:c r="L27" s="22"/>
-      <x:c r="M27" s="22"/>
-      <x:c r="N27" s="25"/>
-      <x:c r="O27" s="25"/>
-      <x:c r="P27" s="25"/>
-      <x:c r="Q27" s="25"/>
-      <x:c r="R27" s="25"/>
-      <x:c r="S27" s="25"/>
-      <x:c r="T27" s="25"/>
-      <x:c r="U27" s="25"/>
-      <x:c r="V27" s="25"/>
-    </x:row>
-    <x:row r="28" spans="1:22" ht="13.199999999999999">
-      <x:c r="A28" s="62" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B28" s="53" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C28" s="24"/>
-      <x:c r="D28" s="11"/>
-      <x:c r="E28" s="22"/>
-      <x:c r="F28" s="22"/>
-      <x:c r="G28" s="22"/>
-      <x:c r="H28" s="22"/>
-      <x:c r="I28" s="22"/>
-      <x:c r="J28" s="22"/>
-      <x:c r="K28" s="22"/>
-      <x:c r="L28" s="22"/>
-      <x:c r="M28" s="22"/>
-      <x:c r="N28" s="25"/>
-      <x:c r="O28" s="25"/>
-      <x:c r="P28" s="25"/>
-      <x:c r="Q28" s="25"/>
-      <x:c r="R28" s="25"/>
-      <x:c r="S28" s="25"/>
-      <x:c r="T28" s="25"/>
-      <x:c r="U28" s="25"/>
-      <x:c r="V28" s="25"/>
-    </x:row>
-    <x:row r="29" spans="1:22" ht="13.199999999999999">
-      <x:c r="A29" s="62"/>
-      <x:c r="B29" s="54"/>
-      <x:c r="C29" s="24"/>
-      <x:c r="D29" s="11"/>
-      <x:c r="E29" s="22"/>
-      <x:c r="F29" s="22"/>
-      <x:c r="G29" s="22"/>
-      <x:c r="H29" s="22"/>
-      <x:c r="I29" s="22"/>
-      <x:c r="J29" s="22"/>
-      <x:c r="K29" s="22"/>
-      <x:c r="L29" s="22"/>
-      <x:c r="M29" s="22"/>
-      <x:c r="N29" s="25"/>
-      <x:c r="O29" s="25"/>
-      <x:c r="P29" s="25"/>
-      <x:c r="Q29" s="25"/>
-      <x:c r="R29" s="25"/>
-      <x:c r="S29" s="25"/>
-      <x:c r="T29" s="25"/>
-      <x:c r="U29" s="25"/>
-      <x:c r="V29" s="25"/>
-    </x:row>
-    <x:row r="30" spans="1:22" ht="13.199999999999999">
-      <x:c r="A30" s="62"/>
-      <x:c r="B30" s="54"/>
-      <x:c r="C30" s="24"/>
-      <x:c r="D30" s="11"/>
-      <x:c r="E30" s="22"/>
-      <x:c r="F30" s="22"/>
-      <x:c r="G30" s="22"/>
-      <x:c r="H30" s="22"/>
-      <x:c r="I30" s="22"/>
-      <x:c r="J30" s="22"/>
-      <x:c r="K30" s="22"/>
-      <x:c r="L30" s="22"/>
-      <x:c r="M30" s="22"/>
-      <x:c r="N30" s="25"/>
-      <x:c r="O30" s="25"/>
-      <x:c r="P30" s="25"/>
-      <x:c r="Q30" s="25"/>
-      <x:c r="R30" s="25"/>
-      <x:c r="S30" s="25"/>
-      <x:c r="T30" s="25"/>
-      <x:c r="U30" s="25"/>
-      <x:c r="V30" s="25"/>
-    </x:row>
-    <x:row r="31" spans="1:22" ht="13.199999999999999">
-      <x:c r="A31" s="62"/>
-      <x:c r="B31" s="54"/>
-      <x:c r="C31" s="24"/>
-      <x:c r="D31" s="11"/>
-      <x:c r="E31" s="22"/>
-      <x:c r="F31" s="22"/>
-      <x:c r="G31" s="22"/>
-      <x:c r="H31" s="22"/>
-      <x:c r="I31" s="22"/>
-      <x:c r="J31" s="22"/>
-      <x:c r="K31" s="22"/>
-      <x:c r="L31" s="22"/>
-      <x:c r="M31" s="22"/>
-      <x:c r="N31" s="25"/>
-      <x:c r="O31" s="25"/>
-      <x:c r="P31" s="25"/>
-      <x:c r="Q31" s="25"/>
-      <x:c r="R31" s="25"/>
-      <x:c r="S31" s="25"/>
-      <x:c r="T31" s="25"/>
-      <x:c r="U31" s="25"/>
-      <x:c r="V31" s="25"/>
-    </x:row>
-    <x:row r="32" spans="1:22" ht="13.199999999999999">
-      <x:c r="A32" s="62"/>
-      <x:c r="B32" s="54"/>
-      <x:c r="C32" s="24"/>
-      <x:c r="D32" s="11"/>
-      <x:c r="E32" s="22"/>
-      <x:c r="F32" s="22"/>
-      <x:c r="G32" s="22"/>
-      <x:c r="H32" s="22"/>
-      <x:c r="I32" s="22"/>
-      <x:c r="J32" s="22"/>
-      <x:c r="K32" s="22"/>
-      <x:c r="L32" s="22"/>
-      <x:c r="M32" s="22"/>
-      <x:c r="N32" s="25"/>
-      <x:c r="O32" s="25"/>
-      <x:c r="P32" s="25"/>
-      <x:c r="Q32" s="25"/>
-      <x:c r="R32" s="25"/>
-      <x:c r="S32" s="25"/>
-      <x:c r="T32" s="25"/>
-      <x:c r="U32" s="25"/>
-      <x:c r="V32" s="25"/>
-    </x:row>
-    <x:row r="33" spans="1:22" ht="13.199999999999999">
-      <x:c r="A33" s="62"/>
-      <x:c r="B33" s="54"/>
-      <x:c r="C33" s="24"/>
-      <x:c r="D33" s="11"/>
-      <x:c r="E33" s="22"/>
-      <x:c r="F33" s="22"/>
-      <x:c r="G33" s="22"/>
-      <x:c r="H33" s="22"/>
-      <x:c r="I33" s="22"/>
-      <x:c r="J33" s="22"/>
-      <x:c r="K33" s="22"/>
-      <x:c r="L33" s="22"/>
-      <x:c r="M33" s="22"/>
-      <x:c r="N33" s="25"/>
-      <x:c r="O33" s="25"/>
-      <x:c r="P33" s="25"/>
-      <x:c r="Q33" s="25"/>
-      <x:c r="R33" s="25"/>
-      <x:c r="S33" s="25"/>
-      <x:c r="T33" s="25"/>
-      <x:c r="U33" s="25"/>
-      <x:c r="V33" s="25"/>
-    </x:row>
-    <x:row r="34" spans="1:22" ht="13.199999999999999">
-      <x:c r="A34" s="62"/>
-      <x:c r="B34" s="54"/>
-      <x:c r="C34" s="24"/>
-      <x:c r="D34" s="11"/>
-      <x:c r="E34" s="22"/>
-      <x:c r="F34" s="22"/>
-      <x:c r="G34" s="22"/>
-      <x:c r="H34" s="22"/>
-      <x:c r="I34" s="22"/>
-      <x:c r="J34" s="22"/>
-      <x:c r="K34" s="22"/>
-      <x:c r="L34" s="22"/>
-      <x:c r="M34" s="22"/>
-      <x:c r="N34" s="25"/>
-      <x:c r="O34" s="25"/>
-      <x:c r="P34" s="25"/>
-      <x:c r="Q34" s="25"/>
-      <x:c r="R34" s="25"/>
-      <x:c r="S34" s="25"/>
-      <x:c r="T34" s="25"/>
-      <x:c r="U34" s="25"/>
-      <x:c r="V34" s="25"/>
-    </x:row>
-    <x:row r="35" spans="1:22" ht="13.199999999999999">
-      <x:c r="A35" s="62"/>
-      <x:c r="B35" s="54"/>
-      <x:c r="C35" s="24"/>
-      <x:c r="D35" s="11"/>
-      <x:c r="E35" s="22"/>
-      <x:c r="F35" s="22"/>
-      <x:c r="G35" s="22"/>
-      <x:c r="H35" s="22"/>
-      <x:c r="I35" s="22"/>
-      <x:c r="J35" s="22"/>
-      <x:c r="K35" s="22"/>
-      <x:c r="L35" s="22"/>
-      <x:c r="M35" s="22"/>
-      <x:c r="N35" s="25"/>
-      <x:c r="O35" s="25"/>
-      <x:c r="P35" s="25"/>
-      <x:c r="Q35" s="25"/>
-      <x:c r="R35" s="25"/>
-      <x:c r="S35" s="25"/>
-      <x:c r="T35" s="25"/>
-      <x:c r="U35" s="25"/>
-      <x:c r="V35" s="25"/>
-    </x:row>
-    <x:row r="36" spans="1:22" ht="13.199999999999999">
-      <x:c r="A36" s="62"/>
-      <x:c r="B36" s="54"/>
-      <x:c r="C36" s="24"/>
-      <x:c r="D36" s="11"/>
-      <x:c r="E36" s="22"/>
-      <x:c r="F36" s="22"/>
-      <x:c r="G36" s="22"/>
-      <x:c r="H36" s="22"/>
-      <x:c r="I36" s="22"/>
-      <x:c r="J36" s="22"/>
-      <x:c r="K36" s="22"/>
-      <x:c r="L36" s="22"/>
-      <x:c r="M36" s="22"/>
-      <x:c r="N36" s="25"/>
-      <x:c r="O36" s="25"/>
-      <x:c r="P36" s="25"/>
-      <x:c r="Q36" s="25"/>
-      <x:c r="R36" s="25"/>
-      <x:c r="S36" s="25"/>
-      <x:c r="T36" s="25"/>
-      <x:c r="U36" s="25"/>
-      <x:c r="V36" s="25"/>
-    </x:row>
-    <x:row r="37" spans="1:22" ht="13.199999999999999">
-      <x:c r="A37" s="62"/>
-      <x:c r="B37" s="54"/>
-      <x:c r="C37" s="24"/>
-      <x:c r="D37" s="11"/>
-      <x:c r="E37" s="22"/>
-      <x:c r="F37" s="22"/>
-      <x:c r="G37" s="22"/>
-      <x:c r="H37" s="22"/>
-      <x:c r="I37" s="22"/>
-      <x:c r="J37" s="22"/>
-      <x:c r="K37" s="22"/>
-      <x:c r="L37" s="22"/>
-      <x:c r="M37" s="22"/>
-      <x:c r="N37" s="25"/>
-      <x:c r="O37" s="25"/>
-      <x:c r="P37" s="25"/>
-      <x:c r="Q37" s="25"/>
-      <x:c r="R37" s="25"/>
-      <x:c r="S37" s="25"/>
-      <x:c r="T37" s="25"/>
-      <x:c r="U37" s="25"/>
-      <x:c r="V37" s="25"/>
-    </x:row>
-    <x:row r="38" spans="1:22" ht="13.199999999999999">
-      <x:c r="A38" s="62"/>
-      <x:c r="B38" s="54"/>
-      <x:c r="C38" s="24"/>
-      <x:c r="D38" s="11"/>
-      <x:c r="E38" s="22"/>
-      <x:c r="F38" s="22"/>
-      <x:c r="G38" s="22"/>
-      <x:c r="H38" s="22"/>
-      <x:c r="I38" s="22"/>
-      <x:c r="J38" s="22"/>
-      <x:c r="K38" s="22"/>
-      <x:c r="L38" s="22"/>
-      <x:c r="M38" s="22"/>
-      <x:c r="N38" s="25"/>
-      <x:c r="O38" s="25"/>
-      <x:c r="P38" s="25"/>
-      <x:c r="Q38" s="25"/>
-      <x:c r="R38" s="25"/>
-      <x:c r="S38" s="25"/>
-      <x:c r="T38" s="25"/>
-      <x:c r="U38" s="25"/>
-      <x:c r="V38" s="25"/>
-    </x:row>
-    <x:row r="39" spans="1:22" ht="13.199999999999999">
-      <x:c r="A39" s="62"/>
-      <x:c r="B39" s="54"/>
-      <x:c r="C39" s="24"/>
-      <x:c r="D39" s="11"/>
-      <x:c r="E39" s="22"/>
-      <x:c r="F39" s="22"/>
-      <x:c r="G39" s="22"/>
-      <x:c r="H39" s="22"/>
-      <x:c r="I39" s="22"/>
-      <x:c r="J39" s="22"/>
-      <x:c r="K39" s="22"/>
-      <x:c r="L39" s="22"/>
-      <x:c r="M39" s="22"/>
-      <x:c r="N39" s="25"/>
-      <x:c r="O39" s="25"/>
-      <x:c r="P39" s="25"/>
-      <x:c r="Q39" s="25"/>
-      <x:c r="R39" s="25"/>
-      <x:c r="S39" s="25"/>
-      <x:c r="T39" s="25"/>
-      <x:c r="U39" s="25"/>
-      <x:c r="V39" s="25"/>
-    </x:row>
-    <x:row r="40" spans="1:22" ht="13.199999999999999">
-      <x:c r="A40" s="62"/>
-      <x:c r="B40" s="54"/>
-      <x:c r="C40" s="24"/>
-      <x:c r="D40" s="11"/>
-      <x:c r="E40" s="22"/>
-      <x:c r="F40" s="22"/>
-      <x:c r="G40" s="22"/>
-      <x:c r="H40" s="22"/>
-      <x:c r="I40" s="22"/>
-      <x:c r="J40" s="22"/>
-      <x:c r="K40" s="22"/>
-      <x:c r="L40" s="22"/>
-      <x:c r="M40" s="22"/>
-      <x:c r="N40" s="25"/>
-      <x:c r="O40" s="25"/>
-      <x:c r="P40" s="25"/>
-      <x:c r="Q40" s="25"/>
-      <x:c r="R40" s="25"/>
-      <x:c r="S40" s="25"/>
-      <x:c r="T40" s="25"/>
-      <x:c r="U40" s="25"/>
-      <x:c r="V40" s="25"/>
-    </x:row>
-    <x:row r="41" spans="1:22" ht="15" customHeight="1">
-      <x:c r="A41" s="62"/>
-      <x:c r="B41" s="54"/>
-      <x:c r="C41" s="24"/>
-      <x:c r="D41" s="11"/>
-      <x:c r="E41" s="22"/>
-      <x:c r="F41" s="22"/>
-      <x:c r="G41" s="22"/>
-      <x:c r="H41" s="22"/>
-      <x:c r="I41" s="22"/>
-      <x:c r="J41" s="22"/>
-      <x:c r="K41" s="22"/>
-      <x:c r="L41" s="22"/>
-      <x:c r="M41" s="22"/>
-      <x:c r="N41" s="25"/>
-      <x:c r="O41" s="25"/>
-      <x:c r="P41" s="25"/>
-      <x:c r="Q41" s="25"/>
-      <x:c r="R41" s="25"/>
-      <x:c r="S41" s="25"/>
-      <x:c r="T41" s="25"/>
-      <x:c r="U41" s="25"/>
-      <x:c r="V41" s="25"/>
-    </x:row>
-    <x:row r="42" spans="1:22" ht="13.199999999999999">
-      <x:c r="A42" s="62"/>
-      <x:c r="B42" s="54"/>
-      <x:c r="C42" s="11"/>
-      <x:c r="D42" s="11"/>
-      <x:c r="E42" s="22"/>
-      <x:c r="F42" s="22"/>
-      <x:c r="G42" s="22"/>
-      <x:c r="H42" s="22"/>
-      <x:c r="I42" s="22"/>
-      <x:c r="J42" s="22"/>
-      <x:c r="K42" s="22"/>
-      <x:c r="L42" s="22"/>
-      <x:c r="M42" s="22"/>
-      <x:c r="N42" s="25"/>
-      <x:c r="O42" s="25"/>
-      <x:c r="P42" s="25"/>
-      <x:c r="Q42" s="25"/>
-      <x:c r="R42" s="25"/>
-      <x:c r="S42" s="25"/>
-      <x:c r="T42" s="25"/>
-      <x:c r="U42" s="25"/>
-      <x:c r="V42" s="25"/>
-    </x:row>
-    <x:row r="43" spans="1:22" ht="13.199999999999999">
-      <x:c r="A43" s="62"/>
-      <x:c r="B43" s="54"/>
-      <x:c r="C43" s="21"/>
-      <x:c r="D43" s="11"/>
-      <x:c r="E43" s="22"/>
-      <x:c r="F43" s="22"/>
-      <x:c r="G43" s="22"/>
-      <x:c r="H43" s="22"/>
-      <x:c r="I43" s="22"/>
-      <x:c r="J43" s="22"/>
-      <x:c r="K43" s="22"/>
-      <x:c r="L43" s="22"/>
-      <x:c r="M43" s="22"/>
-      <x:c r="N43" s="25"/>
-      <x:c r="O43" s="25"/>
-      <x:c r="P43" s="25"/>
-      <x:c r="Q43" s="25"/>
-      <x:c r="R43" s="25"/>
-      <x:c r="S43" s="25"/>
-      <x:c r="T43" s="25"/>
-      <x:c r="U43" s="25"/>
-      <x:c r="V43" s="25"/>
-    </x:row>
-    <x:row r="44" spans="1:22" ht="13.199999999999999">
-      <x:c r="A44" s="62"/>
-      <x:c r="B44" s="54"/>
-      <x:c r="C44" s="21"/>
-      <x:c r="D44" s="11"/>
-      <x:c r="E44" s="22"/>
-      <x:c r="F44" s="22"/>
-      <x:c r="G44" s="22"/>
-      <x:c r="H44" s="22"/>
-      <x:c r="I44" s="22"/>
-      <x:c r="J44" s="22"/>
-      <x:c r="K44" s="22"/>
-      <x:c r="L44" s="22"/>
-      <x:c r="M44" s="22"/>
-      <x:c r="N44" s="25"/>
-      <x:c r="O44" s="25"/>
-      <x:c r="P44" s="25"/>
-      <x:c r="Q44" s="25"/>
-      <x:c r="R44" s="25"/>
-      <x:c r="S44" s="25"/>
-      <x:c r="T44" s="25"/>
-      <x:c r="U44" s="25"/>
-      <x:c r="V44" s="25"/>
-    </x:row>
-    <x:row r="45" spans="1:22" ht="13.199999999999999">
-      <x:c r="A45" s="62"/>
-      <x:c r="B45" s="55"/>
-      <x:c r="C45" s="11"/>
-      <x:c r="D45" s="11"/>
-      <x:c r="E45" s="22"/>
-      <x:c r="F45" s="22"/>
-      <x:c r="G45" s="22"/>
-      <x:c r="H45" s="22"/>
-      <x:c r="I45" s="22"/>
-      <x:c r="J45" s="22"/>
-      <x:c r="K45" s="22"/>
-      <x:c r="L45" s="22"/>
-      <x:c r="M45" s="22"/>
-      <x:c r="N45" s="25"/>
-      <x:c r="O45" s="25"/>
-      <x:c r="P45" s="25"/>
-      <x:c r="Q45" s="25"/>
-      <x:c r="R45" s="25"/>
-      <x:c r="S45" s="25"/>
-      <x:c r="T45" s="25"/>
-      <x:c r="U45" s="25"/>
-      <x:c r="V45" s="25"/>
-    </x:row>
-    <x:row r="46" spans="1:22" ht="13.199999999999999">
-      <x:c r="A46" s="57" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B46" s="41" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C46" s="11"/>
-      <x:c r="D46" s="11"/>
-      <x:c r="E46" s="22"/>
-      <x:c r="F46" s="22"/>
-      <x:c r="G46" s="22"/>
-      <x:c r="H46" s="22"/>
-      <x:c r="I46" s="22"/>
-      <x:c r="J46" s="22"/>
-      <x:c r="K46" s="22"/>
-      <x:c r="L46" s="22"/>
-      <x:c r="M46" s="22"/>
-      <x:c r="N46" s="25"/>
-      <x:c r="O46" s="25"/>
-      <x:c r="P46" s="25"/>
-      <x:c r="Q46" s="25"/>
-      <x:c r="R46" s="25"/>
-      <x:c r="S46" s="25"/>
-      <x:c r="T46" s="25"/>
-      <x:c r="U46" s="25"/>
-      <x:c r="V46" s="25"/>
+      <x:c r="C46" s="10"/>
+      <x:c r="D46" s="10"/>
+      <x:c r="E46" s="21"/>
+      <x:c r="F46" s="21"/>
+      <x:c r="G46" s="21"/>
+      <x:c r="H46" s="21"/>
+      <x:c r="I46" s="21"/>
+      <x:c r="J46" s="21"/>
+      <x:c r="K46" s="21"/>
+      <x:c r="L46" s="21"/>
+      <x:c r="M46" s="21"/>
+      <x:c r="N46" s="24"/>
+      <x:c r="O46" s="24"/>
+      <x:c r="P46" s="24"/>
+      <x:c r="Q46" s="24"/>
+      <x:c r="R46" s="24"/>
+      <x:c r="S46" s="24"/>
+      <x:c r="T46" s="24"/>
+      <x:c r="U46" s="24"/>
+      <x:c r="V46" s="24"/>
     </x:row>
     <x:row r="47" spans="1:22" ht="12.5" customHeight="1">
-      <x:c r="A47" s="57"/>
-      <x:c r="B47" s="42"/>
-      <x:c r="C47" s="11"/>
-      <x:c r="D47" s="11"/>
-      <x:c r="E47" s="22"/>
-      <x:c r="F47" s="22"/>
-      <x:c r="G47" s="22"/>
-      <x:c r="H47" s="22"/>
-      <x:c r="I47" s="22"/>
-      <x:c r="J47" s="22"/>
-      <x:c r="K47" s="22"/>
-      <x:c r="L47" s="22"/>
-      <x:c r="M47" s="22"/>
-      <x:c r="N47" s="25"/>
-      <x:c r="O47" s="25"/>
-      <x:c r="P47" s="25"/>
-      <x:c r="Q47" s="25"/>
-      <x:c r="R47" s="25"/>
-      <x:c r="S47" s="25"/>
-      <x:c r="T47" s="25"/>
-      <x:c r="U47" s="25"/>
-      <x:c r="V47" s="25"/>
+      <x:c r="A47" s="56"/>
+      <x:c r="B47" s="41"/>
+      <x:c r="C47" s="10"/>
+      <x:c r="D47" s="10"/>
+      <x:c r="E47" s="21"/>
+      <x:c r="F47" s="21"/>
+      <x:c r="G47" s="21"/>
+      <x:c r="H47" s="21"/>
+      <x:c r="I47" s="21"/>
+      <x:c r="J47" s="21"/>
+      <x:c r="K47" s="21"/>
+      <x:c r="L47" s="21"/>
+      <x:c r="M47" s="21"/>
+      <x:c r="N47" s="24"/>
+      <x:c r="O47" s="24"/>
+      <x:c r="P47" s="24"/>
+      <x:c r="Q47" s="24"/>
+      <x:c r="R47" s="24"/>
+      <x:c r="S47" s="24"/>
+      <x:c r="T47" s="24"/>
+      <x:c r="U47" s="24"/>
+      <x:c r="V47" s="24"/>
     </x:row>
     <x:row r="48" spans="1:22" ht="13.199999999999999">
-      <x:c r="A48" s="57"/>
-      <x:c r="B48" s="42"/>
-      <x:c r="C48" s="11"/>
-      <x:c r="D48" s="11"/>
-      <x:c r="E48" s="22"/>
-      <x:c r="F48" s="22"/>
-      <x:c r="G48" s="22"/>
-      <x:c r="H48" s="22"/>
-      <x:c r="I48" s="22"/>
-      <x:c r="J48" s="22"/>
-      <x:c r="K48" s="22"/>
-      <x:c r="L48" s="22"/>
-      <x:c r="M48" s="22"/>
-      <x:c r="N48" s="25"/>
-      <x:c r="O48" s="25"/>
-      <x:c r="P48" s="25"/>
-      <x:c r="Q48" s="25"/>
-      <x:c r="R48" s="25"/>
-      <x:c r="S48" s="25"/>
-      <x:c r="T48" s="25"/>
-      <x:c r="U48" s="25"/>
-      <x:c r="V48" s="25"/>
+      <x:c r="A48" s="56"/>
+      <x:c r="B48" s="41"/>
+      <x:c r="C48" s="10"/>
+      <x:c r="D48" s="10"/>
+      <x:c r="E48" s="21"/>
+      <x:c r="F48" s="21"/>
+      <x:c r="G48" s="21"/>
+      <x:c r="H48" s="21"/>
+      <x:c r="I48" s="21"/>
+      <x:c r="J48" s="21"/>
+      <x:c r="K48" s="21"/>
+      <x:c r="L48" s="21"/>
+      <x:c r="M48" s="21"/>
+      <x:c r="N48" s="24"/>
+      <x:c r="O48" s="24"/>
+      <x:c r="P48" s="24"/>
+      <x:c r="Q48" s="24"/>
+      <x:c r="R48" s="24"/>
+      <x:c r="S48" s="24"/>
+      <x:c r="T48" s="24"/>
+      <x:c r="U48" s="24"/>
+      <x:c r="V48" s="24"/>
     </x:row>
     <x:row r="49" spans="1:22" ht="13.199999999999999">
-      <x:c r="A49" s="57"/>
-      <x:c r="B49" s="43"/>
-      <x:c r="C49" s="11"/>
-      <x:c r="D49" s="11"/>
-      <x:c r="E49" s="22"/>
-      <x:c r="F49" s="22"/>
-      <x:c r="G49" s="22"/>
-      <x:c r="H49" s="22"/>
-      <x:c r="I49" s="22"/>
-      <x:c r="J49" s="22"/>
-      <x:c r="K49" s="22"/>
-      <x:c r="L49" s="22"/>
-      <x:c r="M49" s="22"/>
-      <x:c r="N49" s="25"/>
-      <x:c r="O49" s="25"/>
-      <x:c r="P49" s="25"/>
-      <x:c r="Q49" s="25"/>
-      <x:c r="R49" s="25"/>
-      <x:c r="S49" s="25"/>
-      <x:c r="T49" s="25"/>
-      <x:c r="U49" s="25"/>
-      <x:c r="V49" s="25"/>
+      <x:c r="A49" s="56"/>
+      <x:c r="B49" s="42"/>
+      <x:c r="C49" s="10"/>
+      <x:c r="D49" s="10"/>
+      <x:c r="E49" s="21"/>
+      <x:c r="F49" s="21"/>
+      <x:c r="G49" s="21"/>
+      <x:c r="H49" s="21"/>
+      <x:c r="I49" s="21"/>
+      <x:c r="J49" s="21"/>
+      <x:c r="K49" s="21"/>
+      <x:c r="L49" s="21"/>
+      <x:c r="M49" s="21"/>
+      <x:c r="N49" s="24"/>
+      <x:c r="O49" s="24"/>
+      <x:c r="P49" s="24"/>
+      <x:c r="Q49" s="24"/>
+      <x:c r="R49" s="24"/>
+      <x:c r="S49" s="24"/>
+      <x:c r="T49" s="24"/>
+      <x:c r="U49" s="24"/>
+      <x:c r="V49" s="24"/>
     </x:row>
     <x:row r="50" spans="1:22" ht="13.199999999999999">
-      <x:c r="A50" s="58"/>
-      <x:c r="B50" s="11"/>
-      <x:c r="C50" s="11"/>
-      <x:c r="D50" s="11"/>
-      <x:c r="E50" s="22"/>
-      <x:c r="F50" s="22"/>
-      <x:c r="G50" s="22"/>
-      <x:c r="H50" s="22"/>
-      <x:c r="I50" s="22"/>
-      <x:c r="J50" s="22"/>
-      <x:c r="K50" s="22"/>
-      <x:c r="L50" s="22"/>
-      <x:c r="M50" s="22"/>
-      <x:c r="N50" s="25"/>
-      <x:c r="O50" s="25"/>
-      <x:c r="P50" s="25"/>
-      <x:c r="Q50" s="25"/>
-      <x:c r="R50" s="25"/>
-      <x:c r="S50" s="25"/>
-      <x:c r="T50" s="25"/>
-      <x:c r="U50" s="25"/>
-      <x:c r="V50" s="25"/>
+      <x:c r="A50" s="57"/>
+      <x:c r="B50" s="10"/>
+      <x:c r="C50" s="10"/>
+      <x:c r="D50" s="10"/>
+      <x:c r="E50" s="21"/>
+      <x:c r="F50" s="21"/>
+      <x:c r="G50" s="21"/>
+      <x:c r="H50" s="21"/>
+      <x:c r="I50" s="21"/>
+      <x:c r="J50" s="21"/>
+      <x:c r="K50" s="21"/>
+      <x:c r="L50" s="21"/>
+      <x:c r="M50" s="21"/>
+      <x:c r="N50" s="24"/>
+      <x:c r="O50" s="24"/>
+      <x:c r="P50" s="24"/>
+      <x:c r="Q50" s="24"/>
+      <x:c r="R50" s="24"/>
+      <x:c r="S50" s="24"/>
+      <x:c r="T50" s="24"/>
+      <x:c r="U50" s="24"/>
+      <x:c r="V50" s="24"/>
     </x:row>
     <x:row r="51" spans="1:22" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B51" s="6"/>
       <x:c r="C51" s="6"/>
       <x:c r="D51" s="6"/>
-      <x:c r="E51" s="23"/>
-      <x:c r="F51" s="23"/>
-      <x:c r="G51" s="23"/>
-      <x:c r="H51" s="23"/>
-      <x:c r="I51" s="23"/>
-      <x:c r="J51" s="23"/>
-      <x:c r="K51" s="23"/>
-      <x:c r="L51" s="23"/>
-      <x:c r="M51" s="23"/>
-      <x:c r="N51" s="25"/>
-      <x:c r="O51" s="25"/>
-      <x:c r="P51" s="25"/>
-      <x:c r="Q51" s="25"/>
-      <x:c r="R51" s="25"/>
-      <x:c r="S51" s="25"/>
-      <x:c r="T51" s="26"/>
-      <x:c r="U51" s="26"/>
-      <x:c r="V51" s="25"/>
+      <x:c r="E51" s="22"/>
+      <x:c r="F51" s="22"/>
+      <x:c r="G51" s="22"/>
+      <x:c r="H51" s="22"/>
+      <x:c r="I51" s="22"/>
+      <x:c r="J51" s="22"/>
+      <x:c r="K51" s="22"/>
+      <x:c r="L51" s="22"/>
+      <x:c r="M51" s="22"/>
+      <x:c r="N51" s="24"/>
+      <x:c r="O51" s="24"/>
+      <x:c r="P51" s="24"/>
+      <x:c r="Q51" s="24"/>
+      <x:c r="R51" s="24"/>
+      <x:c r="S51" s="24"/>
+      <x:c r="T51" s="25"/>
+      <x:c r="U51" s="25"/>
+      <x:c r="V51" s="24"/>
     </x:row>
     <x:row r="52" spans="1:22" ht="13.5" customHeight="1">
-      <x:c r="A52" s="10" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B52" s="18"/>
+      <x:c r="A52" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B52" s="17"/>
       <x:c r="C52" s="2"/>
       <x:c r="D52" s="2"/>
-      <x:c r="E52" s="12"/>
-      <x:c r="F52" s="12"/>
-      <x:c r="G52" s="12"/>
-      <x:c r="H52" s="12"/>
-      <x:c r="I52" s="37"/>
-      <x:c r="J52" s="12"/>
-      <x:c r="K52" s="12"/>
-      <x:c r="L52" s="12"/>
-      <x:c r="M52" s="12"/>
-      <x:c r="N52" s="29"/>
-      <x:c r="O52" s="25"/>
-      <x:c r="P52" s="25"/>
-      <x:c r="Q52" s="25"/>
-      <x:c r="R52" s="25"/>
-      <x:c r="S52" s="25"/>
-      <x:c r="T52" s="25"/>
-      <x:c r="U52" s="25"/>
-      <x:c r="V52" s="28"/>
+      <x:c r="E52" s="11"/>
+      <x:c r="F52" s="11"/>
+      <x:c r="G52" s="11"/>
+      <x:c r="H52" s="11"/>
+      <x:c r="I52" s="36"/>
+      <x:c r="J52" s="11"/>
+      <x:c r="K52" s="11"/>
+      <x:c r="L52" s="11"/>
+      <x:c r="M52" s="11"/>
+      <x:c r="N52" s="28"/>
+      <x:c r="O52" s="24"/>
+      <x:c r="P52" s="24"/>
+      <x:c r="Q52" s="24"/>
+      <x:c r="R52" s="24"/>
+      <x:c r="S52" s="24"/>
+      <x:c r="T52" s="24"/>
+      <x:c r="U52" s="24"/>
+      <x:c r="V52" s="27"/>
     </x:row>
     <x:row r="53" spans="1:22" ht="13.199999999999999">
-      <x:c r="A53" s="14"/>
-      <x:c r="B53" s="18"/>
-      <x:c r="C53" s="11"/>
-      <x:c r="D53" s="11"/>
+      <x:c r="A53" s="13"/>
+      <x:c r="B53" s="17"/>
+      <x:c r="C53" s="10"/>
+      <x:c r="D53" s="10"/>
       <x:c r="E53" s="5"/>
       <x:c r="F53" s="5"/>
       <x:c r="G53" s="5"/>
@@ -3271,21 +3319,21 @@
       <x:c r="K53" s="5"/>
       <x:c r="L53" s="5"/>
       <x:c r="M53" s="5"/>
-      <x:c r="N53" s="25"/>
-      <x:c r="O53" s="25"/>
-      <x:c r="P53" s="25"/>
-      <x:c r="Q53" s="25"/>
-      <x:c r="R53" s="25"/>
-      <x:c r="S53" s="25"/>
-      <x:c r="T53" s="25"/>
-      <x:c r="U53" s="25"/>
-      <x:c r="V53" s="28"/>
+      <x:c r="N53" s="24"/>
+      <x:c r="O53" s="24"/>
+      <x:c r="P53" s="24"/>
+      <x:c r="Q53" s="24"/>
+      <x:c r="R53" s="24"/>
+      <x:c r="S53" s="24"/>
+      <x:c r="T53" s="24"/>
+      <x:c r="U53" s="24"/>
+      <x:c r="V53" s="27"/>
     </x:row>
     <x:row r="54" spans="1:22" ht="13.199999999999999">
-      <x:c r="A54" s="14"/>
-      <x:c r="B54" s="11"/>
-      <x:c r="C54" s="11"/>
-      <x:c r="D54" s="11"/>
+      <x:c r="A54" s="13"/>
+      <x:c r="B54" s="10"/>
+      <x:c r="C54" s="10"/>
+      <x:c r="D54" s="10"/>
       <x:c r="E54" s="5"/>
       <x:c r="F54" s="5"/>
       <x:c r="G54" s="5"/>
@@ -3295,21 +3343,21 @@
       <x:c r="K54" s="5"/>
       <x:c r="L54" s="5"/>
       <x:c r="M54" s="5"/>
-      <x:c r="N54" s="25"/>
-      <x:c r="O54" s="25"/>
-      <x:c r="P54" s="25"/>
-      <x:c r="Q54" s="25"/>
-      <x:c r="R54" s="25"/>
-      <x:c r="S54" s="25"/>
-      <x:c r="T54" s="25"/>
-      <x:c r="U54" s="25"/>
-      <x:c r="V54" s="28"/>
+      <x:c r="N54" s="24"/>
+      <x:c r="O54" s="24"/>
+      <x:c r="P54" s="24"/>
+      <x:c r="Q54" s="24"/>
+      <x:c r="R54" s="24"/>
+      <x:c r="S54" s="24"/>
+      <x:c r="T54" s="24"/>
+      <x:c r="U54" s="24"/>
+      <x:c r="V54" s="27"/>
     </x:row>
     <x:row r="55" spans="1:22" ht="13.199999999999999">
-      <x:c r="A55" s="14"/>
-      <x:c r="B55" s="11"/>
-      <x:c r="C55" s="11"/>
-      <x:c r="D55" s="11"/>
+      <x:c r="A55" s="13"/>
+      <x:c r="B55" s="10"/>
+      <x:c r="C55" s="10"/>
+      <x:c r="D55" s="10"/>
       <x:c r="E55" s="5"/>
       <x:c r="F55" s="5"/>
       <x:c r="G55" s="5"/>
@@ -3319,21 +3367,21 @@
       <x:c r="K55" s="5"/>
       <x:c r="L55" s="5"/>
       <x:c r="M55" s="5"/>
-      <x:c r="N55" s="25"/>
-      <x:c r="O55" s="25"/>
-      <x:c r="P55" s="25"/>
-      <x:c r="Q55" s="25"/>
-      <x:c r="R55" s="25"/>
-      <x:c r="S55" s="25"/>
-      <x:c r="T55" s="25"/>
-      <x:c r="U55" s="25"/>
-      <x:c r="V55" s="29"/>
+      <x:c r="N55" s="24"/>
+      <x:c r="O55" s="24"/>
+      <x:c r="P55" s="24"/>
+      <x:c r="Q55" s="24"/>
+      <x:c r="R55" s="24"/>
+      <x:c r="S55" s="24"/>
+      <x:c r="T55" s="24"/>
+      <x:c r="U55" s="24"/>
+      <x:c r="V55" s="28"/>
     </x:row>
     <x:row r="56" spans="1:22" ht="13.199999999999999">
-      <x:c r="A56" s="14"/>
-      <x:c r="B56" s="11"/>
-      <x:c r="C56" s="11"/>
-      <x:c r="D56" s="11"/>
+      <x:c r="A56" s="13"/>
+      <x:c r="B56" s="10"/>
+      <x:c r="C56" s="10"/>
+      <x:c r="D56" s="10"/>
       <x:c r="E56" s="5"/>
       <x:c r="F56" s="5"/>
       <x:c r="G56" s="5"/>
@@ -3343,44 +3391,44 @@
       <x:c r="K56" s="5"/>
       <x:c r="L56" s="5"/>
       <x:c r="M56" s="5"/>
-      <x:c r="N56" s="25"/>
-      <x:c r="O56" s="25"/>
-      <x:c r="P56" s="25"/>
-      <x:c r="Q56" s="25"/>
-      <x:c r="R56" s="25"/>
-      <x:c r="S56" s="25"/>
-      <x:c r="T56" s="25"/>
-      <x:c r="U56" s="25"/>
-      <x:c r="V56" s="30"/>
+      <x:c r="N56" s="24"/>
+      <x:c r="O56" s="24"/>
+      <x:c r="P56" s="24"/>
+      <x:c r="Q56" s="24"/>
+      <x:c r="R56" s="24"/>
+      <x:c r="S56" s="24"/>
+      <x:c r="T56" s="24"/>
+      <x:c r="U56" s="24"/>
+      <x:c r="V56" s="29"/>
     </x:row>
     <x:row r="57" spans="1:22" ht="14.199999999999999">
-      <x:c r="A57" s="44"/>
-      <x:c r="B57" s="45"/>
-      <x:c r="C57" s="45"/>
-      <x:c r="D57" s="13"/>
-      <x:c r="E57" s="13"/>
-      <x:c r="F57" s="13"/>
-      <x:c r="G57" s="13"/>
-      <x:c r="H57" s="13"/>
-      <x:c r="I57" s="13"/>
-      <x:c r="J57" s="13"/>
-      <x:c r="K57" s="13"/>
-      <x:c r="L57" s="13"/>
-      <x:c r="M57" s="13"/>
-      <x:c r="N57" s="27"/>
-      <x:c r="O57" s="27"/>
-      <x:c r="P57" s="27"/>
-      <x:c r="Q57" s="27"/>
-      <x:c r="R57" s="27"/>
-      <x:c r="S57" s="27"/>
-      <x:c r="T57" s="27"/>
-      <x:c r="U57" s="27"/>
-      <x:c r="V57" s="27"/>
+      <x:c r="A57" s="43"/>
+      <x:c r="B57" s="44"/>
+      <x:c r="C57" s="44"/>
+      <x:c r="D57" s="12"/>
+      <x:c r="E57" s="12"/>
+      <x:c r="F57" s="12"/>
+      <x:c r="G57" s="12"/>
+      <x:c r="H57" s="12"/>
+      <x:c r="I57" s="12"/>
+      <x:c r="J57" s="12"/>
+      <x:c r="K57" s="12"/>
+      <x:c r="L57" s="12"/>
+      <x:c r="M57" s="12"/>
+      <x:c r="N57" s="26"/>
+      <x:c r="O57" s="26"/>
+      <x:c r="P57" s="26"/>
+      <x:c r="Q57" s="26"/>
+      <x:c r="R57" s="26"/>
+      <x:c r="S57" s="26"/>
+      <x:c r="T57" s="26"/>
+      <x:c r="U57" s="26"/>
+      <x:c r="V57" s="26"/>
     </x:row>
     <x:row r="58" spans="1:22" ht="14.199999999999999">
-      <x:c r="A58" s="46"/>
-      <x:c r="B58" s="47"/>
-      <x:c r="C58" s="47"/>
+      <x:c r="A58" s="45"/>
+      <x:c r="B58" s="46"/>
+      <x:c r="C58" s="46"/>
       <x:c r="D58" s="8"/>
       <x:c r="E58" s="8"/>
       <x:c r="F58" s="8"/>
@@ -3402,7 +3450,7 @@
       <x:c r="V58" s="8"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="17">
+  <x:mergeCells count="19">
     <x:mergeCell ref="B46:B49"/>
     <x:mergeCell ref="A57:C57"/>
     <x:mergeCell ref="A58:C58"/>
@@ -3420,6 +3468,8 @@
     <x:mergeCell ref="A28:A45"/>
     <x:mergeCell ref="A46:A50"/>
     <x:mergeCell ref="C6:C7"/>
+    <x:mergeCell ref="C8:C10"/>
+    <x:mergeCell ref="B6:B10"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/2021_Summer/jp.hong/Project_Planner.xlsx
+++ b/2021_Summer/jp.hong/Project_Planner.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8592"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="WBS" sheetId="1" r:id="rId4"/>
@@ -19,126 +19,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+  <x:si>
+    <x:t>* 프로젝트 진행 : 홍준표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상용화된 타 앱 기능 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리 앱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세 Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 기획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 구상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 검토(근거자료 및 샘플코드)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유지보수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구현 가능성 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스토리 보드 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mile Stone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 흐름도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 모듈 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 세부 구상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획 및 일정수립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모듈화 진행</x:t>
+  </x:si>
   <x:si>
     <x:t>요구사항 수정 및 관련 필요 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구현 가능성 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 흐름도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 기획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mile Stone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 review</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스토리 보드 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 모듈 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 세부 구상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 프로젝트 진행 : 홍준표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상용화된 타 앱 기능 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 수집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디어 구상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리 앱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세 Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 검토(근거자료 및 샘플코드)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구현</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -146,126 +158,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fonts count="12">
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="10"/>
@@ -946,6 +868,19 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1226,19 +1161,6 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1965,7 +1887,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22:C22"/>
+      <x:selection pane="bottomLeft" activeCell="N34" activeCellId="0" sqref="N34:N34"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1"/>
@@ -1979,7 +1901,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:22" ht="14.199999999999999">
       <x:c r="A1" s="18" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="8"/>
       <x:c r="C1" s="8"/>
@@ -2028,23 +1950,23 @@
       <x:c r="V2" s="26"/>
     </x:row>
     <x:row r="3" spans="1:22" ht="13.199999999999999">
-      <x:c r="A3" s="47" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B3" s="48" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C3" s="49"/>
+      <x:c r="A3" s="48" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="4"/>
-      <x:c r="E3" s="58"/>
-      <x:c r="F3" s="59"/>
-      <x:c r="G3" s="60"/>
-      <x:c r="H3" s="60"/>
-      <x:c r="I3" s="60"/>
-      <x:c r="J3" s="60"/>
-      <x:c r="K3" s="59"/>
-      <x:c r="L3" s="58"/>
-      <x:c r="M3" s="59"/>
+      <x:c r="E3" s="59"/>
+      <x:c r="F3" s="60"/>
+      <x:c r="G3" s="61"/>
+      <x:c r="H3" s="61"/>
+      <x:c r="I3" s="61"/>
+      <x:c r="J3" s="61"/>
+      <x:c r="K3" s="60"/>
+      <x:c r="L3" s="59"/>
+      <x:c r="M3" s="60"/>
       <x:c r="N3" s="25"/>
       <x:c r="O3" s="24"/>
       <x:c r="P3" s="25"/>
@@ -2056,42 +1978,42 @@
       <x:c r="V3" s="25"/>
     </x:row>
     <x:row r="4" spans="1:22" ht="13.199999999999999">
-      <x:c r="A4" s="47"/>
+      <x:c r="A4" s="48"/>
       <x:c r="B4" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C4" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E4" s="65" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E4" s="40" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F4" s="40" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="40" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H4" s="40" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="F4" s="65" t="s">
+      <x:c r="I4" s="40" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J4" s="40" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K4" s="40" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L4" s="40" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G4" s="65" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H4" s="65" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I4" s="65" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J4" s="65" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="K4" s="65" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="L4" s="65" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="M4" s="65" t="s">
-        <x:v>24</x:v>
+      <x:c r="M4" s="40" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N4" s="27"/>
       <x:c r="O4" s="27"/>
@@ -2104,17 +2026,17 @@
       <x:c r="V4" s="27"/>
     </x:row>
     <x:row r="5" spans="1:22" ht="13.199999999999999">
-      <x:c r="A5" s="55" t="s">
-        <x:v>30</x:v>
+      <x:c r="A5" s="56" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B5" s="30" t="s">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C5" s="37" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="30" t="s">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E5" s="35"/>
       <x:c r="F5" s="21"/>
@@ -2136,15 +2058,15 @@
       <x:c r="V5" s="24"/>
     </x:row>
     <x:row r="6" spans="1:22" ht="13.199999999999999">
-      <x:c r="A6" s="56"/>
-      <x:c r="B6" s="62" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C6" s="62" t="s">
-        <x:v>14</x:v>
+      <x:c r="A6" s="57"/>
+      <x:c r="B6" s="63" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C6" s="63" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="30" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="39"/>
       <x:c r="F6" s="35"/>
@@ -2166,11 +2088,11 @@
       <x:c r="V6" s="24"/>
     </x:row>
     <x:row r="7" spans="1:22" ht="13.199999999999999">
-      <x:c r="A7" s="56"/>
-      <x:c r="B7" s="64"/>
-      <x:c r="C7" s="63"/>
+      <x:c r="A7" s="57"/>
+      <x:c r="B7" s="65"/>
+      <x:c r="C7" s="64"/>
       <x:c r="D7" s="30" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E7" s="39"/>
       <x:c r="F7" s="35"/>
@@ -2192,13 +2114,13 @@
       <x:c r="V7" s="24"/>
     </x:row>
     <x:row r="8" spans="1:22" ht="13.199999999999999">
-      <x:c r="A8" s="56"/>
-      <x:c r="B8" s="64"/>
-      <x:c r="C8" s="62" t="s">
-        <x:v>3</x:v>
+      <x:c r="A8" s="57"/>
+      <x:c r="B8" s="65"/>
+      <x:c r="C8" s="63" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="30" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="39"/>
       <x:c r="F8" s="35"/>
@@ -2220,11 +2142,11 @@
       <x:c r="V8" s="24"/>
     </x:row>
     <x:row r="9" spans="1:22" ht="13.199999999999999">
-      <x:c r="A9" s="56"/>
-      <x:c r="B9" s="64"/>
-      <x:c r="C9" s="64"/>
+      <x:c r="A9" s="57"/>
+      <x:c r="B9" s="65"/>
+      <x:c r="C9" s="65"/>
       <x:c r="D9" s="38" t="s">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E9" s="39"/>
       <x:c r="F9" s="35"/>
@@ -2246,11 +2168,11 @@
       <x:c r="V9" s="24"/>
     </x:row>
     <x:row r="10" spans="1:22" ht="13.199999999999999">
-      <x:c r="A10" s="56"/>
-      <x:c r="B10" s="63"/>
-      <x:c r="C10" s="63"/>
+      <x:c r="A10" s="57"/>
+      <x:c r="B10" s="64"/>
+      <x:c r="C10" s="64"/>
       <x:c r="D10" s="30" t="s">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E10" s="21"/>
       <x:c r="F10" s="35"/>
@@ -2272,15 +2194,15 @@
       <x:c r="V10" s="24"/>
     </x:row>
     <x:row r="11" spans="1:22" ht="13.199999999999999">
-      <x:c r="A11" s="56"/>
+      <x:c r="A11" s="57"/>
       <x:c r="B11" s="30" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="32" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D11" s="30" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="21"/>
       <x:c r="F11" s="35"/>
@@ -2302,8 +2224,10 @@
       <x:c r="V11" s="24"/>
     </x:row>
     <x:row r="12" spans="1:22" ht="13.199999999999999">
-      <x:c r="A12" s="56"/>
-      <x:c r="B12" s="30"/>
+      <x:c r="A12" s="57"/>
+      <x:c r="B12" s="30" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="C12" s="33"/>
       <x:c r="D12" s="30"/>
       <x:c r="E12" s="21"/>
@@ -2326,7 +2250,7 @@
       <x:c r="V12" s="24"/>
     </x:row>
     <x:row r="13" spans="1:22" ht="13.199999999999999">
-      <x:c r="A13" s="56"/>
+      <x:c r="A13" s="57"/>
       <x:c r="B13" s="30"/>
       <x:c r="C13" s="30"/>
       <x:c r="D13" s="30"/>
@@ -2350,7 +2274,7 @@
       <x:c r="V13" s="24"/>
     </x:row>
     <x:row r="14" spans="1:22" ht="13.199999999999999">
-      <x:c r="A14" s="56"/>
+      <x:c r="A14" s="57"/>
       <x:c r="B14" s="30"/>
       <x:c r="C14" s="30"/>
       <x:c r="D14" s="30"/>
@@ -2374,7 +2298,7 @@
       <x:c r="V14" s="24"/>
     </x:row>
     <x:row r="15" spans="1:22" ht="13.199999999999999">
-      <x:c r="A15" s="57"/>
+      <x:c r="A15" s="58"/>
       <x:c r="B15" s="30"/>
       <x:c r="C15" s="30"/>
       <x:c r="D15" s="31"/>
@@ -2398,18 +2322,20 @@
       <x:c r="V15" s="24"/>
     </x:row>
     <x:row r="16" spans="1:22" ht="13.199999999999999">
-      <x:c r="A16" s="55" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B16" s="50" t="s">
-        <x:v>10</x:v>
+      <x:c r="A16" s="56" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B16" s="51" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C16" s="30"/>
-      <x:c r="D16" s="30"/>
+      <x:c r="D16" s="30" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="E16" s="21"/>
       <x:c r="F16" s="21"/>
-      <x:c r="G16" s="21"/>
-      <x:c r="H16" s="21"/>
+      <x:c r="G16" s="35"/>
+      <x:c r="H16" s="35"/>
       <x:c r="I16" s="21"/>
       <x:c r="J16" s="21"/>
       <x:c r="K16" s="21"/>
@@ -2426,8 +2352,8 @@
       <x:c r="V16" s="24"/>
     </x:row>
     <x:row r="17" spans="1:22" ht="13.199999999999999">
-      <x:c r="A17" s="56"/>
-      <x:c r="B17" s="51"/>
+      <x:c r="A17" s="57"/>
+      <x:c r="B17" s="52"/>
       <x:c r="C17" s="30"/>
       <x:c r="D17" s="30"/>
       <x:c r="E17" s="21"/>
@@ -2450,9 +2376,9 @@
       <x:c r="V17" s="24"/>
     </x:row>
     <x:row r="18" spans="1:22" ht="13.199999999999999">
-      <x:c r="A18" s="56"/>
-      <x:c r="B18" s="40" t="s">
-        <x:v>21</x:v>
+      <x:c r="A18" s="57"/>
+      <x:c r="B18" s="41" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="30"/>
       <x:c r="D18" s="30"/>
@@ -2476,8 +2402,8 @@
       <x:c r="V18" s="24"/>
     </x:row>
     <x:row r="19" spans="1:22" ht="13.199999999999999">
-      <x:c r="A19" s="56"/>
-      <x:c r="B19" s="42"/>
+      <x:c r="A19" s="57"/>
+      <x:c r="B19" s="43"/>
       <x:c r="C19" s="30"/>
       <x:c r="D19" s="30"/>
       <x:c r="E19" s="21"/>
@@ -2500,9 +2426,9 @@
       <x:c r="V19" s="24"/>
     </x:row>
     <x:row r="20" spans="1:22" ht="13.199999999999999">
-      <x:c r="A20" s="56"/>
-      <x:c r="B20" s="40" t="s">
-        <x:v>9</x:v>
+      <x:c r="A20" s="57"/>
+      <x:c r="B20" s="41" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="30"/>
       <x:c r="D20" s="30"/>
@@ -2526,8 +2452,8 @@
       <x:c r="V20" s="24"/>
     </x:row>
     <x:row r="21" spans="1:22" ht="13.199999999999999">
-      <x:c r="A21" s="56"/>
-      <x:c r="B21" s="42"/>
+      <x:c r="A21" s="57"/>
+      <x:c r="B21" s="43"/>
       <x:c r="C21" s="30"/>
       <x:c r="D21" s="30"/>
       <x:c r="E21" s="21"/>
@@ -2550,7 +2476,7 @@
       <x:c r="V21" s="24"/>
     </x:row>
     <x:row r="22" spans="1:22" ht="13.199999999999999">
-      <x:c r="A22" s="56"/>
+      <x:c r="A22" s="57"/>
       <x:c r="B22" s="30"/>
       <x:c r="C22" s="30"/>
       <x:c r="D22" s="30"/>
@@ -2574,7 +2500,7 @@
       <x:c r="V22" s="24"/>
     </x:row>
     <x:row r="23" spans="1:22" ht="13.199999999999999">
-      <x:c r="A23" s="56"/>
+      <x:c r="A23" s="57"/>
       <x:c r="B23" s="30"/>
       <x:c r="C23" s="30"/>
       <x:c r="D23" s="30"/>
@@ -2598,7 +2524,7 @@
       <x:c r="V23" s="24"/>
     </x:row>
     <x:row r="24" spans="1:22" ht="13.199999999999999">
-      <x:c r="A24" s="56"/>
+      <x:c r="A24" s="57"/>
       <x:c r="B24" s="23"/>
       <x:c r="C24" s="33"/>
       <x:c r="D24" s="30"/>
@@ -2622,7 +2548,7 @@
       <x:c r="V24" s="24"/>
     </x:row>
     <x:row r="25" spans="1:22" ht="13.199999999999999">
-      <x:c r="A25" s="56"/>
+      <x:c r="A25" s="57"/>
       <x:c r="B25" s="23"/>
       <x:c r="C25" s="30"/>
       <x:c r="D25" s="30"/>
@@ -2646,7 +2572,7 @@
       <x:c r="V25" s="24"/>
     </x:row>
     <x:row r="26" spans="1:22" ht="13.199999999999999">
-      <x:c r="A26" s="56"/>
+      <x:c r="A26" s="57"/>
       <x:c r="B26" s="30"/>
       <x:c r="C26" s="30"/>
       <x:c r="D26" s="30"/>
@@ -2670,7 +2596,7 @@
       <x:c r="V26" s="24"/>
     </x:row>
     <x:row r="27" spans="1:22" ht="13.199999999999999">
-      <x:c r="A27" s="57"/>
+      <x:c r="A27" s="58"/>
       <x:c r="B27" s="34"/>
       <x:c r="C27" s="30"/>
       <x:c r="D27" s="30"/>
@@ -2694,11 +2620,11 @@
       <x:c r="V27" s="24"/>
     </x:row>
     <x:row r="28" spans="1:22" ht="13.199999999999999">
-      <x:c r="A28" s="61" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B28" s="52" t="s">
-        <x:v>39</x:v>
+      <x:c r="A28" s="62" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B28" s="53" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C28" s="23"/>
       <x:c r="D28" s="10"/>
@@ -2722,8 +2648,8 @@
       <x:c r="V28" s="24"/>
     </x:row>
     <x:row r="29" spans="1:22" ht="13.199999999999999">
-      <x:c r="A29" s="61"/>
-      <x:c r="B29" s="53"/>
+      <x:c r="A29" s="62"/>
+      <x:c r="B29" s="54"/>
       <x:c r="C29" s="23"/>
       <x:c r="D29" s="10"/>
       <x:c r="E29" s="21"/>
@@ -2746,8 +2672,8 @@
       <x:c r="V29" s="24"/>
     </x:row>
     <x:row r="30" spans="1:22" ht="13.199999999999999">
-      <x:c r="A30" s="61"/>
-      <x:c r="B30" s="53"/>
+      <x:c r="A30" s="62"/>
+      <x:c r="B30" s="54"/>
       <x:c r="C30" s="23"/>
       <x:c r="D30" s="10"/>
       <x:c r="E30" s="21"/>
@@ -2770,8 +2696,8 @@
       <x:c r="V30" s="24"/>
     </x:row>
     <x:row r="31" spans="1:22" ht="13.199999999999999">
-      <x:c r="A31" s="61"/>
-      <x:c r="B31" s="53"/>
+      <x:c r="A31" s="62"/>
+      <x:c r="B31" s="54"/>
       <x:c r="C31" s="23"/>
       <x:c r="D31" s="10"/>
       <x:c r="E31" s="21"/>
@@ -2794,8 +2720,8 @@
       <x:c r="V31" s="24"/>
     </x:row>
     <x:row r="32" spans="1:22" ht="13.199999999999999">
-      <x:c r="A32" s="61"/>
-      <x:c r="B32" s="53"/>
+      <x:c r="A32" s="62"/>
+      <x:c r="B32" s="54"/>
       <x:c r="C32" s="23"/>
       <x:c r="D32" s="10"/>
       <x:c r="E32" s="21"/>
@@ -2818,8 +2744,8 @@
       <x:c r="V32" s="24"/>
     </x:row>
     <x:row r="33" spans="1:22" ht="13.199999999999999">
-      <x:c r="A33" s="61"/>
-      <x:c r="B33" s="53"/>
+      <x:c r="A33" s="62"/>
+      <x:c r="B33" s="54"/>
       <x:c r="C33" s="23"/>
       <x:c r="D33" s="10"/>
       <x:c r="E33" s="21"/>
@@ -2842,8 +2768,8 @@
       <x:c r="V33" s="24"/>
     </x:row>
     <x:row r="34" spans="1:22" ht="13.199999999999999">
-      <x:c r="A34" s="61"/>
-      <x:c r="B34" s="53"/>
+      <x:c r="A34" s="62"/>
+      <x:c r="B34" s="54"/>
       <x:c r="C34" s="23"/>
       <x:c r="D34" s="10"/>
       <x:c r="E34" s="21"/>
@@ -2866,8 +2792,8 @@
       <x:c r="V34" s="24"/>
     </x:row>
     <x:row r="35" spans="1:22" ht="13.199999999999999">
-      <x:c r="A35" s="61"/>
-      <x:c r="B35" s="53"/>
+      <x:c r="A35" s="62"/>
+      <x:c r="B35" s="54"/>
       <x:c r="C35" s="23"/>
       <x:c r="D35" s="10"/>
       <x:c r="E35" s="21"/>
@@ -2890,8 +2816,8 @@
       <x:c r="V35" s="24"/>
     </x:row>
     <x:row r="36" spans="1:22" ht="13.199999999999999">
-      <x:c r="A36" s="61"/>
-      <x:c r="B36" s="53"/>
+      <x:c r="A36" s="62"/>
+      <x:c r="B36" s="54"/>
       <x:c r="C36" s="23"/>
       <x:c r="D36" s="10"/>
       <x:c r="E36" s="21"/>
@@ -2914,8 +2840,8 @@
       <x:c r="V36" s="24"/>
     </x:row>
     <x:row r="37" spans="1:22" ht="13.199999999999999">
-      <x:c r="A37" s="61"/>
-      <x:c r="B37" s="53"/>
+      <x:c r="A37" s="62"/>
+      <x:c r="B37" s="54"/>
       <x:c r="C37" s="23"/>
       <x:c r="D37" s="10"/>
       <x:c r="E37" s="21"/>
@@ -2938,8 +2864,8 @@
       <x:c r="V37" s="24"/>
     </x:row>
     <x:row r="38" spans="1:22" ht="13.199999999999999">
-      <x:c r="A38" s="61"/>
-      <x:c r="B38" s="53"/>
+      <x:c r="A38" s="62"/>
+      <x:c r="B38" s="54"/>
       <x:c r="C38" s="23"/>
       <x:c r="D38" s="10"/>
       <x:c r="E38" s="21"/>
@@ -2962,8 +2888,8 @@
       <x:c r="V38" s="24"/>
     </x:row>
     <x:row r="39" spans="1:22" ht="13.199999999999999">
-      <x:c r="A39" s="61"/>
-      <x:c r="B39" s="53"/>
+      <x:c r="A39" s="62"/>
+      <x:c r="B39" s="54"/>
       <x:c r="C39" s="23"/>
       <x:c r="D39" s="10"/>
       <x:c r="E39" s="21"/>
@@ -2986,8 +2912,8 @@
       <x:c r="V39" s="24"/>
     </x:row>
     <x:row r="40" spans="1:22" ht="13.199999999999999">
-      <x:c r="A40" s="61"/>
-      <x:c r="B40" s="53"/>
+      <x:c r="A40" s="62"/>
+      <x:c r="B40" s="54"/>
       <x:c r="C40" s="23"/>
       <x:c r="D40" s="10"/>
       <x:c r="E40" s="21"/>
@@ -3010,8 +2936,8 @@
       <x:c r="V40" s="24"/>
     </x:row>
     <x:row r="41" spans="1:22" ht="15" customHeight="1">
-      <x:c r="A41" s="61"/>
-      <x:c r="B41" s="53"/>
+      <x:c r="A41" s="62"/>
+      <x:c r="B41" s="54"/>
       <x:c r="C41" s="23"/>
       <x:c r="D41" s="10"/>
       <x:c r="E41" s="21"/>
@@ -3034,8 +2960,8 @@
       <x:c r="V41" s="24"/>
     </x:row>
     <x:row r="42" spans="1:22" ht="13.199999999999999">
-      <x:c r="A42" s="61"/>
-      <x:c r="B42" s="53"/>
+      <x:c r="A42" s="62"/>
+      <x:c r="B42" s="54"/>
       <x:c r="C42" s="10"/>
       <x:c r="D42" s="10"/>
       <x:c r="E42" s="21"/>
@@ -3058,8 +2984,8 @@
       <x:c r="V42" s="24"/>
     </x:row>
     <x:row r="43" spans="1:22" ht="13.199999999999999">
-      <x:c r="A43" s="61"/>
-      <x:c r="B43" s="53"/>
+      <x:c r="A43" s="62"/>
+      <x:c r="B43" s="54"/>
       <x:c r="C43" s="20"/>
       <x:c r="D43" s="10"/>
       <x:c r="E43" s="21"/>
@@ -3082,8 +3008,8 @@
       <x:c r="V43" s="24"/>
     </x:row>
     <x:row r="44" spans="1:22" ht="13.199999999999999">
-      <x:c r="A44" s="61"/>
-      <x:c r="B44" s="53"/>
+      <x:c r="A44" s="62"/>
+      <x:c r="B44" s="54"/>
       <x:c r="C44" s="20"/>
       <x:c r="D44" s="10"/>
       <x:c r="E44" s="21"/>
@@ -3106,8 +3032,8 @@
       <x:c r="V44" s="24"/>
     </x:row>
     <x:row r="45" spans="1:22" ht="13.199999999999999">
-      <x:c r="A45" s="61"/>
-      <x:c r="B45" s="54"/>
+      <x:c r="A45" s="62"/>
+      <x:c r="B45" s="55"/>
       <x:c r="C45" s="10"/>
       <x:c r="D45" s="10"/>
       <x:c r="E45" s="21"/>
@@ -3130,14 +3056,18 @@
       <x:c r="V45" s="24"/>
     </x:row>
     <x:row r="46" spans="1:22" ht="13.199999999999999">
-      <x:c r="A46" s="56" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B46" s="40" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C46" s="10"/>
-      <x:c r="D46" s="10"/>
+      <x:c r="A46" s="57" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B46" s="41" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C46" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D46" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="E46" s="21"/>
       <x:c r="F46" s="21"/>
       <x:c r="G46" s="21"/>
@@ -3145,7 +3075,7 @@
       <x:c r="I46" s="21"/>
       <x:c r="J46" s="21"/>
       <x:c r="K46" s="21"/>
-      <x:c r="L46" s="21"/>
+      <x:c r="L46" s="35"/>
       <x:c r="M46" s="21"/>
       <x:c r="N46" s="24"/>
       <x:c r="O46" s="24"/>
@@ -3158,10 +3088,14 @@
       <x:c r="V46" s="24"/>
     </x:row>
     <x:row r="47" spans="1:22" ht="12.5" customHeight="1">
-      <x:c r="A47" s="56"/>
-      <x:c r="B47" s="41"/>
-      <x:c r="C47" s="10"/>
-      <x:c r="D47" s="10"/>
+      <x:c r="A47" s="57"/>
+      <x:c r="B47" s="42"/>
+      <x:c r="C47" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D47" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E47" s="21"/>
       <x:c r="F47" s="21"/>
       <x:c r="G47" s="21"/>
@@ -3169,7 +3103,7 @@
       <x:c r="I47" s="21"/>
       <x:c r="J47" s="21"/>
       <x:c r="K47" s="21"/>
-      <x:c r="L47" s="21"/>
+      <x:c r="L47" s="35"/>
       <x:c r="M47" s="21"/>
       <x:c r="N47" s="24"/>
       <x:c r="O47" s="24"/>
@@ -3182,8 +3116,8 @@
       <x:c r="V47" s="24"/>
     </x:row>
     <x:row r="48" spans="1:22" ht="13.199999999999999">
-      <x:c r="A48" s="56"/>
-      <x:c r="B48" s="41"/>
+      <x:c r="A48" s="57"/>
+      <x:c r="B48" s="42"/>
       <x:c r="C48" s="10"/>
       <x:c r="D48" s="10"/>
       <x:c r="E48" s="21"/>
@@ -3206,8 +3140,8 @@
       <x:c r="V48" s="24"/>
     </x:row>
     <x:row r="49" spans="1:22" ht="13.199999999999999">
-      <x:c r="A49" s="56"/>
-      <x:c r="B49" s="42"/>
+      <x:c r="A49" s="57"/>
+      <x:c r="B49" s="43"/>
       <x:c r="C49" s="10"/>
       <x:c r="D49" s="10"/>
       <x:c r="E49" s="21"/>
@@ -3230,7 +3164,7 @@
       <x:c r="V49" s="24"/>
     </x:row>
     <x:row r="50" spans="1:22" ht="13.199999999999999">
-      <x:c r="A50" s="57"/>
+      <x:c r="A50" s="58"/>
       <x:c r="B50" s="10"/>
       <x:c r="C50" s="10"/>
       <x:c r="D50" s="10"/>
@@ -3255,7 +3189,7 @@
     </x:row>
     <x:row r="51" spans="1:22" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B51" s="6"/>
       <x:c r="C51" s="6"/>
@@ -3281,7 +3215,7 @@
     </x:row>
     <x:row r="52" spans="1:22" ht="13.5" customHeight="1">
       <x:c r="A52" s="9" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B52" s="17"/>
       <x:c r="C52" s="2"/>
@@ -3402,9 +3336,9 @@
       <x:c r="V56" s="29"/>
     </x:row>
     <x:row r="57" spans="1:22" ht="14.199999999999999">
-      <x:c r="A57" s="43"/>
-      <x:c r="B57" s="44"/>
-      <x:c r="C57" s="44"/>
+      <x:c r="A57" s="44"/>
+      <x:c r="B57" s="45"/>
+      <x:c r="C57" s="45"/>
       <x:c r="D57" s="12"/>
       <x:c r="E57" s="12"/>
       <x:c r="F57" s="12"/>
@@ -3426,9 +3360,9 @@
       <x:c r="V57" s="26"/>
     </x:row>
     <x:row r="58" spans="1:22" ht="14.199999999999999">
-      <x:c r="A58" s="45"/>
-      <x:c r="B58" s="46"/>
-      <x:c r="C58" s="46"/>
+      <x:c r="A58" s="46"/>
+      <x:c r="B58" s="47"/>
+      <x:c r="C58" s="47"/>
       <x:c r="D58" s="8"/>
       <x:c r="E58" s="8"/>
       <x:c r="F58" s="8"/>
